--- a/documents/BaoCaoDot3+4/Testcase.xlsx
+++ b/documents/BaoCaoDot3+4/Testcase.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hk1nam4\PTTKHDT\Streaming-Movie\documents\BaoCaoDot3+4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\BaoCaoDot3+4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0B4B1-CDFD-42E5-852D-DE052B96CB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5782D592-AF31-47EF-8805-7432477C6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCase!$A$1:$H$228</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCase!$A$1:$H$229</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="565">
   <si>
     <t>TÌNH TRẠNG</t>
   </si>
@@ -1801,12 +1801,18 @@
   <si>
     <t>26.4.2</t>
   </si>
+  <si>
+    <t>Yêu cầu đăng nhập</t>
+  </si>
+  <si>
+    <t>Bấm vào nút Register Now khi chưa đăng nhập</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1855,16 +1861,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1981,7 +1982,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2017,9 +2018,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2052,8 +2050,52 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2076,17 +2118,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2097,9 +2130,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2109,65 +2139,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2581,26 +2569,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G347"/>
+  <dimension ref="B1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.55" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="8.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="39.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.25" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="9" customWidth="1"/>
     <col min="8" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="13.1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2632,7 +2620,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -2646,7 +2634,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1.2</v>
       </c>
@@ -2662,11 +2650,11 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>1.3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>275</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2678,7 +2666,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>1.4</v>
       </c>
@@ -2694,28 +2682,28 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>1.5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>279</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1.6</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2724,14 +2712,14 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1.7</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2740,14 +2728,14 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1.8</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -2756,7 +2744,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>1.9</v>
       </c>
@@ -2764,20 +2752,20 @@
         <v>284</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>285</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="16">
+    <row r="13" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>287</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2786,7 +2774,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>1.1100000000000001</v>
       </c>
@@ -2802,7 +2790,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -2811,10 +2799,10 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>2.1</v>
       </c>
@@ -2828,7 +2816,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -2837,11 +2825,11 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="26">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>3.1</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -2854,7 +2842,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>3.2</v>
       </c>
@@ -2870,7 +2858,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>3.3</v>
       </c>
@@ -2884,21 +2872,21 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>3.4</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>3.5</v>
       </c>
@@ -2912,7 +2900,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>3.6</v>
       </c>
@@ -2928,7 +2916,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>3.7</v>
       </c>
@@ -2944,7 +2932,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>3.8</v>
       </c>
@@ -2960,50 +2948,50 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>3.9</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
+    <row r="27" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
         <v>3.1</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>3.11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="16">
+    <row r="29" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
         <v>3.12</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -3016,8 +3004,8 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
+    <row r="30" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
         <v>3.13</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3030,8 +3018,8 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
+    <row r="31" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
         <v>3.14</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3044,8 +3032,8 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
+    <row r="32" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15">
         <v>3.15</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3060,7 +3048,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>4</v>
       </c>
@@ -3069,14 +3057,14 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="4"/>
@@ -3086,7 +3074,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>4.2</v>
       </c>
@@ -3102,7 +3090,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>4.3</v>
       </c>
@@ -3118,7 +3106,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -3132,21 +3120,21 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>4.5</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="13"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -3162,50 +3150,50 @@
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>4.7</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>4.8</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="13"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>4.9000000000000004</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B43" s="16">
+    <row r="43" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15">
         <v>4.0999999999999996</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3218,7 +3206,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>4.1100000000000003</v>
       </c>
@@ -3232,7 +3220,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>4.12</v>
       </c>
@@ -3246,7 +3234,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>4.13</v>
       </c>
@@ -3262,7 +3250,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -3271,10 +3259,10 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <f xml:space="preserve"> B47 + 0.1</f>
         <v>5.0999999999999996</v>
@@ -3286,12 +3274,12 @@
       <c r="E48" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f>B48 + 0.1</f>
         <v>5.1999999999999993</v>
@@ -3303,12 +3291,12 @@
       <c r="E49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" ref="B50:B53" si="0">B49 + 0.1</f>
         <v>5.2999999999999989</v>
@@ -3320,12 +3308,12 @@
       <c r="E50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="0"/>
         <v>5.3999999999999986</v>
@@ -3337,12 +3325,12 @@
       <c r="E51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>5.4999999999999982</v>
@@ -3354,12 +3342,12 @@
       <c r="E52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" si="0"/>
         <v>5.5999999999999979</v>
@@ -3371,12 +3359,12 @@
       <c r="E53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>67</v>
       </c>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>6</v>
       </c>
@@ -3385,10 +3373,10 @@
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <f>B54 + 0.1</f>
         <v>6.1</v>
@@ -3400,10 +3388,10 @@
       <c r="E55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <f t="shared" ref="B56:B70" si="1">B55 + 0.1</f>
         <v>6.1999999999999993</v>
@@ -3417,10 +3405,10 @@
       <c r="E56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="14"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <f t="shared" si="1"/>
         <v>6.2999999999999989</v>
@@ -3434,10 +3422,10 @@
       <c r="E57" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F57" s="14"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <f t="shared" si="1"/>
         <v>6.3999999999999986</v>
@@ -3451,10 +3439,10 @@
       <c r="E58" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <f t="shared" si="1"/>
         <v>6.4999999999999982</v>
@@ -3468,10 +3456,10 @@
       <c r="E59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <f t="shared" si="1"/>
         <v>6.5999999999999979</v>
@@ -3483,10 +3471,10 @@
       <c r="E60" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <f t="shared" si="1"/>
         <v>6.6999999999999975</v>
@@ -3503,7 +3491,7 @@
       </c>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <f t="shared" si="1"/>
         <v>6.7999999999999972</v>
@@ -3518,7 +3506,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <f t="shared" si="1"/>
         <v>6.8999999999999968</v>
@@ -3533,7 +3521,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <f t="shared" si="1"/>
         <v>6.9999999999999964</v>
@@ -3550,7 +3538,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <f t="shared" si="1"/>
         <v>7.0999999999999961</v>
@@ -3565,7 +3553,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <f t="shared" si="1"/>
         <v>7.1999999999999957</v>
@@ -3577,10 +3565,10 @@
       <c r="E66" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="14"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <f t="shared" si="1"/>
         <v>7.2999999999999954</v>
@@ -3592,10 +3580,10 @@
       <c r="E67" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="14"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <f t="shared" si="1"/>
         <v>7.399999999999995</v>
@@ -3607,10 +3595,10 @@
       <c r="E68" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F68" s="14"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <f t="shared" si="1"/>
         <v>7.4999999999999947</v>
@@ -3622,10 +3610,10 @@
       <c r="E69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F69" s="14"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <f t="shared" si="1"/>
         <v>7.5999999999999943</v>
@@ -3637,10 +3625,10 @@
       <c r="E70" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="14"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>7</v>
       </c>
@@ -3649,23 +3637,23 @@
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="63">
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
         <f>B71 + 0.1</f>
         <v>7.1</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-    </row>
-    <row r="73" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+    </row>
+    <row r="73" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="str">
         <f>$B$72 &amp; ".1"</f>
         <v>7.1.1</v>
@@ -3677,10 +3665,10 @@
       <c r="E73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
         <f>$B$72 &amp; ".2"</f>
         <v>7.1.2</v>
@@ -3694,10 +3682,10 @@
       <c r="E74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F74" s="14"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
         <f>$B$72 &amp; ".3"</f>
         <v>7.1.3</v>
@@ -3711,10 +3699,10 @@
       <c r="E75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F75" s="14"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
         <f t="shared" ref="B76" si="2">$B$72 &amp; ".1"</f>
         <v>7.1.1</v>
@@ -3728,10 +3716,10 @@
       <c r="E76" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="14"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="str">
         <f>$B$72 &amp; ".4"</f>
         <v>7.1.4</v>
@@ -3743,10 +3731,10 @@
       <c r="E77" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F77" s="14"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="str">
         <f>$B$72 &amp; ".5"</f>
         <v>7.1.5</v>
@@ -3758,10 +3746,10 @@
       <c r="E78" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="14"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="str">
         <f>$B$72 &amp; ".6"</f>
         <v>7.1.6</v>
@@ -3775,23 +3763,23 @@
       <c r="E79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F79" s="14"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="63">
+    <row r="80" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B80" s="25">
         <f>B72+0.1</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-    </row>
-    <row r="81" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+    </row>
+    <row r="81" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="str">
         <f>$B$80 &amp; ".1"</f>
         <v>7.2.1</v>
@@ -3803,10 +3791,10 @@
       <c r="E81" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="14"/>
+      <c r="F81" s="13"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
         <f>$B$80 &amp; ".2"</f>
         <v>7.2.2</v>
@@ -3818,10 +3806,10 @@
       <c r="E82" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F82" s="14"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="str">
         <f>$B$80 &amp; ".3"</f>
         <v>7.2.3</v>
@@ -3833,10 +3821,10 @@
       <c r="E83" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F83" s="14"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="str">
         <f>$B$80 &amp; ".4"</f>
         <v>7.2.4</v>
@@ -3848,10 +3836,10 @@
       <c r="E84" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F84" s="14"/>
+      <c r="F84" s="13"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="str">
         <f>$B$80 &amp; ".5"</f>
         <v>7.2.5</v>
@@ -3863,10 +3851,10 @@
       <c r="E85" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F85" s="14"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="str">
         <f>$B$80 &amp; ".6"</f>
         <v>7.2.6</v>
@@ -3878,10 +3866,10 @@
       <c r="E86" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F86" s="14"/>
+      <c r="F86" s="13"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
         <f>$B$80 &amp; ".7"</f>
         <v>7.2.7</v>
@@ -3893,10 +3881,10 @@
       <c r="E87" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F87" s="14"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
         <f>$B$80 &amp; ".8"</f>
         <v>7.2.8</v>
@@ -3910,23 +3898,23 @@
       <c r="E88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="14"/>
+      <c r="F88" s="13"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="63">
+    <row r="89" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B89" s="25">
         <f>B80+0.1</f>
         <v>7.2999999999999989</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-    </row>
-    <row r="90" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+    </row>
+    <row r="90" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="str">
         <f>$B$89 &amp; ".1"</f>
         <v>7.3.1</v>
@@ -3938,10 +3926,10 @@
       <c r="E90" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F90" s="14"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="str">
         <f>$B$89 &amp; ".2"</f>
         <v>7.3.2</v>
@@ -3953,10 +3941,10 @@
       <c r="E91" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F91" s="14"/>
+      <c r="F91" s="13"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="str">
         <f>$B$89 &amp; ".3"</f>
         <v>7.3.3</v>
@@ -3968,10 +3956,10 @@
       <c r="E92" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F92" s="14"/>
+      <c r="F92" s="13"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="str">
         <f>$B$89 &amp; ".4"</f>
         <v>7.3.4</v>
@@ -3983,10 +3971,10 @@
       <c r="E93" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F93" s="14"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="str">
         <f>$B$89 &amp; ".5"</f>
         <v>7.3.5</v>
@@ -3998,10 +3986,10 @@
       <c r="E94" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F94" s="14"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="str">
         <f>$B$89 &amp; ".6"</f>
         <v>7.3.6</v>
@@ -4013,10 +4001,10 @@
       <c r="E95" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F95" s="14"/>
+      <c r="F95" s="13"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="str">
         <f>$B$89 &amp; ".7"</f>
         <v>7.3.7</v>
@@ -4028,10 +4016,10 @@
       <c r="E96" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F96" s="14"/>
+      <c r="F96" s="13"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="str">
         <f>$B$89 &amp; ".8"</f>
         <v>7.3.8</v>
@@ -4043,10 +4031,10 @@
       <c r="E97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F97" s="14"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="str">
         <f>$B$89 &amp; ".9"</f>
         <v>7.3.9</v>
@@ -4060,10 +4048,10 @@
       <c r="E98" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F98" s="14"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>8</v>
       </c>
@@ -4072,18 +4060,18 @@
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B100" s="26">
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
         <f>B99 + 0.1</f>
         <v>8.1</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="17" t="s">
         <v>333</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -4092,13 +4080,13 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B101" s="26">
-        <f t="shared" ref="B101:B107" si="3">B100 + 0.1</f>
+    <row r="101" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <f t="shared" ref="B101:B108" si="3">B100 + 0.1</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="18" t="s">
+      <c r="C101" s="47"/>
+      <c r="D101" s="17" t="s">
         <v>332</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -4107,8 +4095,8 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="26">
+    <row r="102" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
         <f t="shared" si="3"/>
         <v>8.2999999999999989</v>
       </c>
@@ -4122,8 +4110,8 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B103" s="26">
+    <row r="103" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
         <f t="shared" si="3"/>
         <v>8.3999999999999986</v>
       </c>
@@ -4139,3763 +4127,3780 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B104" s="26">
+    <row r="104" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
         <f t="shared" si="3"/>
         <v>8.4999999999999982</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D104" s="4"/>
+      <c r="C104" s="65" t="s">
+        <v>564</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="E104" s="4" t="s">
-        <v>334</v>
+        <v>563</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="26">
+    <row r="105" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
         <f t="shared" si="3"/>
         <v>8.5999999999999979</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>337</v>
+      <c r="C105" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B106" s="26">
+    <row r="106" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
         <f t="shared" si="3"/>
         <v>8.6999999999999975</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4" t="s">
-        <v>325</v>
+        <v>336</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B107" s="26">
+    <row r="107" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
         <f t="shared" si="3"/>
         <v>8.7999999999999972</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>339</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>8</v>
+        <v>325</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B108" s="2">
+    <row r="108" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <f t="shared" si="3"/>
+        <v>8.8999999999999968</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2">
         <v>9</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-    </row>
-    <row r="109" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B109" s="3">
-        <f>B108 + 0.1</f>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <f>B109 + 0.1</f>
         <v>9.1</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="4" t="s">
+      <c r="D110" s="7"/>
+      <c r="E110" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B110" s="3">
-        <f t="shared" ref="B110:B117" si="4">B109 + 0.1</f>
+      <c r="F110" s="13"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <f t="shared" ref="B111:B118" si="4">B110 + 0.1</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C111" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7" t="s">
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F110" s="14" t="s">
+      <c r="F111" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="3">
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
         <f t="shared" si="4"/>
         <v>9.2999999999999989</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D112" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="3">
+      <c r="F112" s="13"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
         <f t="shared" si="4"/>
         <v>9.3999999999999986</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D113" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E113" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B113" s="3">
+      <c r="F113" s="13"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
         <f t="shared" si="4"/>
         <v>9.4999999999999982</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C114" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E113" s="20" t="s">
+      <c r="E114" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="29"/>
-    </row>
-    <row r="114" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B114" s="3">
+      <c r="F114" s="13"/>
+      <c r="G114" s="48"/>
+    </row>
+    <row r="115" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
         <f t="shared" si="4"/>
         <v>9.5999999999999979</v>
       </c>
-      <c r="C114" s="39"/>
-      <c r="D114" s="18" t="s">
+      <c r="C115" s="55"/>
+      <c r="D115" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E115" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="30"/>
-    </row>
-    <row r="115" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B115" s="3">
+      <c r="F115" s="13"/>
+      <c r="G115" s="49"/>
+    </row>
+    <row r="116" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
         <f t="shared" si="4"/>
         <v>9.6999999999999975</v>
       </c>
-      <c r="C115" s="40"/>
-      <c r="D115" s="18" t="s">
+      <c r="C116" s="56"/>
+      <c r="D116" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E116" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="31"/>
-    </row>
-    <row r="116" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B116" s="3">
+      <c r="F116" s="13"/>
+      <c r="G116" s="50"/>
+    </row>
+    <row r="117" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
         <f t="shared" si="4"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="C116" s="45" t="s">
+      <c r="C117" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D117" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E117" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F116" s="14"/>
-      <c r="G116" s="29"/>
-    </row>
-    <row r="117" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B117" s="3">
+      <c r="F117" s="13"/>
+      <c r="G117" s="48"/>
+    </row>
+    <row r="118" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
         <f t="shared" si="4"/>
         <v>9.8999999999999968</v>
       </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="18" t="s">
+      <c r="C118" s="64"/>
+      <c r="D118" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E118" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="30"/>
-    </row>
-    <row r="118" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B118" s="16">
-        <f>B109</f>
+      <c r="F118" s="13"/>
+      <c r="G118" s="49"/>
+    </row>
+    <row r="119" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B119" s="15">
+        <f>B110</f>
         <v>9.1</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="18" t="s">
+      <c r="C119" s="64"/>
+      <c r="D119" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E119" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F118" s="14"/>
-      <c r="G118" s="30"/>
-    </row>
-    <row r="119" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B119" s="16">
-        <f>B118+0.01</f>
+      <c r="F119" s="13"/>
+      <c r="G119" s="49"/>
+    </row>
+    <row r="120" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B120" s="15">
+        <f>B119+0.01</f>
         <v>9.11</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="18" t="s">
+      <c r="C120" s="64"/>
+      <c r="D120" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E120" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F119" s="14"/>
-      <c r="G119" s="31"/>
-    </row>
-    <row r="120" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B120" s="16">
-        <f t="shared" ref="B120:B122" si="5">B119+0.01</f>
+      <c r="F120" s="13"/>
+      <c r="G120" s="50"/>
+    </row>
+    <row r="121" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B121" s="15">
+        <f t="shared" ref="B121:B123" si="5">B120+0.01</f>
         <v>9.1199999999999992</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C121" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D121" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E121" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F120" s="14"/>
-      <c r="G120" s="29"/>
-    </row>
-    <row r="121" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B121" s="16">
+      <c r="F121" s="13"/>
+      <c r="G121" s="48"/>
+    </row>
+    <row r="122" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B122" s="15">
         <f t="shared" si="5"/>
         <v>9.129999999999999</v>
       </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="18" t="s">
+      <c r="C122" s="60"/>
+      <c r="D122" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E122" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="30"/>
-    </row>
-    <row r="122" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B122" s="16">
+      <c r="F122" s="13"/>
+      <c r="G122" s="49"/>
+    </row>
+    <row r="123" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B123" s="15">
         <f t="shared" si="5"/>
         <v>9.1399999999999988</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="18" t="s">
+      <c r="C123" s="47"/>
+      <c r="D123" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E123" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="31"/>
-    </row>
-    <row r="123" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B123" s="34">
-        <f>B122+0.01</f>
+      <c r="F123" s="13"/>
+      <c r="G123" s="50"/>
+    </row>
+    <row r="124" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B124" s="61">
+        <f>B123+0.01</f>
         <v>9.1499999999999986</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C124" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D124" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E124" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F123" s="32"/>
-      <c r="G123" s="29"/>
-    </row>
-    <row r="124" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B124" s="35"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="18" t="s">
+      <c r="F124" s="51"/>
+      <c r="G124" s="48"/>
+    </row>
+    <row r="125" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B125" s="62"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E124" s="37"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="30"/>
-    </row>
-    <row r="125" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B125" s="35"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="7" t="s">
+      <c r="E125" s="60"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="49"/>
+    </row>
+    <row r="126" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B126" s="62"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E125" s="37"/>
-      <c r="F125" s="42"/>
-      <c r="G125" s="30"/>
-    </row>
-    <row r="126" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B126" s="36"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="7" t="s">
+      <c r="E126" s="60"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="49"/>
+    </row>
+    <row r="127" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B127" s="63"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E126" s="28"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="31"/>
-    </row>
-    <row r="127" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="34">
-        <f>B123+0.01</f>
+      <c r="E127" s="47"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="50"/>
+    </row>
+    <row r="128" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B128" s="61">
+        <f>B124+0.01</f>
         <v>9.1599999999999984</v>
       </c>
-      <c r="C127" s="38" t="s">
+      <c r="C128" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D128" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E128" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F127" s="32"/>
-      <c r="G127" s="29"/>
-    </row>
-    <row r="128" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B128" s="35"/>
-      <c r="C128" s="39"/>
-      <c r="D128" s="18" t="s">
+      <c r="F128" s="51"/>
+      <c r="G128" s="48"/>
+    </row>
+    <row r="129" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B129" s="62"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E128" s="37"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="30"/>
-    </row>
-    <row r="129" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B129" s="35"/>
-      <c r="C129" s="39"/>
-      <c r="D129" s="7" t="s">
+      <c r="E129" s="60"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="49"/>
+    </row>
+    <row r="130" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B130" s="62"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E129" s="37"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="30"/>
-    </row>
-    <row r="130" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B130" s="36"/>
-      <c r="C130" s="40"/>
-      <c r="D130" s="7" t="s">
+      <c r="E130" s="60"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="49"/>
+    </row>
+    <row r="131" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B131" s="63"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E130" s="28"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="31"/>
-    </row>
-    <row r="131" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B131" s="16">
-        <f>B127+0.01</f>
+      <c r="E131" s="47"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="50"/>
+    </row>
+    <row r="132" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B132" s="15">
+        <f>B128+0.01</f>
         <v>9.1699999999999982</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C132" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7" t="s">
+      <c r="D132" s="7"/>
+      <c r="E132" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B132" s="16">
-        <f>B131+0.01</f>
+      <c r="F132" s="13"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B133" s="15">
+        <f>B132+0.01</f>
         <v>9.1799999999999979</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F132" s="14"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B133" s="2">
+      <c r="F133" s="13"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
         <v>10</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="17"/>
-    </row>
-    <row r="134" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="3">
-        <f>B133+0.1</f>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+    </row>
+    <row r="135" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <f>B134+0.1</f>
         <v>10.1</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="4" t="s">
+      <c r="D135" s="7"/>
+      <c r="E135" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F134" s="14"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B135" s="3">
-        <f t="shared" ref="B135:B142" si="6">B134+0.1</f>
+      <c r="F135" s="13"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <f t="shared" ref="B136:B143" si="6">B135+0.1</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7" t="s">
+      <c r="D136" s="7"/>
+      <c r="E136" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B136" s="3">
+      <c r="F136" s="13"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
         <f t="shared" si="6"/>
         <v>10.299999999999999</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D137" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E137" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F136" s="14"/>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B137" s="3">
+      <c r="F137" s="13"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
         <f t="shared" si="6"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D138" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E138" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B138" s="3">
+      <c r="F138" s="13"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
         <f t="shared" si="6"/>
         <v>10.499999999999998</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C139" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D139" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E138" s="20" t="s">
+      <c r="E139" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F138" s="14"/>
-      <c r="G138" s="29"/>
-    </row>
-    <row r="139" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B139" s="3">
+      <c r="F139" s="13"/>
+      <c r="G139" s="48"/>
+    </row>
+    <row r="140" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
         <f t="shared" si="6"/>
         <v>10.599999999999998</v>
       </c>
-      <c r="C139" s="37"/>
-      <c r="D139" s="18" t="s">
+      <c r="C140" s="60"/>
+      <c r="D140" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E139" s="20" t="s">
+      <c r="E140" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F139" s="14"/>
-      <c r="G139" s="30"/>
-    </row>
-    <row r="140" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B140" s="3">
+      <c r="F140" s="13"/>
+      <c r="G140" s="49"/>
+    </row>
+    <row r="141" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
         <f t="shared" si="6"/>
         <v>10.699999999999998</v>
       </c>
-      <c r="C140" s="28"/>
-      <c r="D140" s="18" t="s">
+      <c r="C141" s="47"/>
+      <c r="D141" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E140" s="20" t="s">
+      <c r="E141" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F140" s="14"/>
-      <c r="G140" s="31"/>
-    </row>
-    <row r="141" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B141" s="3">
+      <c r="F141" s="13"/>
+      <c r="G141" s="50"/>
+    </row>
+    <row r="142" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
         <f t="shared" si="6"/>
         <v>10.799999999999997</v>
       </c>
-      <c r="C141" s="27" t="s">
+      <c r="C142" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D142" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F141" s="14"/>
-      <c r="G141" s="29"/>
-    </row>
-    <row r="142" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B142" s="3">
+      <c r="F142" s="13"/>
+      <c r="G142" s="48"/>
+    </row>
+    <row r="143" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B143" s="3">
         <f t="shared" si="6"/>
         <v>10.899999999999997</v>
       </c>
-      <c r="C142" s="37"/>
-      <c r="D142" s="18" t="s">
+      <c r="C143" s="60"/>
+      <c r="D143" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E143" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F142" s="14"/>
-      <c r="G142" s="30"/>
-    </row>
-    <row r="143" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B143" s="16">
-        <f>B134</f>
+      <c r="F143" s="13"/>
+      <c r="G143" s="49"/>
+    </row>
+    <row r="144" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B144" s="15">
+        <f>B135</f>
         <v>10.1</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="18" t="s">
+      <c r="C144" s="60"/>
+      <c r="D144" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="F143" s="14"/>
-      <c r="G143" s="30"/>
-    </row>
-    <row r="144" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B144" s="16">
-        <f>B143+0.01</f>
+      <c r="F144" s="13"/>
+      <c r="G144" s="49"/>
+    </row>
+    <row r="145" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B145" s="15">
+        <f>B144+0.01</f>
         <v>10.11</v>
       </c>
-      <c r="C144" s="28"/>
-      <c r="D144" s="18" t="s">
+      <c r="C145" s="47"/>
+      <c r="D145" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F144" s="14"/>
-      <c r="G144" s="31"/>
-    </row>
-    <row r="145" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B145" s="16">
-        <f t="shared" ref="B145:B148" si="7">B144+0.01</f>
+      <c r="F145" s="13"/>
+      <c r="G145" s="50"/>
+    </row>
+    <row r="146" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B146" s="15">
+        <f t="shared" ref="B146:B149" si="7">B145+0.01</f>
         <v>10.119999999999999</v>
       </c>
-      <c r="C145" s="27" t="s">
+      <c r="C146" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D146" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E145" s="20" t="s">
+      <c r="E146" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F145" s="14"/>
-      <c r="G145" s="29"/>
-    </row>
-    <row r="146" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B146" s="16">
+      <c r="F146" s="13"/>
+      <c r="G146" s="48"/>
+    </row>
+    <row r="147" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B147" s="15">
         <f t="shared" si="7"/>
         <v>10.129999999999999</v>
       </c>
-      <c r="C146" s="37"/>
-      <c r="D146" s="18" t="s">
+      <c r="C147" s="60"/>
+      <c r="D147" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E146" s="20" t="s">
+      <c r="E147" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F146" s="14"/>
-      <c r="G146" s="30"/>
-    </row>
-    <row r="147" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B147" s="16">
+      <c r="F147" s="13"/>
+      <c r="G147" s="49"/>
+    </row>
+    <row r="148" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B148" s="15">
         <f t="shared" si="7"/>
         <v>10.139999999999999</v>
       </c>
-      <c r="C147" s="28"/>
-      <c r="D147" s="18" t="s">
+      <c r="C148" s="47"/>
+      <c r="D148" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="E147" s="20" t="s">
+      <c r="E148" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="F147" s="14"/>
-      <c r="G147" s="31"/>
-    </row>
-    <row r="148" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B148" s="34">
+      <c r="F148" s="13"/>
+      <c r="G148" s="50"/>
+    </row>
+    <row r="149" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B149" s="61">
         <f t="shared" si="7"/>
         <v>10.149999999999999</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C149" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D149" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E148" s="27" t="s">
+      <c r="E149" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F148" s="32"/>
-      <c r="G148" s="29"/>
-    </row>
-    <row r="149" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B149" s="35"/>
-      <c r="C149" s="39"/>
-      <c r="D149" s="18" t="s">
+      <c r="F149" s="51"/>
+      <c r="G149" s="48"/>
+    </row>
+    <row r="150" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B150" s="62"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E149" s="37"/>
-      <c r="F149" s="42"/>
-      <c r="G149" s="30"/>
-    </row>
-    <row r="150" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B150" s="35"/>
-      <c r="C150" s="39"/>
-      <c r="D150" s="7" t="s">
+      <c r="E150" s="60"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="49"/>
+    </row>
+    <row r="151" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B151" s="62"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E150" s="37"/>
-      <c r="F150" s="42"/>
-      <c r="G150" s="30"/>
-    </row>
-    <row r="151" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B151" s="36"/>
-      <c r="C151" s="40"/>
-      <c r="D151" s="7" t="s">
+      <c r="E151" s="60"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="49"/>
+    </row>
+    <row r="152" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B152" s="63"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E151" s="28"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="31"/>
-    </row>
-    <row r="152" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B152" s="34">
-        <f>B148+0.01</f>
+      <c r="E152" s="47"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="50"/>
+    </row>
+    <row r="153" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B153" s="61">
+        <f>B149+0.01</f>
         <v>10.159999999999998</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C153" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E152" s="27" t="s">
+      <c r="E153" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F152" s="32"/>
-      <c r="G152" s="29"/>
-    </row>
-    <row r="153" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B153" s="30"/>
-      <c r="C153" s="39"/>
-      <c r="D153" s="18" t="s">
+      <c r="F153" s="51"/>
+      <c r="G153" s="48"/>
+    </row>
+    <row r="154" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B154" s="49"/>
+      <c r="C154" s="55"/>
+      <c r="D154" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="37"/>
-      <c r="F153" s="42"/>
-      <c r="G153" s="30"/>
-    </row>
-    <row r="154" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B154" s="30"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="7" t="s">
+      <c r="E154" s="60"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="49"/>
+    </row>
+    <row r="155" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B155" s="49"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E154" s="37"/>
-      <c r="F154" s="42"/>
-      <c r="G154" s="30"/>
-    </row>
-    <row r="155" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B155" s="31"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="7" t="s">
+      <c r="E155" s="60"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="49"/>
+    </row>
+    <row r="156" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B156" s="50"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E155" s="28"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="31"/>
-    </row>
-    <row r="156" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B156" s="16">
-        <f>B152+0.01</f>
+      <c r="E156" s="47"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="50"/>
+    </row>
+    <row r="157" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B157" s="15">
+        <f>B153+0.01</f>
         <v>10.169999999999998</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E156" s="4" t="s">
+      <c r="E157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="14"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B157" s="2">
+      <c r="F157" s="13"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
         <v>11</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="17"/>
-    </row>
-    <row r="158" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B158" s="3">
-        <f>B157</f>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B159" s="3">
+        <f>B158</f>
         <v>11</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="4" t="s">
+      <c r="D159" s="7"/>
+      <c r="E159" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F158" s="14" t="s">
+      <c r="F159" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B159" s="3">
-        <f>B158+0.1</f>
-        <v>11.1</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <f>B159+0.1</f>
+        <v>11.1</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F160" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B161" s="3">
+        <f>B160+0.1</f>
         <v>11.2</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D161" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E160" s="19" t="s">
+      <c r="E161" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F161" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G160" s="19"/>
-    </row>
-    <row r="161" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B161" s="29">
-        <f>B160+0.1</f>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B162" s="48">
+        <f>B161+0.1</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C162" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E161" s="27" t="s">
+      <c r="E162" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="F161" s="38" t="s">
+      <c r="F162" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="G161" s="29"/>
-    </row>
-    <row r="162" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B162" s="30"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="7" t="s">
+      <c r="G162" s="48"/>
+    </row>
+    <row r="163" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B163" s="49"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E162" s="37"/>
-      <c r="F162" s="39"/>
-      <c r="G162" s="30"/>
-    </row>
-    <row r="163" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B163" s="31"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="18" t="s">
+      <c r="E163" s="60"/>
+      <c r="F163" s="55"/>
+      <c r="G163" s="49"/>
+    </row>
+    <row r="164" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B164" s="50"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E163" s="28"/>
-      <c r="F163" s="40"/>
-      <c r="G163" s="31"/>
-    </row>
-    <row r="164" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B164" s="3">
-        <f>B161+0.1</f>
+      <c r="E164" s="47"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="50"/>
+    </row>
+    <row r="165" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B165" s="3">
+        <f>B162+0.1</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D165" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F164" s="14" t="s">
+      <c r="F165" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B165" s="29">
-        <f>B164+0.1</f>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B166" s="48">
+        <f>B165+0.1</f>
         <v>11.499999999999998</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C166" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D166" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E165" s="27" t="s">
+      <c r="E166" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="F165" s="32"/>
-      <c r="G165" s="29"/>
-    </row>
-    <row r="166" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B166" s="30"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="18" t="s">
+      <c r="F166" s="51"/>
+      <c r="G166" s="48"/>
+    </row>
+    <row r="167" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B167" s="49"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E166" s="37"/>
-      <c r="F166" s="42"/>
-      <c r="G166" s="30"/>
-    </row>
-    <row r="167" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B167" s="30"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="7" t="s">
+      <c r="E167" s="60"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="49"/>
+    </row>
+    <row r="168" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B168" s="49"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E167" s="37"/>
-      <c r="F167" s="42"/>
-      <c r="G167" s="30"/>
-    </row>
-    <row r="168" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B168" s="31"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="7" t="s">
+      <c r="E168" s="60"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="49"/>
+    </row>
+    <row r="169" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B169" s="50"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E168" s="28"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="31"/>
-    </row>
-    <row r="169" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B169" s="29">
-        <f>B165+0.1</f>
+      <c r="E169" s="47"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="50"/>
+    </row>
+    <row r="170" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B170" s="48">
+        <f>B166+0.1</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="C169" s="27" t="s">
+      <c r="C170" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D169" s="18" t="s">
+      <c r="D170" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E169" s="38" t="s">
+      <c r="E170" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F169" s="32"/>
-      <c r="G169" s="29"/>
-    </row>
-    <row r="170" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B170" s="30"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="18" t="s">
+      <c r="F170" s="51"/>
+      <c r="G170" s="48"/>
+    </row>
+    <row r="171" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B171" s="49"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E170" s="39"/>
-      <c r="F170" s="42"/>
-      <c r="G170" s="30"/>
-    </row>
-    <row r="171" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B171" s="30"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="7" t="s">
+      <c r="E171" s="55"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="49"/>
+    </row>
+    <row r="172" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="49"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E171" s="39"/>
-      <c r="F171" s="42"/>
-      <c r="G171" s="30"/>
-    </row>
-    <row r="172" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B172" s="31"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="7" t="s">
+      <c r="E172" s="55"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="49"/>
+    </row>
+    <row r="173" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B173" s="50"/>
+      <c r="C173" s="47"/>
+      <c r="D173" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E172" s="40"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="31"/>
-    </row>
-    <row r="173" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B173" s="29">
-        <f>B169+0.1</f>
+      <c r="E173" s="56"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="50"/>
+    </row>
+    <row r="174" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B174" s="48">
+        <f>B170+0.1</f>
         <v>11.699999999999998</v>
       </c>
-      <c r="C173" s="43" t="s">
+      <c r="C174" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="D173" s="23" t="s">
+      <c r="D174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E173" s="43" t="s">
+      <c r="E174" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="F173" s="44"/>
-      <c r="G173" s="41"/>
-    </row>
-    <row r="174" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B174" s="30"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="23" t="s">
+      <c r="F174" s="59"/>
+      <c r="G174" s="53"/>
+    </row>
+    <row r="175" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B175" s="49"/>
+      <c r="C175" s="58"/>
+      <c r="D175" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E174" s="43"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="41"/>
-    </row>
-    <row r="175" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B175" s="30"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="24" t="s">
+      <c r="E175" s="58"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="53"/>
+    </row>
+    <row r="176" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B176" s="49"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E175" s="43"/>
-      <c r="F175" s="44"/>
-      <c r="G175" s="41"/>
-    </row>
-    <row r="176" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B176" s="30"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="24" t="s">
+      <c r="E176" s="58"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="53"/>
+    </row>
+    <row r="177" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B177" s="49"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E176" s="43"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="41"/>
-    </row>
-    <row r="177" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B177" s="31"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="24" t="s">
+      <c r="E177" s="58"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="53"/>
+    </row>
+    <row r="178" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B178" s="50"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E177" s="43"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="41"/>
-    </row>
-    <row r="178" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B178" s="3">
-        <f>B173+0.1</f>
+      <c r="E178" s="58"/>
+      <c r="F178" s="59"/>
+      <c r="G178" s="53"/>
+    </row>
+    <row r="179" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B179" s="3">
+        <f>B174+0.1</f>
         <v>11.799999999999997</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="7" t="s">
+      <c r="D179" s="17"/>
+      <c r="E179" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F178" s="14"/>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B179" s="3">
-        <f>B178+0.1</f>
+      <c r="F179" s="13"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B180" s="3">
+        <f>B179+0.1</f>
         <v>11.899999999999997</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C180" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D180" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E180" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F179" s="14"/>
-      <c r="G179" s="4"/>
-    </row>
-    <row r="180" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B180" s="16">
-        <f>B159</f>
+      <c r="F180" s="13"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B181" s="15">
+        <f>B160</f>
         <v>11.1</v>
       </c>
-      <c r="C180" s="28"/>
-      <c r="D180" s="18" t="s">
+      <c r="C181" s="47"/>
+      <c r="D181" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E181" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F180" s="14"/>
-      <c r="G180" s="4"/>
-    </row>
-    <row r="181" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B181" s="16">
-        <f>B180+0.01</f>
+      <c r="F181" s="13"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B182" s="15">
+        <f>B181+0.01</f>
         <v>11.11</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C182" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D181" s="18"/>
-      <c r="E181" s="7" t="s">
+      <c r="D182" s="17"/>
+      <c r="E182" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F181" s="14"/>
-      <c r="G181" s="4"/>
-    </row>
-    <row r="182" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B182" s="2">
+      <c r="F182" s="13"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
         <v>12</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C183" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-    </row>
-    <row r="183" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B183" s="3">
-        <f>B182+0.1</f>
+      <c r="D183" s="6"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+    </row>
+    <row r="184" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3">
+        <f>B183+0.1</f>
         <v>12.1</v>
       </c>
-      <c r="C183" s="14" t="s">
+      <c r="C184" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="D183" s="18"/>
-      <c r="E183" s="7" t="s">
+      <c r="D184" s="17"/>
+      <c r="E184" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F183" s="14"/>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B184" s="3">
-        <f t="shared" ref="B184:B186" si="8">B183+0.1</f>
+      <c r="F184" s="13"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B185" s="3">
+        <f t="shared" ref="B185:B187" si="8">B184+0.1</f>
         <v>12.2</v>
       </c>
-      <c r="C184" s="14" t="s">
+      <c r="C185" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="D184" s="18"/>
-      <c r="E184" s="7" t="s">
+      <c r="D185" s="17"/>
+      <c r="E185" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F184" s="14"/>
-      <c r="G184" s="4"/>
-    </row>
-    <row r="185" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B185" s="3">
+      <c r="F185" s="13"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B186" s="3">
         <f t="shared" si="8"/>
         <v>12.299999999999999</v>
       </c>
-      <c r="C185" s="14" t="s">
+      <c r="C186" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D185" s="18"/>
-      <c r="E185" s="7" t="s">
+      <c r="D186" s="17"/>
+      <c r="E186" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F185" s="14"/>
-      <c r="G185" s="4"/>
-    </row>
-    <row r="186" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B186" s="3">
+      <c r="F186" s="13"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B187" s="3">
         <f t="shared" si="8"/>
         <v>12.399999999999999</v>
       </c>
-      <c r="C186" s="14" t="s">
+      <c r="C187" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D187" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E187" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F186" s="14"/>
-      <c r="G186" s="4"/>
-    </row>
-    <row r="187" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B187" s="3">
-        <f>B186+0.1</f>
+      <c r="F187" s="13"/>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B188" s="3">
+        <f>B187+0.1</f>
         <v>12.499999999999998</v>
       </c>
-      <c r="C187" s="14" t="s">
+      <c r="C188" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E188" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="F187" s="14"/>
-      <c r="G187" s="4"/>
-    </row>
-    <row r="188" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B188" s="3">
-        <f t="shared" ref="B188:B190" si="9">B187+0.1</f>
+      <c r="F188" s="13"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B189" s="3">
+        <f t="shared" ref="B189:B191" si="9">B188+0.1</f>
         <v>12.599999999999998</v>
       </c>
-      <c r="C188" s="14" t="s">
+      <c r="C189" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D189" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E189" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F188" s="14"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B189" s="3">
+      <c r="F189" s="13"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B190" s="3">
         <f t="shared" si="9"/>
         <v>12.699999999999998</v>
       </c>
-      <c r="C189" s="14" t="s">
+      <c r="C190" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D189" s="18"/>
-      <c r="E189" s="7" t="s">
+      <c r="D190" s="17"/>
+      <c r="E190" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F189" s="14"/>
-      <c r="G189" s="4"/>
-    </row>
-    <row r="190" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B190" s="3">
+      <c r="F190" s="13"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
         <f t="shared" si="9"/>
         <v>12.799999999999997</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D191" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="E190" s="4" t="s">
+      <c r="E191" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-    </row>
-    <row r="191" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B191" s="3">
-        <f t="shared" ref="B191" si="10">B190+0.1</f>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3">
+        <f t="shared" ref="B192" si="10">B191+0.1</f>
         <v>12.899999999999997</v>
       </c>
-      <c r="C191" s="14" t="s">
+      <c r="C192" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D191" s="18"/>
-      <c r="E191" s="7" t="s">
+      <c r="D192" s="17"/>
+      <c r="E192" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F191" s="14"/>
-      <c r="G191" s="4"/>
-    </row>
-    <row r="192" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B192" s="16">
-        <f>B183</f>
+      <c r="F192" s="13"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B193" s="15">
+        <f>B184</f>
         <v>12.1</v>
       </c>
-      <c r="C192" s="14" t="s">
+      <c r="C193" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D192" s="18"/>
-      <c r="E192" s="7" t="s">
+      <c r="D193" s="17"/>
+      <c r="E193" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F192" s="14"/>
-      <c r="G192" s="4"/>
-    </row>
-    <row r="193" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B193" s="16">
-        <f>B192+0.01</f>
+      <c r="F193" s="13"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B194" s="15">
+        <f>B193+0.01</f>
         <v>12.11</v>
       </c>
-      <c r="C193" s="14" t="s">
+      <c r="C194" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="18" t="s">
+      <c r="D194" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E194" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F193" s="14"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B194" s="2">
+      <c r="F194" s="13"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B195" s="2">
         <v>13</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
-    </row>
-    <row r="195" spans="2:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B195" s="3">
-        <f>B194+0.1</f>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+    </row>
+    <row r="196" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
+      <c r="B196" s="3">
+        <f>B195+0.1</f>
         <v>13.1</v>
       </c>
-      <c r="C195" s="14" t="s">
+      <c r="C196" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D196" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E196" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F195" s="14"/>
-      <c r="G195" s="4"/>
-    </row>
-    <row r="196" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B196" s="3">
-        <f t="shared" ref="B196:B203" si="11">B195+0.1</f>
+      <c r="F196" s="13"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3">
+        <f t="shared" ref="B197:B204" si="11">B196+0.1</f>
         <v>13.2</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C197" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D196" s="18"/>
-      <c r="E196" s="7" t="s">
+      <c r="D197" s="17"/>
+      <c r="E197" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F196" s="14"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B197" s="3">
+      <c r="F197" s="13"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B198" s="3">
         <f t="shared" si="11"/>
         <v>13.299999999999999</v>
       </c>
-      <c r="C197" s="14" t="s">
+      <c r="C198" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D197" s="18"/>
-      <c r="E197" s="7" t="s">
+      <c r="D198" s="17"/>
+      <c r="E198" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F197" s="14"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B198" s="3">
+      <c r="F198" s="13"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B199" s="3">
         <f t="shared" si="11"/>
         <v>13.399999999999999</v>
       </c>
-      <c r="C198" s="38" t="s">
+      <c r="C199" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="D198" s="18" t="s">
+      <c r="D199" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="E198" s="7" t="s">
+      <c r="E199" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F198" s="14"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B199" s="3">
+      <c r="F199" s="13"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B200" s="3">
         <f t="shared" si="11"/>
         <v>13.499999999999998</v>
       </c>
-      <c r="C199" s="39"/>
-      <c r="D199" s="18" t="s">
+      <c r="C200" s="55"/>
+      <c r="D200" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="E200" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F199" s="14" t="s">
+      <c r="F200" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B200" s="3">
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B201" s="3">
         <f t="shared" si="11"/>
         <v>13.599999999999998</v>
       </c>
-      <c r="C200" s="40"/>
-      <c r="D200" s="18" t="s">
+      <c r="C201" s="56"/>
+      <c r="D201" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="E201" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F200" s="14"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B201" s="3">
+      <c r="F201" s="13"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B202" s="3">
         <f t="shared" si="11"/>
         <v>13.699999999999998</v>
       </c>
-      <c r="C201" s="14" t="s">
+      <c r="C202" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D201" s="18" t="s">
+      <c r="D202" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="E202" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F201" s="14"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B202" s="3">
+      <c r="F202" s="13"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B203" s="3">
         <f t="shared" si="11"/>
         <v>13.799999999999997</v>
       </c>
-      <c r="C202" s="14" t="s">
+      <c r="C203" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D202" s="18" t="s">
+      <c r="D203" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E203" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F202" s="14"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B203" s="3">
+      <c r="F203" s="13"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B204" s="3">
         <f t="shared" si="11"/>
         <v>13.899999999999997</v>
       </c>
-      <c r="C203" s="14" t="s">
+      <c r="C204" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="D203" s="18" t="s">
+      <c r="D204" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E204" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F203" s="14"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B204" s="16">
-        <f>B195</f>
+      <c r="F204" s="13"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B205" s="15">
+        <f>B196</f>
         <v>13.1</v>
       </c>
-      <c r="C204" s="14" t="s">
+      <c r="C205" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D204" s="18" t="s">
+      <c r="D205" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E205" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F204" s="14"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B205" s="16">
-        <f>B204+0.01</f>
+      <c r="F205" s="13"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B206" s="15">
+        <f>B205+0.01</f>
         <v>13.11</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C206" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D205" s="14"/>
-      <c r="E205" s="14" t="s">
+      <c r="D206" s="13"/>
+      <c r="E206" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B206" s="16">
-        <f t="shared" ref="B206:B209" si="12">B205+0.01</f>
-        <v>13.12</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="D206" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B207" s="16">
+    <row r="207" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B207" s="15">
+        <f t="shared" ref="B207:B210" si="12">B206+0.01</f>
+        <v>13.12</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B208" s="15">
         <f t="shared" si="12"/>
         <v>13.129999999999999</v>
       </c>
-      <c r="C207" s="14" t="s">
+      <c r="C208" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D208" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B208" s="16">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="15">
         <f t="shared" si="12"/>
         <v>13.139999999999999</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D209" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B209" s="16">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B210" s="15">
         <f t="shared" si="12"/>
         <v>13.149999999999999</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C210" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D210" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="E210" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B210" s="2">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B211" s="2">
         <v>14</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C211" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D210" s="6"/>
-      <c r="E210" s="6"/>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-    </row>
-    <row r="211" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B211" s="3">
-        <f>B210+0.1</f>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="16"/>
+    </row>
+    <row r="212" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B212" s="3">
+        <f>B211+0.1</f>
         <v>14.1</v>
       </c>
-      <c r="C211" s="27" t="s">
+      <c r="C212" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D211" s="18" t="s">
+      <c r="D212" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F211" s="14"/>
-      <c r="G211" s="29"/>
-    </row>
-    <row r="212" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B212" s="3">
-        <f t="shared" ref="B212:B219" si="13">B211+0.1</f>
+      <c r="F212" s="13"/>
+      <c r="G212" s="48"/>
+    </row>
+    <row r="213" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B213" s="3">
+        <f t="shared" ref="B213:B220" si="13">B212+0.1</f>
         <v>14.2</v>
       </c>
-      <c r="C212" s="37"/>
-      <c r="D212" s="25" t="s">
+      <c r="C213" s="60"/>
+      <c r="D213" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E212" s="4" t="s">
+      <c r="E213" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F212" s="14"/>
-      <c r="G212" s="30"/>
-    </row>
-    <row r="213" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B213" s="3">
+      <c r="F213" s="13"/>
+      <c r="G213" s="49"/>
+    </row>
+    <row r="214" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B214" s="3">
         <f t="shared" si="13"/>
         <v>14.299999999999999</v>
       </c>
-      <c r="C213" s="37"/>
-      <c r="D213" s="18" t="s">
+      <c r="C214" s="60"/>
+      <c r="D214" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E213" s="4" t="s">
+      <c r="E214" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F213" s="14" t="s">
+      <c r="F214" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="G213" s="30"/>
-    </row>
-    <row r="214" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B214" s="3">
+      <c r="G214" s="49"/>
+    </row>
+    <row r="215" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B215" s="3">
         <f t="shared" si="13"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="C214" s="37"/>
-      <c r="D214" s="18" t="s">
+      <c r="C215" s="60"/>
+      <c r="D215" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="E215" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F214" s="14"/>
-      <c r="G214" s="30"/>
-    </row>
-    <row r="215" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B215" s="3">
+      <c r="F215" s="13"/>
+      <c r="G215" s="49"/>
+    </row>
+    <row r="216" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B216" s="3">
         <f t="shared" si="13"/>
         <v>14.499999999999998</v>
       </c>
-      <c r="C215" s="28"/>
-      <c r="D215" s="18" t="s">
+      <c r="C216" s="47"/>
+      <c r="D216" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="E216" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F215" s="14"/>
-      <c r="G215" s="31"/>
-    </row>
-    <row r="216" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B216" s="3">
+      <c r="F216" s="13"/>
+      <c r="G216" s="50"/>
+    </row>
+    <row r="217" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="3">
         <f t="shared" si="13"/>
         <v>14.599999999999998</v>
       </c>
-      <c r="C216" s="27" t="s">
+      <c r="C217" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="D216" s="32"/>
-      <c r="E216" s="7" t="s">
+      <c r="D217" s="51"/>
+      <c r="E217" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F216" s="32"/>
-      <c r="G216" s="29"/>
-    </row>
-    <row r="217" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B217" s="3">
+      <c r="F217" s="51"/>
+      <c r="G217" s="48"/>
+    </row>
+    <row r="218" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B218" s="3">
         <f t="shared" si="13"/>
         <v>14.699999999999998</v>
       </c>
-      <c r="C217" s="28"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="4" t="s">
+      <c r="C218" s="47"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F217" s="33"/>
-      <c r="G217" s="31"/>
-    </row>
-    <row r="218" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B218" s="3">
+      <c r="F218" s="52"/>
+      <c r="G218" s="50"/>
+    </row>
+    <row r="219" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B219" s="3">
         <f t="shared" si="13"/>
         <v>14.799999999999997</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C219" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D218" s="7"/>
-      <c r="E218" s="4" t="s">
+      <c r="D219" s="7"/>
+      <c r="E219" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F218" s="14"/>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B219" s="3">
+      <c r="F219" s="13"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="3">
         <f t="shared" si="13"/>
         <v>14.899999999999997</v>
       </c>
-      <c r="C219" s="14" t="s">
+      <c r="C220" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="D219" s="18"/>
-      <c r="E219" s="4" t="s">
+      <c r="D220" s="17"/>
+      <c r="E220" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F219" s="14"/>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B220" s="16">
-        <f>B211</f>
+      <c r="F220" s="13"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B221" s="15">
+        <f>B212</f>
         <v>14.1</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D220" s="18"/>
-      <c r="E220" s="4" t="s">
+      <c r="D221" s="17"/>
+      <c r="E221" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F220" s="14"/>
-      <c r="G220" s="4"/>
-    </row>
-    <row r="221" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B221" s="16">
-        <f>B220+0.01</f>
+      <c r="F221" s="13"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B222" s="15">
+        <f>B221+0.01</f>
         <v>14.11</v>
       </c>
-      <c r="C221" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D221" s="18"/>
-      <c r="E221" s="4" t="s">
+      <c r="D222" s="17"/>
+      <c r="E222" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F221" s="14"/>
-      <c r="G221" s="4"/>
-    </row>
-    <row r="222" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B222" s="16">
-        <f t="shared" ref="B222:B224" si="14">B221+0.01</f>
+      <c r="F222" s="13"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="15">
+        <f t="shared" ref="B223:B225" si="14">B222+0.01</f>
         <v>14.12</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D222" s="18"/>
-      <c r="E222" s="4" t="s">
+      <c r="D223" s="17"/>
+      <c r="E223" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F222" s="14"/>
-      <c r="G222" s="4"/>
-    </row>
-    <row r="223" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B223" s="16">
+      <c r="F223" s="13"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="15">
         <f t="shared" si="14"/>
         <v>14.129999999999999</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C224" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D223" s="18"/>
-      <c r="E223" s="4" t="s">
+      <c r="D224" s="17"/>
+      <c r="E224" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F223" s="14"/>
-      <c r="G223" s="4"/>
-    </row>
-    <row r="224" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B224" s="16">
+      <c r="F224" s="13"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B225" s="15">
         <f t="shared" si="14"/>
         <v>14.139999999999999</v>
       </c>
-      <c r="C224" s="4" t="s">
+      <c r="C225" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="18" t="s">
+      <c r="D225" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E224" s="4" t="s">
+      <c r="E225" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F224" s="14"/>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B225" s="2">
+      <c r="F225" s="13"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2">
         <v>15</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C226" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-    </row>
-    <row r="226" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B226" s="3">
-        <f>B225+0.1</f>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="16"/>
+      <c r="G226" s="16"/>
+    </row>
+    <row r="227" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="3">
+        <f>B226+0.1</f>
         <v>15.1</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C227" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="D226" s="18"/>
-      <c r="E226" s="7" t="s">
+      <c r="D227" s="17"/>
+      <c r="E227" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F226" s="14"/>
-      <c r="G226" s="4"/>
-    </row>
-    <row r="227" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B227" s="3">
-        <f t="shared" ref="B227:B228" si="15">B226+0.1</f>
+      <c r="F227" s="13"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="3">
+        <f t="shared" ref="B228:B229" si="15">B227+0.1</f>
         <v>15.2</v>
       </c>
-      <c r="C227" s="14" t="s">
+      <c r="C228" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D227" s="18"/>
-      <c r="E227" s="7" t="s">
+      <c r="D228" s="17"/>
+      <c r="E228" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="F227" s="14"/>
-      <c r="G227" s="4"/>
-    </row>
-    <row r="228" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B228" s="3">
+      <c r="F228" s="13"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B229" s="3">
         <f t="shared" si="15"/>
         <v>15.299999999999999</v>
       </c>
-      <c r="C228" s="14" t="s">
+      <c r="C229" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D228" s="18"/>
-      <c r="E228" s="7" t="s">
+      <c r="D229" s="17"/>
+      <c r="E229" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F228" s="14"/>
-      <c r="G228" s="4"/>
-    </row>
-    <row r="229" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B229" s="3">
-        <f t="shared" ref="B229" si="16">B228+0.1</f>
+      <c r="F229" s="13"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B230" s="3">
+        <f t="shared" ref="B230" si="16">B229+0.1</f>
         <v>15.399999999999999</v>
       </c>
-      <c r="C229" s="14" t="s">
+      <c r="C230" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D229" s="18"/>
-      <c r="E229" s="7" t="s">
+      <c r="D230" s="17"/>
+      <c r="E230" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F229" s="14"/>
-      <c r="G229" s="4"/>
-    </row>
-    <row r="230" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B230" s="2">
+      <c r="F230" s="13"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B231" s="2">
         <v>16</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C231" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-    </row>
-    <row r="231" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B231" s="63">
-        <f>B230+0.1</f>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="16"/>
+      <c r="G231" s="16"/>
+    </row>
+    <row r="232" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B232" s="25">
+        <f>B231+0.1</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="C231" s="64" t="s">
+      <c r="C232" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="D231" s="65"/>
-      <c r="E231" s="65"/>
-      <c r="F231" s="66"/>
-      <c r="G231" s="66"/>
-    </row>
-    <row r="232" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B232" s="3" t="str">
-        <f>$B$231&amp;".1"</f>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
+    </row>
+    <row r="233" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B233" s="3" t="str">
+        <f>$B$232&amp;".1"</f>
         <v>16.1.1</v>
       </c>
-      <c r="C232" s="14" t="s">
+      <c r="C233" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D232" s="18" t="s">
+      <c r="D233" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="7" t="s">
+      <c r="E233" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F232" s="14"/>
-      <c r="G232" s="4"/>
-    </row>
-    <row r="233" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B233" s="3" t="str">
-        <f>$B$231&amp;".2"</f>
+      <c r="F233" s="13"/>
+      <c r="G233" s="4"/>
+    </row>
+    <row r="234" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B234" s="3" t="str">
+        <f>$B$232&amp;".2"</f>
         <v>16.1.2</v>
       </c>
-      <c r="C233" s="14" t="s">
+      <c r="C234" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D233" s="18" t="s">
+      <c r="D234" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="E234" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F233" s="14"/>
-      <c r="G233" s="4"/>
-    </row>
-    <row r="234" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B234" s="63">
-        <f>B231+0.1</f>
+      <c r="F234" s="13"/>
+      <c r="G234" s="4"/>
+    </row>
+    <row r="235" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B235" s="25">
+        <f>B232+0.1</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="C234" s="64" t="s">
+      <c r="C235" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D234" s="65"/>
-      <c r="E234" s="65"/>
-      <c r="F234" s="66"/>
-      <c r="G234" s="66"/>
-    </row>
-    <row r="235" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B235" s="3" t="str">
-        <f>$B$234&amp;".1"</f>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="28"/>
+      <c r="G235" s="28"/>
+    </row>
+    <row r="236" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="3" t="str">
+        <f>$B$235&amp;".1"</f>
         <v>16.2.1</v>
       </c>
-      <c r="C235" s="14" t="s">
+      <c r="C236" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D235" s="18" t="s">
+      <c r="D236" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E235" s="7" t="s">
+      <c r="E236" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F235" s="14"/>
-      <c r="G235" s="4"/>
-    </row>
-    <row r="236" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B236" s="3" t="str">
-        <f>$B$234&amp;".2"</f>
+      <c r="F236" s="13"/>
+      <c r="G236" s="4"/>
+    </row>
+    <row r="237" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B237" s="3" t="str">
+        <f>$B$235&amp;".2"</f>
         <v>16.2.2</v>
       </c>
-      <c r="C236" s="14" t="s">
+      <c r="C237" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D236" s="18" t="s">
+      <c r="D237" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E236" s="7" t="s">
+      <c r="E237" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F236" s="14"/>
-      <c r="G236" s="4"/>
-    </row>
-    <row r="237" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B237" s="2">
+      <c r="F237" s="13"/>
+      <c r="G237" s="4"/>
+    </row>
+    <row r="238" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B238" s="2">
         <v>17</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C238" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-    </row>
-    <row r="238" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B238" s="3">
-        <f>B237+0.1</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C238" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="D238" s="18"/>
-      <c r="E238" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F238" s="14"/>
-      <c r="G238" s="4"/>
-    </row>
-    <row r="239" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="16"/>
+    </row>
+    <row r="239" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B239" s="3">
         <f>B238+0.1</f>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D239" s="17"/>
+      <c r="E239" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F239" s="13"/>
+      <c r="G239" s="4"/>
+    </row>
+    <row r="240" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B240" s="3">
+        <f>B239+0.1</f>
         <v>17.200000000000003</v>
       </c>
-      <c r="C239" s="14" t="s">
+      <c r="C240" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D239" s="18"/>
-      <c r="E239" s="7" t="s">
+      <c r="D240" s="17"/>
+      <c r="E240" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F239" s="14"/>
-      <c r="G239" s="4"/>
-    </row>
-    <row r="240" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B240" s="2">
+      <c r="F240" s="13"/>
+      <c r="G240" s="4"/>
+    </row>
+    <row r="241" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B241" s="2">
         <v>18</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C241" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-    </row>
-    <row r="241" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B241" s="3">
-        <f>B240+0.1</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D241" s="18"/>
-      <c r="E241" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F241" s="14"/>
-      <c r="G241" s="4"/>
-    </row>
-    <row r="242" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="16"/>
+      <c r="G241" s="16"/>
+    </row>
+    <row r="242" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B242" s="3">
         <f>B241+0.1</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D242" s="17"/>
+      <c r="E242" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F242" s="13"/>
+      <c r="G242" s="4"/>
+    </row>
+    <row r="243" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="3">
+        <f>B242+0.1</f>
         <v>18.200000000000003</v>
       </c>
-      <c r="C242" s="14" t="s">
+      <c r="C243" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D242" s="18"/>
-      <c r="E242" s="7" t="s">
+      <c r="D243" s="17"/>
+      <c r="E243" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F242" s="14"/>
-      <c r="G242" s="4"/>
-    </row>
-    <row r="243" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B243" s="2">
+      <c r="F243" s="13"/>
+      <c r="G243" s="4"/>
+    </row>
+    <row r="244" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B244" s="2">
         <v>19</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C244" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-    </row>
-    <row r="244" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B244" s="3">
-        <f>B243+0.1</f>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D244" s="18"/>
-      <c r="E244" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F244" s="14"/>
-      <c r="G244" s="4"/>
-    </row>
-    <row r="245" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="16"/>
+      <c r="G244" s="16"/>
+    </row>
+    <row r="245" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B245" s="3">
         <f>B244+0.1</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="C245" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D245" s="18"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D245" s="17"/>
       <c r="E245" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F245" s="14"/>
+        <v>384</v>
+      </c>
+      <c r="F245" s="13"/>
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <f>B245+0.1</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D246" s="17"/>
+      <c r="E246" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F246" s="13"/>
+      <c r="G246" s="4"/>
+    </row>
+    <row r="247" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
+      <c r="B247" s="3">
+        <f>B246+0.1</f>
         <v>19.300000000000004</v>
       </c>
-      <c r="C246" s="14" t="s">
+      <c r="C247" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D246" s="18"/>
-      <c r="E246" s="7" t="s">
+      <c r="D247" s="17"/>
+      <c r="E247" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F246" s="14"/>
-      <c r="G246" s="4"/>
-    </row>
-    <row r="247" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B247" s="3">
-        <f t="shared" ref="B247" si="17">B246+0.1</f>
+      <c r="F247" s="13"/>
+      <c r="G247" s="4"/>
+    </row>
+    <row r="248" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B248" s="3">
+        <f t="shared" ref="B248" si="17">B247+0.1</f>
         <v>19.400000000000006</v>
       </c>
-      <c r="C247" s="14" t="s">
+      <c r="C248" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D247" s="18"/>
-      <c r="E247" s="7" t="s">
+      <c r="D248" s="17"/>
+      <c r="E248" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F247" s="14"/>
-      <c r="G247" s="4"/>
-    </row>
-    <row r="248" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B248" s="3">
-        <f t="shared" ref="B248" si="18">B247+0.1</f>
+      <c r="F248" s="13"/>
+      <c r="G248" s="4"/>
+    </row>
+    <row r="249" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B249" s="3">
+        <f t="shared" ref="B249" si="18">B248+0.1</f>
         <v>19.500000000000007</v>
       </c>
-      <c r="C248" s="14" t="s">
+      <c r="C249" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="D248" s="18"/>
-      <c r="E248" s="7" t="s">
+      <c r="D249" s="17"/>
+      <c r="E249" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F248" s="14"/>
-      <c r="G248" s="4"/>
-    </row>
-    <row r="249" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B249" s="3">
-        <f t="shared" ref="B249" si="19">B248+0.1</f>
+      <c r="F249" s="13"/>
+      <c r="G249" s="4"/>
+    </row>
+    <row r="250" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B250" s="3">
+        <f t="shared" ref="B250" si="19">B249+0.1</f>
         <v>19.600000000000009</v>
       </c>
-      <c r="C249" s="14" t="s">
+      <c r="C250" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D249" s="18"/>
-      <c r="E249" s="7" t="s">
+      <c r="D250" s="17"/>
+      <c r="E250" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F249" s="14"/>
-      <c r="G249" s="4"/>
-    </row>
-    <row r="250" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B250" s="3">
-        <f t="shared" ref="B250" si="20">B249+0.1</f>
+      <c r="F250" s="13"/>
+      <c r="G250" s="4"/>
+    </row>
+    <row r="251" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B251" s="3">
+        <f t="shared" ref="B251" si="20">B250+0.1</f>
         <v>19.70000000000001</v>
       </c>
-      <c r="C250" s="14" t="s">
+      <c r="C251" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D250" s="18" t="s">
+      <c r="D251" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="E250" s="7" t="s">
+      <c r="E251" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F250" s="14"/>
-      <c r="G250" s="4"/>
-    </row>
-    <row r="251" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B251" s="2">
+      <c r="F251" s="13"/>
+      <c r="G251" s="4"/>
+    </row>
+    <row r="252" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B252" s="2">
         <v>20</v>
       </c>
-      <c r="C251" s="5" t="s">
+      <c r="C252" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-    </row>
-    <row r="252" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B252" s="3">
-        <f>B251+0.1</f>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="16"/>
+      <c r="G252" s="16"/>
+    </row>
+    <row r="253" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="3">
+        <f>B252+0.1</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="C252" s="14" t="s">
+      <c r="C253" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D252" s="18"/>
-      <c r="E252" s="7" t="s">
+      <c r="D253" s="17"/>
+      <c r="E253" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F252" s="14"/>
-      <c r="G252" s="4"/>
-    </row>
-    <row r="253" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B253" s="3">
-        <f t="shared" ref="B253:B255" si="21">B252+0.1</f>
+      <c r="F253" s="13"/>
+      <c r="G253" s="4"/>
+    </row>
+    <row r="254" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B254" s="3">
+        <f t="shared" ref="B254:B256" si="21">B253+0.1</f>
         <v>20.200000000000003</v>
       </c>
-      <c r="C253" s="14" t="s">
+      <c r="C254" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="D253" s="18"/>
-      <c r="E253" s="7" t="s">
+      <c r="D254" s="17"/>
+      <c r="E254" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F253" s="14"/>
-      <c r="G253" s="4"/>
-    </row>
-    <row r="254" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B254" s="3">
+      <c r="F254" s="13"/>
+      <c r="G254" s="4"/>
+    </row>
+    <row r="255" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B255" s="3">
         <f t="shared" si="21"/>
         <v>20.300000000000004</v>
       </c>
-      <c r="C254" s="14" t="s">
+      <c r="C255" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D254" s="18"/>
-      <c r="E254" s="7" t="s">
+      <c r="D255" s="17"/>
+      <c r="E255" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F254" s="14"/>
-      <c r="G254" s="4"/>
-    </row>
-    <row r="255" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B255" s="3">
+      <c r="F255" s="13"/>
+      <c r="G255" s="4"/>
+    </row>
+    <row r="256" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B256" s="3">
         <f t="shared" si="21"/>
         <v>20.400000000000006</v>
       </c>
-      <c r="C255" s="14" t="s">
+      <c r="C256" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D255" s="18"/>
-      <c r="E255" s="7" t="s">
+      <c r="D256" s="17"/>
+      <c r="E256" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F255" s="14"/>
-      <c r="G255" s="4"/>
-    </row>
-    <row r="256" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B256" s="3">
-        <f t="shared" ref="B256" si="22">B255+0.1</f>
+      <c r="F256" s="13"/>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="257" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B257" s="3">
+        <f t="shared" ref="B257" si="22">B256+0.1</f>
         <v>20.500000000000007</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="C257" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D256" s="18" t="s">
+      <c r="D257" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="E256" s="7" t="s">
+      <c r="E257" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F256" s="14"/>
-      <c r="G256" s="4"/>
-    </row>
-    <row r="257" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B257" s="2">
+      <c r="F257" s="13"/>
+      <c r="G257" s="4"/>
+    </row>
+    <row r="258" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B258" s="2">
         <v>21</v>
       </c>
-      <c r="C257" s="5" t="s">
+      <c r="C258" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-    </row>
-    <row r="258" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B258" s="3">
-        <f>B257+0.1</f>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="16"/>
+      <c r="G258" s="16"/>
+    </row>
+    <row r="259" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B259" s="3">
+        <f>B258+0.1</f>
         <v>21.1</v>
       </c>
-      <c r="C258" s="14" t="s">
+      <c r="C259" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="D258" s="18"/>
-      <c r="E258" s="7" t="s">
+      <c r="D259" s="17"/>
+      <c r="E259" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F258" s="14"/>
-      <c r="G258" s="4"/>
-    </row>
-    <row r="259" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B259" s="3">
-        <f t="shared" ref="B259:B262" si="23">B258+0.1</f>
+      <c r="F259" s="13"/>
+      <c r="G259" s="4"/>
+    </row>
+    <row r="260" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="3">
+        <f t="shared" ref="B260:B263" si="23">B259+0.1</f>
         <v>21.200000000000003</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="C260" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="D259" s="18"/>
-      <c r="E259" s="7" t="s">
+      <c r="D260" s="17"/>
+      <c r="E260" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F259" s="14"/>
-      <c r="G259" s="4"/>
-    </row>
-    <row r="260" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B260" s="3">
+      <c r="F260" s="13"/>
+      <c r="G260" s="4"/>
+    </row>
+    <row r="261" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B261" s="3">
         <f t="shared" si="23"/>
         <v>21.300000000000004</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="C261" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="D260" s="18"/>
-      <c r="E260" s="7" t="s">
+      <c r="D261" s="17"/>
+      <c r="E261" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F260" s="14"/>
-      <c r="G260" s="4"/>
-    </row>
-    <row r="261" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B261" s="3">
+      <c r="F261" s="13"/>
+      <c r="G261" s="4"/>
+    </row>
+    <row r="262" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B262" s="3">
         <f t="shared" si="23"/>
         <v>21.400000000000006</v>
       </c>
-      <c r="C261" s="14" t="s">
+      <c r="C262" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D261" s="18"/>
-      <c r="E261" s="7" t="s">
+      <c r="D262" s="17"/>
+      <c r="E262" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F261" s="14" t="s">
+      <c r="F262" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G261" s="4"/>
-    </row>
-    <row r="262" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B262" s="3">
+      <c r="G262" s="4"/>
+    </row>
+    <row r="263" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="3">
         <f t="shared" si="23"/>
         <v>21.500000000000007</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="C263" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="D262" s="18" t="s">
+      <c r="D263" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="E262" s="7" t="s">
+      <c r="E263" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F262" s="14" t="s">
+      <c r="F263" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G262" s="4"/>
-    </row>
-    <row r="263" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B263" s="3">
-        <f t="shared" ref="B263:B264" si="24">B262+0.1</f>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="264" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B264" s="3">
+        <f t="shared" ref="B264:B265" si="24">B263+0.1</f>
         <v>21.600000000000009</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="C264" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="D263" s="18"/>
-      <c r="E263" s="7" t="s">
+      <c r="D264" s="17"/>
+      <c r="E264" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F263" s="14" t="s">
+      <c r="F264" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="264" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B264" s="3">
+      <c r="G264" s="4"/>
+    </row>
+    <row r="265" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B265" s="3">
         <f t="shared" si="24"/>
         <v>21.70000000000001</v>
       </c>
-      <c r="C264" s="14" t="s">
+      <c r="C265" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="D264" s="18"/>
-      <c r="E264" s="7" t="s">
+      <c r="D265" s="17"/>
+      <c r="E265" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F265" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G264" s="4"/>
-    </row>
-    <row r="265" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B265" s="3">
-        <f t="shared" ref="B265" si="25">B264+0.1</f>
+      <c r="G265" s="4"/>
+    </row>
+    <row r="266" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B266" s="3">
+        <f t="shared" ref="B266" si="25">B265+0.1</f>
         <v>21.800000000000011</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="C266" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="D265" s="18"/>
-      <c r="E265" s="7" t="s">
+      <c r="D266" s="17"/>
+      <c r="E266" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F265" s="14" t="s">
+      <c r="F266" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G265" s="4"/>
-    </row>
-    <row r="266" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B266" s="3">
-        <f>B265+0.1</f>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="267" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B267" s="3">
+        <f>B266+0.1</f>
         <v>21.900000000000013</v>
       </c>
-      <c r="C266" s="14" t="s">
+      <c r="C267" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D266" s="18"/>
-      <c r="E266" s="7" t="s">
+      <c r="D267" s="17"/>
+      <c r="E267" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F266" s="14" t="s">
+      <c r="F267" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G266" s="4"/>
-    </row>
-    <row r="267" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B267" s="16">
-        <f>B258</f>
+      <c r="G267" s="4"/>
+    </row>
+    <row r="268" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B268" s="15">
+        <f>B259</f>
         <v>21.1</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C268" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D267" s="18"/>
-      <c r="E267" s="7" t="s">
+      <c r="D268" s="17"/>
+      <c r="E268" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F267" s="14" t="s">
+      <c r="F268" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="268" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B268" s="16">
-        <f>B267+0.01</f>
+      <c r="G268" s="4"/>
+    </row>
+    <row r="269" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B269" s="15">
+        <f>B268+0.01</f>
         <v>21.110000000000003</v>
       </c>
-      <c r="C268" s="14" t="s">
+      <c r="C269" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D268" s="18"/>
-      <c r="E268" s="7" t="s">
+      <c r="D269" s="17"/>
+      <c r="E269" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F268" s="14" t="s">
+      <c r="F269" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G268" s="4"/>
-    </row>
-    <row r="269" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B269" s="16">
-        <f>B268+0.01</f>
+      <c r="G269" s="4"/>
+    </row>
+    <row r="270" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B270" s="15">
+        <f>B269+0.01</f>
         <v>21.120000000000005</v>
       </c>
-      <c r="C269" s="14" t="s">
+      <c r="C270" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D269" s="18" t="s">
+      <c r="D270" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E269" s="7" t="s">
+      <c r="E270" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F269" s="14"/>
-      <c r="G269" s="4"/>
-    </row>
-    <row r="270" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B270" s="2">
+      <c r="F270" s="13"/>
+      <c r="G270" s="4"/>
+    </row>
+    <row r="271" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B271" s="2">
         <v>22</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C271" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="17"/>
-      <c r="G270" s="17"/>
-    </row>
-    <row r="271" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B271" s="3">
-        <f>B270+0.1</f>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="16"/>
+      <c r="G271" s="16"/>
+    </row>
+    <row r="272" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="3">
+        <f>B271+0.1</f>
         <v>22.1</v>
       </c>
-      <c r="C271" s="14" t="s">
+      <c r="C272" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="D271" s="18"/>
-      <c r="E271" s="7" t="s">
+      <c r="D272" s="17"/>
+      <c r="E272" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F271" s="14"/>
-      <c r="G271" s="4"/>
-    </row>
-    <row r="272" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B272" s="3">
-        <f t="shared" ref="B272:B276" si="26">B271+0.1</f>
+      <c r="F272" s="13"/>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B273" s="3">
+        <f t="shared" ref="B273:B277" si="26">B272+0.1</f>
         <v>22.200000000000003</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="C273" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D272" s="18"/>
-      <c r="E272" s="7" t="s">
+      <c r="D273" s="17"/>
+      <c r="E273" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F272" s="14"/>
-      <c r="G272" s="4"/>
-    </row>
-    <row r="273" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B273" s="3">
+      <c r="F273" s="13"/>
+      <c r="G273" s="4"/>
+    </row>
+    <row r="274" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="3">
         <f t="shared" si="26"/>
         <v>22.300000000000004</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C274" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D273" s="7"/>
-      <c r="E273" s="4" t="s">
+      <c r="D274" s="7"/>
+      <c r="E274" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F273" s="14"/>
-      <c r="G273" s="4"/>
-    </row>
-    <row r="274" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B274" s="3">
+      <c r="F274" s="13"/>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="275" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="3">
         <f t="shared" si="26"/>
         <v>22.400000000000006</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C275" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D274" s="7"/>
-      <c r="E274" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F274" s="14"/>
-      <c r="G274" s="4"/>
-    </row>
-    <row r="275" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B275" s="3">
-        <f t="shared" si="26"/>
-        <v>22.500000000000007</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="D275" s="7"/>
       <c r="E275" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F275" s="14"/>
+      <c r="F275" s="13"/>
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <f t="shared" si="26"/>
+        <v>22.500000000000007</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F276" s="13"/>
+      <c r="G276" s="4"/>
+    </row>
+    <row r="277" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B277" s="3">
+        <f t="shared" si="26"/>
         <v>22.600000000000009</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C277" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="D276" s="18"/>
-      <c r="E276" s="7" t="s">
+      <c r="D277" s="17"/>
+      <c r="E277" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F276" s="14"/>
-      <c r="G276" s="4"/>
-    </row>
-    <row r="277" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B277" s="3">
-        <f t="shared" ref="B277:B278" si="27">B276+0.1</f>
+      <c r="F277" s="13"/>
+      <c r="G277" s="4"/>
+    </row>
+    <row r="278" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B278" s="3">
+        <f t="shared" ref="B278:B279" si="27">B277+0.1</f>
         <v>22.70000000000001</v>
       </c>
-      <c r="C277" s="14" t="s">
+      <c r="C278" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D277" s="18"/>
-      <c r="E277" s="7" t="s">
+      <c r="D278" s="17"/>
+      <c r="E278" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F277" s="14"/>
-      <c r="G277" s="4"/>
-    </row>
-    <row r="278" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B278" s="3">
+      <c r="F278" s="13"/>
+      <c r="G278" s="4"/>
+    </row>
+    <row r="279" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B279" s="3">
         <f t="shared" si="27"/>
         <v>22.800000000000011</v>
       </c>
-      <c r="C278" s="14" t="s">
+      <c r="C279" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="D278" s="18"/>
-      <c r="E278" s="7" t="s">
+      <c r="D279" s="17"/>
+      <c r="E279" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="F278" s="14"/>
-      <c r="G278" s="4"/>
-    </row>
-    <row r="279" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B279" s="3">
-        <f t="shared" ref="B279" si="28">B278+0.1</f>
+      <c r="F279" s="13"/>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B280" s="3">
+        <f t="shared" ref="B280" si="28">B279+0.1</f>
         <v>22.900000000000013</v>
       </c>
-      <c r="C279" s="14" t="s">
+      <c r="C280" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="D279" s="18"/>
-      <c r="E279" s="7" t="s">
+      <c r="D280" s="17"/>
+      <c r="E280" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F279" s="14"/>
-      <c r="G279" s="4"/>
-    </row>
-    <row r="280" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B280" s="16">
-        <f>B271</f>
+      <c r="F280" s="13"/>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B281" s="15">
+        <f>B272</f>
         <v>22.1</v>
       </c>
-      <c r="C280" s="14" t="s">
+      <c r="C281" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D280" s="18" t="s">
+      <c r="D281" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="E280" s="7" t="s">
+      <c r="E281" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F280" s="14"/>
-      <c r="G280" s="4"/>
-    </row>
-    <row r="281" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B281" s="46">
+      <c r="F281" s="13"/>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="282" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B282" s="31">
         <v>22</v>
       </c>
-      <c r="C281" s="47" t="s">
+      <c r="C282" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="D281" s="48"/>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
-      <c r="G281" s="48"/>
-    </row>
-    <row r="282" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B282" s="49">
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
+      <c r="F282" s="33"/>
+      <c r="G282" s="33"/>
+    </row>
+    <row r="283" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="34">
         <v>22.1</v>
       </c>
-      <c r="C282" s="50" t="s">
+      <c r="C283" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="D282" s="51" t="s">
+      <c r="D283" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="E282" s="51" t="s">
+      <c r="E283" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="F282" s="51"/>
-      <c r="G282" s="51" t="s">
+      <c r="F283" s="18"/>
+      <c r="G283" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="283" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B283" s="49">
+    <row r="284" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B284" s="34">
         <v>22.2</v>
       </c>
-      <c r="C283" s="51" t="s">
+      <c r="C284" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="51" t="s">
+      <c r="D284" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E283" s="51" t="s">
+      <c r="E284" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F283" s="51"/>
-      <c r="G283" s="51" t="s">
+      <c r="F284" s="18"/>
+      <c r="G284" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="284" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B284" s="46">
+    <row r="285" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B285" s="31">
         <v>23</v>
       </c>
-      <c r="C284" s="47" t="s">
+      <c r="C285" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D284" s="52"/>
-      <c r="E284" s="52"/>
-      <c r="F284" s="52"/>
-      <c r="G284" s="52"/>
-    </row>
-    <row r="285" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B285" s="53">
+      <c r="D285" s="33"/>
+      <c r="E285" s="33"/>
+      <c r="F285" s="33"/>
+      <c r="G285" s="33"/>
+    </row>
+    <row r="286" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B286" s="34">
         <v>23.1</v>
       </c>
-      <c r="C285" s="51" t="s">
+      <c r="C286" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="D285" s="54" t="s">
+      <c r="D286" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="E285" s="51" t="s">
+      <c r="E286" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="F285" s="54"/>
-      <c r="G285" s="54" t="s">
+      <c r="F286" s="18"/>
+      <c r="G286" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="286" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B286" s="55">
+    <row r="287" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B287" s="35">
         <v>23.2</v>
       </c>
-      <c r="C286" s="56" t="s">
+      <c r="C287" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="D286" s="57"/>
-      <c r="E286" s="56"/>
-      <c r="F286" s="58"/>
-      <c r="G286" s="58"/>
-    </row>
-    <row r="287" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B287" s="53" t="s">
+      <c r="D287" s="37"/>
+      <c r="E287" s="36"/>
+      <c r="F287" s="36"/>
+      <c r="G287" s="36"/>
+    </row>
+    <row r="288" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B288" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="C287" s="51" t="s">
+      <c r="C288" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D287" s="50"/>
-      <c r="E287" s="51" t="s">
+      <c r="D288" s="21"/>
+      <c r="E288" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="F287" s="59"/>
-      <c r="G287" s="59"/>
-    </row>
-    <row r="288" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B288" s="53" t="s">
+      <c r="F288" s="38"/>
+      <c r="G288" s="38"/>
+    </row>
+    <row r="289" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B289" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="C288" s="51" t="s">
+      <c r="C289" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="D288" s="50" t="s">
+      <c r="D289" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="E288" s="51" t="s">
+      <c r="E289" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="F288" s="54"/>
-      <c r="G288" s="54" t="s">
+      <c r="F289" s="18"/>
+      <c r="G289" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="289" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B289" s="53" t="s">
+    <row r="290" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B290" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="C289" s="51" t="s">
+      <c r="C290" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D289" s="50" t="s">
+      <c r="D290" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="E289" s="51" t="s">
+      <c r="E290" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="F289" s="54"/>
-      <c r="G289" s="54" t="s">
+      <c r="F290" s="18"/>
+      <c r="G290" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="290" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B290" s="55">
+    <row r="291" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B291" s="35">
         <v>23.3</v>
       </c>
-      <c r="C290" s="56" t="s">
+      <c r="C291" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="D290" s="57"/>
-      <c r="E290" s="56"/>
-      <c r="F290" s="60"/>
-      <c r="G290" s="60"/>
-    </row>
-    <row r="291" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B291" s="53" t="s">
+      <c r="D291" s="37"/>
+      <c r="E291" s="36"/>
+      <c r="F291" s="39"/>
+      <c r="G291" s="39"/>
+    </row>
+    <row r="292" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="C291" s="51" t="s">
+      <c r="C292" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D291" s="51" t="s">
+      <c r="D292" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="E291" s="50" t="s">
+      <c r="E292" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F291" s="59"/>
-      <c r="G291" s="59" t="s">
+      <c r="F292" s="38"/>
+      <c r="G292" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="292" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B292" s="53" t="s">
+    <row r="293" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B293" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="C292" s="51" t="s">
+      <c r="C293" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D292" s="51" t="s">
+      <c r="D293" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E292" s="51" t="s">
+      <c r="E293" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="F292" s="59"/>
-      <c r="G292" s="59" t="s">
+      <c r="F293" s="38"/>
+      <c r="G293" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="293" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B293" s="53" t="s">
+    <row r="294" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B294" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="C293" s="51" t="s">
+      <c r="C294" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D293" s="51" t="s">
+      <c r="D294" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="E293" s="51" t="s">
+      <c r="E294" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="F293" s="59"/>
-      <c r="G293" s="59" t="s">
+      <c r="F294" s="38"/>
+      <c r="G294" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="294" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B294" s="53">
+    <row r="295" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B295" s="34">
         <v>23.4</v>
       </c>
-      <c r="C294" s="51" t="s">
+      <c r="C295" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="51" t="s">
+      <c r="D295" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E294" s="51" t="s">
+      <c r="E295" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F294" s="54"/>
-      <c r="G294" s="54" t="s">
+      <c r="F295" s="18"/>
+      <c r="G295" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="295" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B295" s="46">
+    <row r="296" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B296" s="31">
         <v>24</v>
       </c>
-      <c r="C295" s="47" t="s">
+      <c r="C296" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D295" s="52"/>
-      <c r="E295" s="52"/>
-      <c r="F295" s="52"/>
-      <c r="G295" s="52"/>
-    </row>
-    <row r="296" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B296" s="53">
+      <c r="D296" s="33"/>
+      <c r="E296" s="33"/>
+      <c r="F296" s="33"/>
+      <c r="G296" s="33"/>
+    </row>
+    <row r="297" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B297" s="34">
         <v>24.1</v>
       </c>
-      <c r="C296" s="51" t="s">
+      <c r="C297" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="D296" s="54" t="s">
+      <c r="D297" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="E296" s="51" t="s">
+      <c r="E297" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="F296" s="54"/>
-      <c r="G296" s="54" t="s">
+      <c r="F297" s="18"/>
+      <c r="G297" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="297" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B297" s="67">
+    <row r="298" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B298" s="40">
         <v>24.2</v>
       </c>
-      <c r="C297" s="68" t="s">
+      <c r="C298" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="D297" s="69"/>
-      <c r="E297" s="68"/>
-      <c r="F297" s="68"/>
-      <c r="G297" s="68"/>
-    </row>
-    <row r="298" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B298" s="53" t="s">
+      <c r="D298" s="42"/>
+      <c r="E298" s="41"/>
+      <c r="F298" s="41"/>
+      <c r="G298" s="41"/>
+    </row>
+    <row r="299" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="C298" s="51" t="s">
+      <c r="C299" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D298" s="50" t="s">
+      <c r="D299" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E298" s="51" t="s">
+      <c r="E299" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="F298" s="59"/>
-      <c r="G298" s="59"/>
-    </row>
-    <row r="299" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B299" s="53" t="s">
+      <c r="F299" s="38"/>
+      <c r="G299" s="38"/>
+    </row>
+    <row r="300" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B300" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="C299" s="51" t="s">
+      <c r="C300" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D299" s="50"/>
-      <c r="E299" s="51" t="s">
+      <c r="D300" s="21"/>
+      <c r="E300" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="F299" s="54"/>
-      <c r="G299" s="54" t="s">
+      <c r="F300" s="18"/>
+      <c r="G300" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="300" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B300" s="53" t="s">
+    <row r="301" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B301" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="C300" s="51" t="s">
+      <c r="C301" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="D300" s="50"/>
-      <c r="E300" s="51" t="s">
+      <c r="D301" s="21"/>
+      <c r="E301" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="F300" s="54"/>
-      <c r="G300" s="54" t="s">
+      <c r="F301" s="18"/>
+      <c r="G301" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="301" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B301" s="53" t="s">
+    <row r="302" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B302" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="C301" s="51" t="s">
+      <c r="C302" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="D301" s="50"/>
-      <c r="E301" s="51" t="s">
+      <c r="D302" s="21"/>
+      <c r="E302" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="F301" s="54"/>
-      <c r="G301" s="54" t="s">
+      <c r="F302" s="18"/>
+      <c r="G302" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="302" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B302" s="53" t="s">
+    <row r="303" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B303" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="C302" s="51" t="s">
+      <c r="C303" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="D302" s="50"/>
-      <c r="E302" s="51" t="s">
+      <c r="D303" s="21"/>
+      <c r="E303" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="F302" s="54"/>
-      <c r="G302" s="54" t="s">
+      <c r="F303" s="18"/>
+      <c r="G303" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="303" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B303" s="53" t="s">
+    <row r="304" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B304" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="C303" s="51" t="s">
+      <c r="C304" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="D303" s="50" t="s">
+      <c r="D304" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E303" s="51" t="s">
+      <c r="E304" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="F303" s="54"/>
-      <c r="G303" s="54" t="s">
+      <c r="F304" s="18"/>
+      <c r="G304" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="304" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B304" s="53" t="s">
+    <row r="305" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="C304" s="51" t="s">
+      <c r="C305" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D304" s="50" t="s">
+      <c r="D305" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E304" s="51" t="s">
+      <c r="E305" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="F304" s="54"/>
-      <c r="G304" s="54" t="s">
+      <c r="F305" s="18"/>
+      <c r="G305" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="305" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B305" s="67">
+    <row r="306" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B306" s="40">
         <v>24.3</v>
       </c>
-      <c r="C305" s="68" t="s">
+      <c r="C306" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="D305" s="68"/>
-      <c r="E305" s="68"/>
-      <c r="F305" s="71"/>
-      <c r="G305" s="71"/>
-    </row>
-    <row r="306" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B306" s="53" t="s">
+      <c r="D306" s="41"/>
+      <c r="E306" s="41"/>
+      <c r="F306" s="43"/>
+      <c r="G306" s="43"/>
+    </row>
+    <row r="307" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B307" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="C306" s="51" t="s">
+      <c r="C307" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D306" s="51" t="s">
+      <c r="D307" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="E306" s="50" t="s">
+      <c r="E307" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="F306" s="59"/>
-      <c r="G306" s="59" t="s">
+      <c r="F307" s="38"/>
+      <c r="G307" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="307" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B307" s="53" t="s">
+    <row r="308" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B308" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="C307" s="51" t="s">
+      <c r="C308" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="D307" s="51"/>
-      <c r="E307" s="50" t="s">
+      <c r="D308" s="18"/>
+      <c r="E308" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="F307" s="59"/>
-      <c r="G307" s="59" t="s">
+      <c r="F308" s="38"/>
+      <c r="G308" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="308" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B308" s="53" t="s">
+    <row r="309" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="C308" s="51" t="s">
+      <c r="C309" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D308" s="50" t="s">
+      <c r="D309" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E308" s="51" t="s">
+      <c r="E309" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="F308" s="59"/>
-      <c r="G308" s="59" t="s">
+      <c r="F309" s="38"/>
+      <c r="G309" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="309" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B309" s="53" t="s">
+    <row r="310" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="C309" s="51" t="s">
+      <c r="C310" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D309" s="50" t="s">
+      <c r="D310" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E309" s="51" t="s">
+      <c r="E310" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="F309" s="59"/>
-      <c r="G309" s="59" t="s">
+      <c r="F310" s="38"/>
+      <c r="G310" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="310" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B310" s="67">
+    <row r="311" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B311" s="40">
         <v>24.4</v>
       </c>
-      <c r="C310" s="68" t="s">
+      <c r="C311" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="D310" s="68"/>
-      <c r="E310" s="68"/>
-      <c r="F310" s="71"/>
-      <c r="G310" s="71"/>
-    </row>
-    <row r="311" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B311" s="53" t="s">
+      <c r="D311" s="41"/>
+      <c r="E311" s="41"/>
+      <c r="F311" s="43"/>
+      <c r="G311" s="43"/>
+    </row>
+    <row r="312" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B312" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="C311" s="51" t="s">
+      <c r="C312" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="D311" s="51"/>
-      <c r="E311" s="51" t="s">
+      <c r="D312" s="18"/>
+      <c r="E312" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="F311" s="59"/>
-      <c r="G311" s="59" t="s">
+      <c r="F312" s="38"/>
+      <c r="G312" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="312" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B312" s="53" t="s">
+    <row r="313" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B313" s="34" t="s">
         <v>543</v>
       </c>
-      <c r="C312" s="51" t="s">
+      <c r="C313" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="D312" s="51"/>
-      <c r="E312" s="51" t="s">
+      <c r="D313" s="18"/>
+      <c r="E313" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="F312" s="59"/>
-      <c r="G312" s="59" t="s">
+      <c r="F313" s="38"/>
+      <c r="G313" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="313" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B313" s="53" t="s">
+    <row r="314" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B314" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="C313" s="51" t="s">
+      <c r="C314" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="D313" s="51"/>
-      <c r="E313" s="50" t="s">
+      <c r="D314" s="18"/>
+      <c r="E314" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="F313" s="59"/>
-      <c r="G313" s="59" t="s">
+      <c r="F314" s="38"/>
+      <c r="G314" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="314" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B314" s="61">
+    <row r="315" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B315" s="44">
         <v>24.5</v>
       </c>
-      <c r="C314" s="50" t="s">
+      <c r="C315" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="D314" s="50"/>
-      <c r="E314" s="50"/>
-      <c r="F314" s="62"/>
-      <c r="G314" s="62"/>
-    </row>
-    <row r="315" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B315" s="53" t="s">
+      <c r="D315" s="21"/>
+      <c r="E315" s="21"/>
+      <c r="F315" s="21"/>
+      <c r="G315" s="21"/>
+    </row>
+    <row r="316" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B316" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="C315" s="51" t="s">
+      <c r="C316" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="D315" s="51"/>
-      <c r="E315" s="51" t="s">
+      <c r="D316" s="18"/>
+      <c r="E316" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="F315" s="54"/>
-      <c r="G315" s="54" t="s">
+      <c r="F316" s="18"/>
+      <c r="G316" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="316" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B316" s="53" t="s">
+    <row r="317" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B317" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="C316" s="51" t="s">
+      <c r="C317" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="D316" s="51"/>
-      <c r="E316" s="51" t="s">
+      <c r="D317" s="18"/>
+      <c r="E317" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="F316" s="54"/>
-      <c r="G316" s="54" t="s">
+      <c r="F317" s="18"/>
+      <c r="G317" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="317" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B317" s="53">
+    <row r="318" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B318" s="34">
         <v>24.6</v>
       </c>
-      <c r="C317" s="51" t="s">
+      <c r="C318" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D317" s="51" t="s">
+      <c r="D318" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E317" s="51" t="s">
+      <c r="E318" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F317" s="54"/>
-      <c r="G317" s="54" t="s">
+      <c r="F318" s="18"/>
+      <c r="G318" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="318" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B318" s="46">
+    <row r="319" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B319" s="31">
         <v>25</v>
       </c>
-      <c r="C318" s="47" t="s">
+      <c r="C319" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="D318" s="52"/>
-      <c r="E318" s="52"/>
-      <c r="F318" s="52"/>
-      <c r="G318" s="52"/>
-    </row>
-    <row r="319" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B319" s="53">
+      <c r="D319" s="33"/>
+      <c r="E319" s="33"/>
+      <c r="F319" s="33"/>
+      <c r="G319" s="33"/>
+    </row>
+    <row r="320" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B320" s="34">
         <v>25.1</v>
       </c>
-      <c r="C319" s="51" t="s">
+      <c r="C320" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D319" s="54" t="s">
+      <c r="D320" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="E319" s="51" t="s">
+      <c r="E320" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="F319" s="54"/>
-      <c r="G319" s="54" t="s">
+      <c r="F320" s="18"/>
+      <c r="G320" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="320" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B320" s="72">
+    <row r="321" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B321" s="45">
         <v>25.1</v>
       </c>
-      <c r="C320" s="68" t="s">
+      <c r="C321" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="D320" s="69"/>
-      <c r="E320" s="68"/>
-      <c r="F320" s="68"/>
-      <c r="G320" s="68"/>
-    </row>
-    <row r="321" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B321" s="53" t="s">
+      <c r="D321" s="42"/>
+      <c r="E321" s="41"/>
+      <c r="F321" s="41"/>
+      <c r="G321" s="41"/>
+    </row>
+    <row r="322" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B322" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="C321" s="51" t="s">
+      <c r="C322" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D321" s="50" t="s">
+      <c r="D322" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="E321" s="51" t="s">
+      <c r="E322" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="F321" s="59"/>
-      <c r="G321" s="59"/>
-    </row>
-    <row r="322" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B322" s="53" t="s">
+      <c r="F322" s="38"/>
+      <c r="G322" s="38"/>
+    </row>
+    <row r="323" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B323" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="C322" s="51" t="s">
+      <c r="C323" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="D322" s="51"/>
-      <c r="E322" s="51" t="s">
+      <c r="D323" s="18"/>
+      <c r="E323" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="F322" s="59"/>
-      <c r="G322" s="59" t="s">
+      <c r="F323" s="38"/>
+      <c r="G323" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="323" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B323" s="53" t="s">
+    <row r="324" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B324" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="C323" s="51" t="s">
+      <c r="C324" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D323" s="51"/>
-      <c r="E323" s="51" t="s">
+      <c r="D324" s="18"/>
+      <c r="E324" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="F323" s="59"/>
-      <c r="G323" s="59" t="s">
+      <c r="F324" s="38"/>
+      <c r="G324" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="324" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B324" s="53" t="s">
+    <row r="325" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B325" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="C324" s="51" t="s">
+      <c r="C325" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="D324" s="50" t="s">
+      <c r="D325" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="E324" s="51" t="s">
+      <c r="E325" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="F324" s="54"/>
-      <c r="G324" s="54" t="s">
+      <c r="F325" s="18"/>
+      <c r="G325" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="325" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B325" s="53" t="s">
+    <row r="326" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B326" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="C325" s="51" t="s">
+      <c r="C326" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D325" s="50" t="s">
+      <c r="D326" s="21" t="s">
         <v>503</v>
       </c>
-      <c r="E325" s="51" t="s">
+      <c r="E326" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="F325" s="54"/>
-      <c r="G325" s="54" t="s">
+      <c r="F326" s="18"/>
+      <c r="G326" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="326" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B326" s="67">
+    <row r="327" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B327" s="40">
         <v>25.3</v>
       </c>
-      <c r="C326" s="68" t="s">
+      <c r="C327" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="D326" s="69"/>
-      <c r="E326" s="68"/>
-      <c r="F326" s="71"/>
-      <c r="G326" s="71"/>
-    </row>
-    <row r="327" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B327" s="53" t="s">
+      <c r="D327" s="42"/>
+      <c r="E327" s="41"/>
+      <c r="F327" s="43"/>
+      <c r="G327" s="43"/>
+    </row>
+    <row r="328" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B328" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="C327" s="51" t="s">
+      <c r="C328" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="D327" s="51" t="s">
+      <c r="D328" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="E327" s="51" t="s">
+      <c r="E328" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="F327" s="59"/>
-      <c r="G327" s="59" t="s">
+      <c r="F328" s="38"/>
+      <c r="G328" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="328" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B328" s="53" t="s">
+    <row r="329" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B329" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="C328" s="51" t="s">
+      <c r="C329" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D328" s="51" t="s">
+      <c r="D329" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="E328" s="51" t="s">
+      <c r="E329" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="F328" s="59"/>
-      <c r="G328" s="59" t="s">
+      <c r="F329" s="38"/>
+      <c r="G329" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="329" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B329" s="53" t="s">
+    <row r="330" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B330" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="C329" s="51" t="s">
+      <c r="C330" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D329" s="51" t="s">
+      <c r="D330" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="E329" s="51" t="s">
+      <c r="E330" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="F329" s="59"/>
-      <c r="G329" s="59" t="s">
+      <c r="F330" s="38"/>
+      <c r="G330" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="330" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B330" s="53">
+    <row r="331" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B331" s="34">
         <v>25.4</v>
       </c>
-      <c r="C330" s="51" t="s">
+      <c r="C331" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D330" s="51" t="s">
+      <c r="D331" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E330" s="51" t="s">
+      <c r="E331" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F330" s="54"/>
-      <c r="G330" s="54" t="s">
+      <c r="F331" s="18"/>
+      <c r="G331" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="331" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B331" s="46">
+    <row r="332" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B332" s="31">
         <v>26</v>
       </c>
-      <c r="C331" s="47" t="s">
+      <c r="C332" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="D331" s="52"/>
-      <c r="E331" s="52"/>
-      <c r="F331" s="52"/>
-      <c r="G331" s="52"/>
-    </row>
-    <row r="332" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B332" s="53">
+      <c r="D332" s="33"/>
+      <c r="E332" s="33"/>
+      <c r="F332" s="33"/>
+      <c r="G332" s="33"/>
+    </row>
+    <row r="333" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B333" s="34">
         <v>26.1</v>
       </c>
-      <c r="C332" s="51" t="s">
+      <c r="C333" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D332" s="54" t="s">
+      <c r="D333" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="E332" s="51" t="s">
+      <c r="E333" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="F332" s="54"/>
-      <c r="G332" s="54" t="s">
+      <c r="F333" s="18"/>
+      <c r="G333" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="333" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B333" s="67">
+    <row r="334" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B334" s="40">
         <v>26.2</v>
       </c>
-      <c r="C333" s="68" t="s">
+      <c r="C334" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D333" s="69"/>
-      <c r="E333" s="68"/>
-      <c r="F333" s="68"/>
-      <c r="G333" s="68"/>
-    </row>
-    <row r="334" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B334" s="53" t="s">
+      <c r="D334" s="42"/>
+      <c r="E334" s="41"/>
+      <c r="F334" s="41"/>
+      <c r="G334" s="41"/>
+    </row>
+    <row r="335" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B335" s="34" t="s">
         <v>555</v>
       </c>
-      <c r="C334" s="51" t="s">
+      <c r="C335" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D334" s="50" t="s">
+      <c r="D335" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="E334" s="51" t="s">
+      <c r="E335" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="F334" s="59"/>
-      <c r="G334" s="59"/>
-    </row>
-    <row r="335" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B335" s="53" t="s">
+      <c r="F335" s="38"/>
+      <c r="G335" s="38"/>
+    </row>
+    <row r="336" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B336" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="C335" s="51" t="s">
+      <c r="C336" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="D335" s="50" t="s">
+      <c r="D336" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="E335" s="51" t="s">
+      <c r="E336" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="F335" s="54"/>
-      <c r="G335" s="54" t="s">
+      <c r="F336" s="18"/>
+      <c r="G336" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="336" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B336" s="53" t="s">
+    <row r="337" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B337" s="34" t="s">
         <v>557</v>
       </c>
-      <c r="C336" s="51" t="s">
+      <c r="C337" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="D336" s="50" t="s">
+      <c r="D337" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="E336" s="51" t="s">
+      <c r="E337" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="F336" s="54"/>
-      <c r="G336" s="54" t="s">
+      <c r="F337" s="18"/>
+      <c r="G337" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="337" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B337" s="67">
+    <row r="338" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B338" s="40">
         <v>26.3</v>
       </c>
-      <c r="C337" s="68" t="s">
+      <c r="C338" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="D337" s="69"/>
-      <c r="E337" s="68"/>
-      <c r="F337" s="71"/>
-      <c r="G337" s="71"/>
-    </row>
-    <row r="338" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B338" s="53" t="s">
+      <c r="D338" s="42"/>
+      <c r="E338" s="41"/>
+      <c r="F338" s="43"/>
+      <c r="G338" s="43"/>
+    </row>
+    <row r="339" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B339" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="C338" s="51" t="s">
+      <c r="C339" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D338" s="51"/>
-      <c r="E338" s="50" t="s">
+      <c r="D339" s="18"/>
+      <c r="E339" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="F338" s="59"/>
-      <c r="G338" s="59" t="s">
+      <c r="F339" s="38"/>
+      <c r="G339" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="339" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B339" s="53" t="s">
+    <row r="340" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B340" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="C339" s="51" t="s">
+      <c r="C340" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D339" s="50" t="s">
+      <c r="D340" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="E339" s="51" t="s">
+      <c r="E340" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="F339" s="59"/>
-      <c r="G339" s="59" t="s">
+      <c r="F340" s="38"/>
+      <c r="G340" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="340" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B340" s="53" t="s">
+    <row r="341" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B341" s="34" t="s">
         <v>560</v>
       </c>
-      <c r="C340" s="51" t="s">
+      <c r="C341" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D340" s="50" t="s">
+      <c r="D341" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="E340" s="51" t="s">
+      <c r="E341" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="F340" s="59"/>
-      <c r="G340" s="59" t="s">
+      <c r="F341" s="38"/>
+      <c r="G341" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="341" spans="2:7" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B341" s="67">
+    <row r="342" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B342" s="40">
         <v>26.4</v>
       </c>
-      <c r="C341" s="68" t="s">
+      <c r="C342" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="D341" s="69"/>
-      <c r="E341" s="68"/>
-      <c r="F341" s="71"/>
-      <c r="G341" s="71"/>
-    </row>
-    <row r="342" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B342" s="53" t="s">
+      <c r="D342" s="42"/>
+      <c r="E342" s="41"/>
+      <c r="F342" s="43"/>
+      <c r="G342" s="43"/>
+    </row>
+    <row r="343" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B343" s="34" t="s">
         <v>561</v>
       </c>
-      <c r="C342" s="51" t="s">
+      <c r="C343" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="D342" s="50"/>
-      <c r="E342" s="51" t="s">
+      <c r="D343" s="21"/>
+      <c r="E343" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="F342" s="59"/>
-      <c r="G342" s="59" t="s">
+      <c r="F343" s="38"/>
+      <c r="G343" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="343" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B343" s="53" t="s">
+    <row r="344" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B344" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="C343" s="51" t="s">
+      <c r="C344" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="D343" s="50"/>
-      <c r="E343" s="51" t="s">
+      <c r="D344" s="21"/>
+      <c r="E344" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="F343" s="59"/>
-      <c r="G343" s="59" t="s">
+      <c r="F344" s="38"/>
+      <c r="G344" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="344" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B344" s="53">
+    <row r="345" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B345" s="34">
         <v>26.5</v>
       </c>
-      <c r="C344" s="51" t="s">
+      <c r="C345" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D344" s="51" t="s">
+      <c r="D345" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E344" s="51" t="s">
+      <c r="E345" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F344" s="54"/>
-      <c r="G344" s="54" t="s">
+      <c r="F345" s="18"/>
+      <c r="G345" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="345" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B345" s="46">
+    <row r="346" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B346" s="31">
         <v>27</v>
       </c>
-      <c r="C345" s="47" t="s">
+      <c r="C346" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="D345" s="52"/>
-      <c r="E345" s="52"/>
-      <c r="F345" s="52"/>
-      <c r="G345" s="52"/>
-    </row>
-    <row r="346" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B346" s="49">
+      <c r="D346" s="33"/>
+      <c r="E346" s="33"/>
+      <c r="F346" s="33"/>
+      <c r="G346" s="33"/>
+    </row>
+    <row r="347" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B347" s="34">
         <v>27.1</v>
       </c>
-      <c r="C346" s="50" t="s">
+      <c r="C347" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="D346" s="51" t="s">
+      <c r="D347" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="E346" s="51" t="s">
+      <c r="E347" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="F346" s="51"/>
-      <c r="G346" s="51" t="s">
+      <c r="F347" s="18"/>
+      <c r="G347" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="347" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B347" s="49">
+    <row r="348" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B348" s="34">
         <v>27.1</v>
       </c>
-      <c r="C347" s="51" t="s">
+      <c r="C348" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D347" s="51" t="s">
+      <c r="D348" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E347" s="51" t="s">
+      <c r="E348" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F347" s="51"/>
-      <c r="G347" s="51" t="s">
+      <c r="F348" s="18"/>
+      <c r="G348" s="18" t="s">
         <v>448</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="G138:G140"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="G161:G163"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="F152:F155"/>
-    <mergeCell ref="G152:G155"/>
-    <mergeCell ref="F127:F130"/>
-    <mergeCell ref="G127:G130"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="G113:G115"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="C211:C215"/>
-    <mergeCell ref="C198:C200"/>
-    <mergeCell ref="B173:B177"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C173:C177"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="G166:G169"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="G139:G141"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="C170:C173"/>
     <mergeCell ref="C100:C101"/>
-    <mergeCell ref="G211:G215"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="G216:G217"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="G173:G177"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="G169:G172"/>
-    <mergeCell ref="E173:E177"/>
-    <mergeCell ref="F173:F177"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="G123:G126"/>
-    <mergeCell ref="E127:E130"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G174:G178"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="G170:G173"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="E128:E131"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="68" max="7" man="1"/>
-    <brk id="145" max="7" man="1"/>
+    <brk id="146" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/documents/BaoCaoDot3+4/Testcase.xlsx
+++ b/documents/BaoCaoDot3+4/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\BaoCaoDot3+4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5782D592-AF31-47EF-8805-7432477C6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F773AC-9276-44DB-997C-6C0E50E49073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="565">
   <si>
     <t>TÌNH TRẠNG</t>
   </si>
@@ -1982,7 +1982,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2097,7 +2097,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2115,32 +2133,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2152,10 +2149,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2571,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2629,9 @@
         <v>270</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
@@ -2648,7 +2647,9 @@
         <v>271</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -2664,7 +2665,9 @@
         <v>260</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -2680,7 +2683,9 @@
         <v>276</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -2694,7 +2699,9 @@
         <v>279</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -2710,7 +2717,9 @@
         <v>271</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -2726,7 +2735,9 @@
         <v>281</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -2742,7 +2753,9 @@
         <v>276</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -2756,7 +2769,9 @@
         <v>285</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
@@ -2772,7 +2787,9 @@
         <v>276</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -2788,7 +2805,9 @@
         <v>8</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="15" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -2814,7 +2833,9 @@
         <v>322</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -2840,7 +2861,9 @@
         <v>22</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
@@ -2856,7 +2879,9 @@
         <v>21</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
@@ -2870,7 +2895,9 @@
         <v>14</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -2884,7 +2911,9 @@
         <v>20</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
@@ -2898,7 +2927,9 @@
         <v>16</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
@@ -2914,7 +2945,9 @@
         <v>19</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -2930,7 +2963,9 @@
         <v>27</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
@@ -2946,7 +2981,9 @@
         <v>26</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
@@ -2960,7 +2997,9 @@
         <v>43</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
@@ -2974,7 +3013,9 @@
         <v>50</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
@@ -2988,7 +3029,9 @@
         <v>51</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
@@ -3002,7 +3045,9 @@
         <v>53</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
@@ -3016,7 +3061,9 @@
         <v>76</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
@@ -3030,7 +3077,9 @@
         <v>77</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="32" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B32" s="15">
@@ -3046,7 +3095,9 @@
         <v>18</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
@@ -3072,7 +3123,9 @@
         <v>36</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
@@ -3088,7 +3141,9 @@
         <v>31</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="36" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
@@ -3104,7 +3159,9 @@
         <v>21</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="37" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
@@ -3118,7 +3175,9 @@
         <v>14</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="38" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
@@ -3132,7 +3191,9 @@
         <v>38</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
+      <c r="G38" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="39" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
@@ -3148,7 +3209,9 @@
         <v>34</v>
       </c>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="40" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
@@ -3162,7 +3225,9 @@
         <v>40</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="41" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
@@ -3176,7 +3241,9 @@
         <v>43</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="42" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
@@ -3190,7 +3257,9 @@
         <v>46</v>
       </c>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="43" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B43" s="15">
@@ -3204,7 +3273,9 @@
         <v>47</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="44" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
@@ -3218,7 +3289,9 @@
         <v>54</v>
       </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="45" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
@@ -3232,7 +3305,9 @@
         <v>55</v>
       </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="46" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
@@ -3248,7 +3323,9 @@
         <v>18</v>
       </c>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="47" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
@@ -3277,7 +3354,9 @@
       <c r="F48" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="49" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
@@ -3294,7 +3373,9 @@
       <c r="F49" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="50" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
@@ -3311,7 +3392,9 @@
       <c r="F50" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="51" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
@@ -3328,7 +3411,9 @@
       <c r="F51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="52" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
@@ -3345,7 +3430,9 @@
       <c r="F52" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="53" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
@@ -3362,7 +3449,9 @@
       <c r="F53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="54" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
@@ -3389,7 +3478,9 @@
         <v>73</v>
       </c>
       <c r="F55" s="13"/>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="56" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
@@ -3406,7 +3497,9 @@
         <v>79</v>
       </c>
       <c r="F56" s="13"/>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
@@ -3423,7 +3516,9 @@
         <v>81</v>
       </c>
       <c r="F57" s="13"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
@@ -3440,7 +3535,9 @@
         <v>83</v>
       </c>
       <c r="F58" s="13"/>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
@@ -3457,7 +3554,9 @@
         <v>86</v>
       </c>
       <c r="F59" s="13"/>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="60" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
@@ -3472,7 +3571,9 @@
         <v>87</v>
       </c>
       <c r="F60" s="13"/>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="61" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
@@ -3489,7 +3590,9 @@
       <c r="F61" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="62" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
@@ -3504,7 +3607,9 @@
         <v>98</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="63" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
@@ -3519,7 +3624,9 @@
         <v>62</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="64" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
@@ -3536,7 +3643,9 @@
       <c r="F64" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="65" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
@@ -3551,7 +3660,9 @@
         <v>96</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="66" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
@@ -3566,7 +3677,9 @@
         <v>62</v>
       </c>
       <c r="F66" s="13"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="67" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
@@ -3581,7 +3694,9 @@
         <v>93</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="68" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
@@ -3596,7 +3711,9 @@
         <v>101</v>
       </c>
       <c r="F68" s="13"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="69" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
@@ -3611,7 +3728,9 @@
         <v>103</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="70" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
@@ -3626,7 +3745,9 @@
         <v>128</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="71" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
@@ -3666,7 +3787,9 @@
         <v>73</v>
       </c>
       <c r="F73" s="13"/>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="74" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="str">
@@ -3683,7 +3806,9 @@
         <v>79</v>
       </c>
       <c r="F74" s="13"/>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="75" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="str">
@@ -3700,7 +3825,9 @@
         <v>81</v>
       </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="76" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="str">
@@ -3717,7 +3844,9 @@
         <v>104</v>
       </c>
       <c r="F76" s="13"/>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="77" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="str">
@@ -3732,7 +3861,9 @@
         <v>106</v>
       </c>
       <c r="F77" s="13"/>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="78" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="str">
@@ -3747,7 +3878,9 @@
         <v>116</v>
       </c>
       <c r="F78" s="13"/>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="79" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="str">
@@ -3792,7 +3925,9 @@
         <v>112</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="82" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
@@ -3807,7 +3942,9 @@
         <v>114</v>
       </c>
       <c r="F82" s="13"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="83" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="str">
@@ -3822,7 +3959,9 @@
         <v>118</v>
       </c>
       <c r="F83" s="13"/>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="84" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="str">
@@ -3837,7 +3976,9 @@
         <v>114</v>
       </c>
       <c r="F84" s="13"/>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="85" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="str">
@@ -3852,7 +3993,9 @@
         <v>121</v>
       </c>
       <c r="F85" s="13"/>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="86" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="str">
@@ -3867,7 +4010,9 @@
         <v>121</v>
       </c>
       <c r="F86" s="13"/>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="87" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="str">
@@ -3882,7 +4027,9 @@
         <v>123</v>
       </c>
       <c r="F87" s="13"/>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="88" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="str">
@@ -3927,7 +4074,9 @@
         <v>131</v>
       </c>
       <c r="F90" s="13"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="91" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="str">
@@ -3942,7 +4091,9 @@
         <v>133</v>
       </c>
       <c r="F91" s="13"/>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="92" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="str">
@@ -3957,7 +4108,9 @@
         <v>134</v>
       </c>
       <c r="F92" s="13"/>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="93" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="str">
@@ -3972,7 +4125,9 @@
         <v>40</v>
       </c>
       <c r="F93" s="13"/>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="94" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="str">
@@ -3987,7 +4142,9 @@
         <v>40</v>
       </c>
       <c r="F94" s="13"/>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="95" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="str">
@@ -4002,7 +4159,9 @@
         <v>137</v>
       </c>
       <c r="F95" s="13"/>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="96" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="str">
@@ -4017,7 +4176,9 @@
         <v>140</v>
       </c>
       <c r="F96" s="13"/>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="97" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="str">
@@ -4032,7 +4193,9 @@
         <v>123</v>
       </c>
       <c r="F97" s="13"/>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="98" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="str">
@@ -4068,7 +4231,7 @@
         <f>B99 + 0.1</f>
         <v>8.1</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="51" t="s">
         <v>324</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -4078,14 +4241,16 @@
         <v>325</v>
       </c>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="101" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <f t="shared" ref="B101:B108" si="3">B100 + 0.1</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C101" s="47"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="17" t="s">
         <v>332</v>
       </c>
@@ -4093,7 +4258,9 @@
         <v>331</v>
       </c>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="102" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
@@ -4108,7 +4275,9 @@
         <v>327</v>
       </c>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="103" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
@@ -4125,14 +4294,16 @@
         <v>329</v>
       </c>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="104" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <f t="shared" si="3"/>
         <v>8.4999999999999982</v>
       </c>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="46" t="s">
         <v>564</v>
       </c>
       <c r="D104" s="4" t="s">
@@ -4142,7 +4313,9 @@
         <v>563</v>
       </c>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="105" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
@@ -4157,7 +4330,9 @@
         <v>334</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="106" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
@@ -4174,7 +4349,9 @@
         <v>337</v>
       </c>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="107" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
@@ -4189,7 +4366,9 @@
         <v>325</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="108" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
@@ -4233,7 +4412,9 @@
         <v>147</v>
       </c>
       <c r="F110" s="13"/>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="111" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
@@ -4250,7 +4431,9 @@
       <c r="F111" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="112" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
@@ -4267,7 +4450,9 @@
         <v>153</v>
       </c>
       <c r="F112" s="13"/>
-      <c r="G112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="113" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
@@ -4284,14 +4469,16 @@
         <v>157</v>
       </c>
       <c r="F113" s="13"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="114" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <f t="shared" si="4"/>
         <v>9.4999999999999982</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="47" t="s">
         <v>160</v>
       </c>
       <c r="D114" s="17" t="s">
@@ -4301,14 +4488,16 @@
         <v>208</v>
       </c>
       <c r="F114" s="13"/>
-      <c r="G114" s="48"/>
+      <c r="G114" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="115" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <f t="shared" si="4"/>
         <v>9.5999999999999979</v>
       </c>
-      <c r="C115" s="55"/>
+      <c r="C115" s="48"/>
       <c r="D115" s="17" t="s">
         <v>162</v>
       </c>
@@ -4316,14 +4505,14 @@
         <v>208</v>
       </c>
       <c r="F115" s="13"/>
-      <c r="G115" s="49"/>
+      <c r="G115" s="52"/>
     </row>
     <row r="116" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <f t="shared" si="4"/>
         <v>9.6999999999999975</v>
       </c>
-      <c r="C116" s="56"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="17" t="s">
         <v>163</v>
       </c>
@@ -4331,14 +4520,14 @@
         <v>209</v>
       </c>
       <c r="F116" s="13"/>
-      <c r="G116" s="50"/>
+      <c r="G116" s="53"/>
     </row>
     <row r="117" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <f t="shared" si="4"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="C117" s="64" t="s">
+      <c r="C117" s="50" t="s">
         <v>159</v>
       </c>
       <c r="D117" s="17" t="s">
@@ -4348,14 +4537,16 @@
         <v>202</v>
       </c>
       <c r="F117" s="13"/>
-      <c r="G117" s="48"/>
+      <c r="G117" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="118" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <f t="shared" si="4"/>
         <v>9.8999999999999968</v>
       </c>
-      <c r="C118" s="64"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="17" t="s">
         <v>165</v>
       </c>
@@ -4363,14 +4554,14 @@
         <v>203</v>
       </c>
       <c r="F118" s="13"/>
-      <c r="G118" s="49"/>
+      <c r="G118" s="52"/>
     </row>
     <row r="119" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B119" s="15">
         <f>B110</f>
         <v>9.1</v>
       </c>
-      <c r="C119" s="64"/>
+      <c r="C119" s="50"/>
       <c r="D119" s="17" t="s">
         <v>166</v>
       </c>
@@ -4378,14 +4569,14 @@
         <v>204</v>
       </c>
       <c r="F119" s="13"/>
-      <c r="G119" s="49"/>
+      <c r="G119" s="52"/>
     </row>
     <row r="120" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B120" s="15">
         <f>B119+0.01</f>
         <v>9.11</v>
       </c>
-      <c r="C120" s="64"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="17" t="s">
         <v>168</v>
       </c>
@@ -4393,14 +4584,14 @@
         <v>205</v>
       </c>
       <c r="F120" s="13"/>
-      <c r="G120" s="50"/>
+      <c r="G120" s="53"/>
     </row>
     <row r="121" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B121" s="15">
         <f t="shared" ref="B121:B123" si="5">B120+0.01</f>
         <v>9.1199999999999992</v>
       </c>
-      <c r="C121" s="46" t="s">
+      <c r="C121" s="51" t="s">
         <v>158</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -4410,14 +4601,16 @@
         <v>206</v>
       </c>
       <c r="F121" s="13"/>
-      <c r="G121" s="48"/>
+      <c r="G121" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="122" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B122" s="15">
         <f t="shared" si="5"/>
         <v>9.129999999999999</v>
       </c>
-      <c r="C122" s="60"/>
+      <c r="C122" s="52"/>
       <c r="D122" s="17" t="s">
         <v>170</v>
       </c>
@@ -4425,14 +4618,14 @@
         <v>206</v>
       </c>
       <c r="F122" s="13"/>
-      <c r="G122" s="49"/>
+      <c r="G122" s="52"/>
     </row>
     <row r="123" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B123" s="15">
         <f t="shared" si="5"/>
         <v>9.1399999999999988</v>
       </c>
-      <c r="C123" s="47"/>
+      <c r="C123" s="53"/>
       <c r="D123" s="17" t="s">
         <v>171</v>
       </c>
@@ -4440,101 +4633,105 @@
         <v>207</v>
       </c>
       <c r="F123" s="13"/>
-      <c r="G123" s="50"/>
+      <c r="G123" s="53"/>
     </row>
     <row r="124" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="61">
+      <c r="B124" s="60">
         <f>B123+0.01</f>
         <v>9.1499999999999986</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="C124" s="47" t="s">
         <v>230</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E124" s="46" t="s">
+      <c r="E124" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F124" s="51"/>
-      <c r="G124" s="48"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="125" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="62"/>
-      <c r="C125" s="55"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="48"/>
       <c r="D125" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E125" s="60"/>
-      <c r="F125" s="57"/>
-      <c r="G125" s="49"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="58"/>
+      <c r="G125" s="52"/>
     </row>
     <row r="126" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="62"/>
-      <c r="C126" s="55"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="48"/>
       <c r="D126" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E126" s="60"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="49"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="52"/>
     </row>
     <row r="127" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="63"/>
-      <c r="C127" s="56"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="49"/>
       <c r="D127" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E127" s="47"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="50"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="53"/>
     </row>
     <row r="128" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="61">
+      <c r="B128" s="60">
         <f>B124+0.01</f>
         <v>9.1599999999999984</v>
       </c>
-      <c r="C128" s="54" t="s">
+      <c r="C128" s="47" t="s">
         <v>229</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E128" s="46" t="s">
+      <c r="E128" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F128" s="51"/>
-      <c r="G128" s="48"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="129" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="62"/>
-      <c r="C129" s="55"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="48"/>
       <c r="D129" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E129" s="60"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="49"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="52"/>
     </row>
     <row r="130" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="62"/>
-      <c r="C130" s="55"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E130" s="60"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="49"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="52"/>
     </row>
     <row r="131" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="63"/>
-      <c r="C131" s="56"/>
+      <c r="B131" s="62"/>
+      <c r="C131" s="49"/>
       <c r="D131" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E131" s="47"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="50"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="53"/>
     </row>
     <row r="132" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B132" s="15">
@@ -4549,7 +4746,9 @@
         <v>249</v>
       </c>
       <c r="F132" s="13"/>
-      <c r="G132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="133" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B133" s="15">
@@ -4566,7 +4765,9 @@
         <v>8</v>
       </c>
       <c r="F133" s="13"/>
-      <c r="G133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="134" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
@@ -4593,7 +4794,9 @@
         <v>173</v>
       </c>
       <c r="F135" s="13"/>
-      <c r="G135" s="4"/>
+      <c r="G135" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="136" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
@@ -4608,7 +4811,9 @@
         <v>175</v>
       </c>
       <c r="F136" s="13"/>
-      <c r="G136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="137" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
@@ -4625,7 +4830,9 @@
         <v>210</v>
       </c>
       <c r="F137" s="13"/>
-      <c r="G137" s="4"/>
+      <c r="G137" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="138" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
@@ -4642,14 +4849,16 @@
         <v>211</v>
       </c>
       <c r="F138" s="13"/>
-      <c r="G138" s="4"/>
+      <c r="G138" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="139" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <f t="shared" si="6"/>
         <v>10.499999999999998</v>
       </c>
-      <c r="C139" s="46" t="s">
+      <c r="C139" s="51" t="s">
         <v>160</v>
       </c>
       <c r="D139" s="17" t="s">
@@ -4659,14 +4868,16 @@
         <v>208</v>
       </c>
       <c r="F139" s="13"/>
-      <c r="G139" s="48"/>
+      <c r="G139" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="140" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <f t="shared" si="6"/>
         <v>10.599999999999998</v>
       </c>
-      <c r="C140" s="60"/>
+      <c r="C140" s="52"/>
       <c r="D140" s="17" t="s">
         <v>183</v>
       </c>
@@ -4674,14 +4885,14 @@
         <v>208</v>
       </c>
       <c r="F140" s="13"/>
-      <c r="G140" s="49"/>
+      <c r="G140" s="52"/>
     </row>
     <row r="141" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <f t="shared" si="6"/>
         <v>10.699999999999998</v>
       </c>
-      <c r="C141" s="47"/>
+      <c r="C141" s="53"/>
       <c r="D141" s="17" t="s">
         <v>184</v>
       </c>
@@ -4689,14 +4900,14 @@
         <v>208</v>
       </c>
       <c r="F141" s="13"/>
-      <c r="G141" s="50"/>
+      <c r="G141" s="53"/>
     </row>
     <row r="142" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <f t="shared" si="6"/>
         <v>10.799999999999997</v>
       </c>
-      <c r="C142" s="46" t="s">
+      <c r="C142" s="51" t="s">
         <v>159</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -4706,14 +4917,16 @@
         <v>212</v>
       </c>
       <c r="F142" s="13"/>
-      <c r="G142" s="48"/>
+      <c r="G142" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="143" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <f t="shared" si="6"/>
         <v>10.899999999999997</v>
       </c>
-      <c r="C143" s="60"/>
+      <c r="C143" s="52"/>
       <c r="D143" s="17" t="s">
         <v>185</v>
       </c>
@@ -4721,14 +4934,14 @@
         <v>213</v>
       </c>
       <c r="F143" s="13"/>
-      <c r="G143" s="49"/>
+      <c r="G143" s="52"/>
     </row>
     <row r="144" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B144" s="15">
         <f>B135</f>
         <v>10.1</v>
       </c>
-      <c r="C144" s="60"/>
+      <c r="C144" s="52"/>
       <c r="D144" s="17" t="s">
         <v>166</v>
       </c>
@@ -4736,14 +4949,14 @@
         <v>204</v>
       </c>
       <c r="F144" s="13"/>
-      <c r="G144" s="49"/>
+      <c r="G144" s="52"/>
     </row>
     <row r="145" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B145" s="15">
         <f>B144+0.01</f>
         <v>10.11</v>
       </c>
-      <c r="C145" s="47"/>
+      <c r="C145" s="53"/>
       <c r="D145" s="17" t="s">
         <v>168</v>
       </c>
@@ -4751,14 +4964,14 @@
         <v>205</v>
       </c>
       <c r="F145" s="13"/>
-      <c r="G145" s="50"/>
+      <c r="G145" s="53"/>
     </row>
     <row r="146" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B146" s="15">
         <f t="shared" ref="B146:B149" si="7">B145+0.01</f>
         <v>10.119999999999999</v>
       </c>
-      <c r="C146" s="46" t="s">
+      <c r="C146" s="51" t="s">
         <v>158</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -4768,14 +4981,16 @@
         <v>206</v>
       </c>
       <c r="F146" s="13"/>
-      <c r="G146" s="48"/>
+      <c r="G146" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="147" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B147" s="15">
         <f t="shared" si="7"/>
         <v>10.129999999999999</v>
       </c>
-      <c r="C147" s="60"/>
+      <c r="C147" s="52"/>
       <c r="D147" s="17" t="s">
         <v>170</v>
       </c>
@@ -4783,14 +4998,14 @@
         <v>206</v>
       </c>
       <c r="F147" s="13"/>
-      <c r="G147" s="49"/>
+      <c r="G147" s="52"/>
     </row>
     <row r="148" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B148" s="15">
         <f t="shared" si="7"/>
         <v>10.139999999999999</v>
       </c>
-      <c r="C148" s="47"/>
+      <c r="C148" s="53"/>
       <c r="D148" s="17" t="s">
         <v>171</v>
       </c>
@@ -4798,101 +5013,105 @@
         <v>214</v>
       </c>
       <c r="F148" s="13"/>
-      <c r="G148" s="50"/>
+      <c r="G148" s="53"/>
     </row>
     <row r="149" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="61">
+      <c r="B149" s="60">
         <f t="shared" si="7"/>
         <v>10.149999999999999</v>
       </c>
-      <c r="C149" s="54" t="s">
+      <c r="C149" s="47" t="s">
         <v>230</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E149" s="46" t="s">
+      <c r="E149" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F149" s="51"/>
-      <c r="G149" s="48"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="150" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="62"/>
-      <c r="C150" s="55"/>
+      <c r="B150" s="61"/>
+      <c r="C150" s="48"/>
       <c r="D150" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E150" s="60"/>
-      <c r="F150" s="57"/>
-      <c r="G150" s="49"/>
+      <c r="E150" s="52"/>
+      <c r="F150" s="58"/>
+      <c r="G150" s="52"/>
     </row>
     <row r="151" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="62"/>
-      <c r="C151" s="55"/>
+      <c r="B151" s="61"/>
+      <c r="C151" s="48"/>
       <c r="D151" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E151" s="60"/>
-      <c r="F151" s="57"/>
-      <c r="G151" s="49"/>
+      <c r="E151" s="52"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="52"/>
     </row>
     <row r="152" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="63"/>
-      <c r="C152" s="56"/>
+      <c r="B152" s="62"/>
+      <c r="C152" s="49"/>
       <c r="D152" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E152" s="47"/>
-      <c r="F152" s="52"/>
-      <c r="G152" s="50"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="59"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="61">
+      <c r="B153" s="60">
         <f>B149+0.01</f>
         <v>10.159999999999998</v>
       </c>
-      <c r="C153" s="54" t="s">
+      <c r="C153" s="47" t="s">
         <v>229</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E153" s="46" t="s">
+      <c r="E153" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F153" s="51"/>
-      <c r="G153" s="48"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="154" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="49"/>
-      <c r="C154" s="55"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="48"/>
       <c r="D154" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E154" s="60"/>
-      <c r="F154" s="57"/>
-      <c r="G154" s="49"/>
+      <c r="E154" s="52"/>
+      <c r="F154" s="58"/>
+      <c r="G154" s="52"/>
     </row>
     <row r="155" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="49"/>
-      <c r="C155" s="55"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="48"/>
       <c r="D155" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E155" s="60"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="49"/>
+      <c r="E155" s="52"/>
+      <c r="F155" s="58"/>
+      <c r="G155" s="52"/>
     </row>
     <row r="156" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="50"/>
-      <c r="C156" s="56"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="49"/>
       <c r="D156" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E156" s="47"/>
-      <c r="F156" s="52"/>
-      <c r="G156" s="50"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="59"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B157" s="15">
@@ -4909,7 +5128,9 @@
         <v>8</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="4"/>
+      <c r="G157" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="158" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
@@ -4938,7 +5159,9 @@
       <c r="F159" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="G159" s="4"/>
+      <c r="G159" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="160" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
@@ -4957,7 +5180,9 @@
       <c r="F160" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G160" s="4"/>
+      <c r="G160" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="161" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
@@ -4976,46 +5201,50 @@
       <c r="F161" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G161" s="18"/>
+      <c r="G161" s="18" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="162" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B162" s="48">
+      <c r="B162" s="54">
         <f>B161+0.1</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="C162" s="46" t="s">
+      <c r="C162" s="51" t="s">
         <v>192</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E162" s="46" t="s">
+      <c r="E162" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F162" s="54" t="s">
+      <c r="F162" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="G162" s="48"/>
+      <c r="G162" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="163" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B163" s="49"/>
-      <c r="C163" s="60"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="52"/>
       <c r="D163" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E163" s="60"/>
-      <c r="F163" s="55"/>
-      <c r="G163" s="49"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="48"/>
+      <c r="G163" s="52"/>
     </row>
     <row r="164" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B164" s="50"/>
-      <c r="C164" s="47"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="53"/>
       <c r="D164" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E164" s="47"/>
-      <c r="F164" s="56"/>
-      <c r="G164" s="50"/>
+      <c r="E164" s="53"/>
+      <c r="F164" s="49"/>
+      <c r="G164" s="53"/>
     </row>
     <row r="165" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
@@ -5034,158 +5263,166 @@
       <c r="F165" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="G165" s="4"/>
+      <c r="G165" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="166" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
-      <c r="B166" s="48">
+      <c r="B166" s="54">
         <f>B165+0.1</f>
         <v>11.499999999999998</v>
       </c>
-      <c r="C166" s="46" t="s">
+      <c r="C166" s="51" t="s">
         <v>219</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E166" s="46" t="s">
+      <c r="E166" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F166" s="51"/>
-      <c r="G166" s="48"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="167" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="49"/>
-      <c r="C167" s="60"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="52"/>
       <c r="D167" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E167" s="60"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="49"/>
+      <c r="E167" s="52"/>
+      <c r="F167" s="58"/>
+      <c r="G167" s="52"/>
     </row>
     <row r="168" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="49"/>
-      <c r="C168" s="60"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="52"/>
       <c r="D168" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E168" s="60"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="49"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="52"/>
     </row>
     <row r="169" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B169" s="50"/>
-      <c r="C169" s="47"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="53"/>
       <c r="D169" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E169" s="47"/>
-      <c r="F169" s="52"/>
-      <c r="G169" s="50"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="53"/>
     </row>
     <row r="170" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="48">
+      <c r="B170" s="54">
         <f>B166+0.1</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="C170" s="46" t="s">
+      <c r="C170" s="51" t="s">
         <v>231</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E170" s="54" t="s">
+      <c r="E170" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="F170" s="51"/>
-      <c r="G170" s="48"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="171" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="49"/>
-      <c r="C171" s="60"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="52"/>
       <c r="D171" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E171" s="55"/>
-      <c r="F171" s="57"/>
-      <c r="G171" s="49"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="52"/>
     </row>
     <row r="172" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="49"/>
-      <c r="C172" s="60"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="52"/>
       <c r="D172" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E172" s="55"/>
-      <c r="F172" s="57"/>
-      <c r="G172" s="49"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="58"/>
+      <c r="G172" s="52"/>
     </row>
     <row r="173" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="50"/>
-      <c r="C173" s="47"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="53"/>
       <c r="D173" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E173" s="56"/>
-      <c r="F173" s="52"/>
-      <c r="G173" s="50"/>
+      <c r="E173" s="49"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="53"/>
     </row>
     <row r="174" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="48">
+      <c r="B174" s="54">
         <f>B170+0.1</f>
         <v>11.699999999999998</v>
       </c>
-      <c r="C174" s="58" t="s">
+      <c r="C174" s="63" t="s">
         <v>235</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E174" s="58" t="s">
+      <c r="E174" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="F174" s="59"/>
-      <c r="G174" s="53"/>
+      <c r="F174" s="64"/>
+      <c r="G174" s="50" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="175" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="49"/>
-      <c r="C175" s="58"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="63"/>
       <c r="D175" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E175" s="58"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="53"/>
+      <c r="E175" s="63"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="50"/>
     </row>
     <row r="176" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B176" s="49"/>
-      <c r="C176" s="58"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="63"/>
       <c r="D176" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E176" s="58"/>
-      <c r="F176" s="59"/>
-      <c r="G176" s="53"/>
+      <c r="E176" s="63"/>
+      <c r="F176" s="64"/>
+      <c r="G176" s="50"/>
     </row>
     <row r="177" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="49"/>
-      <c r="C177" s="58"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="63"/>
       <c r="D177" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E177" s="58"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="53"/>
+      <c r="E177" s="63"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="50"/>
     </row>
     <row r="178" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="50"/>
-      <c r="C178" s="58"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="63"/>
       <c r="D178" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E178" s="58"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="53"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="64"/>
+      <c r="G178" s="50"/>
     </row>
     <row r="179" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
@@ -5200,14 +5437,16 @@
         <v>239</v>
       </c>
       <c r="F179" s="13"/>
-      <c r="G179" s="4"/>
+      <c r="G179" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="180" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <f>B179+0.1</f>
         <v>11.899999999999997</v>
       </c>
-      <c r="C180" s="46" t="s">
+      <c r="C180" s="51" t="s">
         <v>178</v>
       </c>
       <c r="D180" s="17" t="s">
@@ -5217,14 +5456,16 @@
         <v>180</v>
       </c>
       <c r="F180" s="13"/>
-      <c r="G180" s="4"/>
+      <c r="G180" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="181" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B181" s="15">
         <f>B160</f>
         <v>11.1</v>
       </c>
-      <c r="C181" s="47"/>
+      <c r="C181" s="53"/>
       <c r="D181" s="17" t="s">
         <v>181</v>
       </c>
@@ -5232,7 +5473,9 @@
         <v>182</v>
       </c>
       <c r="F181" s="13"/>
-      <c r="G181" s="4"/>
+      <c r="G181" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="182" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B182" s="15">
@@ -5247,7 +5490,9 @@
         <v>241</v>
       </c>
       <c r="F182" s="13"/>
-      <c r="G182" s="4"/>
+      <c r="G182" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="183" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B183" s="2">
@@ -5274,7 +5519,9 @@
         <v>341</v>
       </c>
       <c r="F184" s="13"/>
-      <c r="G184" s="4"/>
+      <c r="G184" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="185" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
@@ -5289,7 +5536,9 @@
         <v>343</v>
       </c>
       <c r="F185" s="13"/>
-      <c r="G185" s="4"/>
+      <c r="G185" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="186" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
@@ -5304,7 +5553,9 @@
         <v>345</v>
       </c>
       <c r="F186" s="13"/>
-      <c r="G186" s="4"/>
+      <c r="G186" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="187" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
@@ -5321,7 +5572,9 @@
         <v>348</v>
       </c>
       <c r="F187" s="13"/>
-      <c r="G187" s="4"/>
+      <c r="G187" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="188" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
@@ -5338,7 +5591,9 @@
         <v>353</v>
       </c>
       <c r="F188" s="13"/>
-      <c r="G188" s="4"/>
+      <c r="G188" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="189" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
@@ -5355,7 +5610,9 @@
         <v>354</v>
       </c>
       <c r="F189" s="13"/>
-      <c r="G189" s="4"/>
+      <c r="G189" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="190" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
@@ -5370,7 +5627,9 @@
         <v>359</v>
       </c>
       <c r="F190" s="13"/>
-      <c r="G190" s="4"/>
+      <c r="G190" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="191" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
@@ -5387,7 +5646,9 @@
         <v>276</v>
       </c>
       <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
+      <c r="G191" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="192" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
@@ -5402,7 +5663,9 @@
         <v>294</v>
       </c>
       <c r="F192" s="13"/>
-      <c r="G192" s="4"/>
+      <c r="G192" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="193" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B193" s="15">
@@ -5417,7 +5680,9 @@
         <v>260</v>
       </c>
       <c r="F193" s="13"/>
-      <c r="G193" s="4"/>
+      <c r="G193" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="194" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B194" s="15">
@@ -5434,7 +5699,9 @@
         <v>8</v>
       </c>
       <c r="F194" s="13"/>
-      <c r="G194" s="4"/>
+      <c r="G194" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="195" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B195" s="2">
@@ -5463,7 +5730,9 @@
         <v>291</v>
       </c>
       <c r="F196" s="13"/>
-      <c r="G196" s="4"/>
+      <c r="G196" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="197" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
@@ -5478,7 +5747,9 @@
         <v>294</v>
       </c>
       <c r="F197" s="13"/>
-      <c r="G197" s="4"/>
+      <c r="G197" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="198" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
@@ -5493,14 +5764,16 @@
         <v>260</v>
       </c>
       <c r="F198" s="13"/>
-      <c r="G198" s="4"/>
+      <c r="G198" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="199" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <f t="shared" si="11"/>
         <v>13.399999999999999</v>
       </c>
-      <c r="C199" s="54" t="s">
+      <c r="C199" s="47" t="s">
         <v>242</v>
       </c>
       <c r="D199" s="17" t="s">
@@ -5510,14 +5783,16 @@
         <v>297</v>
       </c>
       <c r="F199" s="13"/>
-      <c r="G199" s="4"/>
+      <c r="G199" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="200" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <f t="shared" si="11"/>
         <v>13.499999999999998</v>
       </c>
-      <c r="C200" s="55"/>
+      <c r="C200" s="48"/>
       <c r="D200" s="17" t="s">
         <v>298</v>
       </c>
@@ -5527,14 +5802,16 @@
       <c r="F200" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G200" s="4"/>
+      <c r="G200" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="201" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <f t="shared" si="11"/>
         <v>13.599999999999998</v>
       </c>
-      <c r="C201" s="56"/>
+      <c r="C201" s="49"/>
       <c r="D201" s="17" t="s">
         <v>301</v>
       </c>
@@ -5542,7 +5819,9 @@
         <v>300</v>
       </c>
       <c r="F201" s="13"/>
-      <c r="G201" s="4"/>
+      <c r="G201" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="202" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
@@ -5559,7 +5838,9 @@
         <v>307</v>
       </c>
       <c r="F202" s="13"/>
-      <c r="G202" s="4"/>
+      <c r="G202" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="203" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
@@ -5576,7 +5857,9 @@
         <v>304</v>
       </c>
       <c r="F203" s="13"/>
-      <c r="G203" s="4"/>
+      <c r="G203" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="204" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
@@ -5593,7 +5876,9 @@
         <v>309</v>
       </c>
       <c r="F204" s="13"/>
-      <c r="G204" s="4"/>
+      <c r="G204" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="205" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B205" s="15">
@@ -5610,7 +5895,9 @@
         <v>307</v>
       </c>
       <c r="F205" s="13"/>
-      <c r="G205" s="4"/>
+      <c r="G205" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="206" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B206" s="15">
@@ -5625,7 +5912,9 @@
         <v>279</v>
       </c>
       <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
+      <c r="G206" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="207" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B207" s="15">
@@ -5642,7 +5931,9 @@
         <v>271</v>
       </c>
       <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
+      <c r="G207" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="208" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B208" s="15">
@@ -5659,7 +5950,9 @@
         <v>281</v>
       </c>
       <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
+      <c r="G208" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="209" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B209" s="15">
@@ -5676,7 +5969,9 @@
         <v>276</v>
       </c>
       <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
+      <c r="G209" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="210" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B210" s="15">
@@ -5693,7 +5988,9 @@
         <v>8</v>
       </c>
       <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
+      <c r="G210" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="211" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B211" s="2">
@@ -5712,7 +6009,7 @@
         <f>B211+0.1</f>
         <v>14.1</v>
       </c>
-      <c r="C212" s="46" t="s">
+      <c r="C212" s="51" t="s">
         <v>242</v>
       </c>
       <c r="D212" s="17" t="s">
@@ -5722,14 +6019,16 @@
         <v>250</v>
       </c>
       <c r="F212" s="13"/>
-      <c r="G212" s="48"/>
+      <c r="G212" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="213" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <f t="shared" ref="B213:B220" si="13">B212+0.1</f>
         <v>14.2</v>
       </c>
-      <c r="C213" s="60"/>
+      <c r="C213" s="52"/>
       <c r="D213" s="24" t="s">
         <v>245</v>
       </c>
@@ -5737,14 +6036,14 @@
         <v>251</v>
       </c>
       <c r="F213" s="13"/>
-      <c r="G213" s="49"/>
+      <c r="G213" s="52"/>
     </row>
     <row r="214" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <f t="shared" si="13"/>
         <v>14.299999999999999</v>
       </c>
-      <c r="C214" s="60"/>
+      <c r="C214" s="52"/>
       <c r="D214" s="17" t="s">
         <v>244</v>
       </c>
@@ -5754,14 +6053,14 @@
       <c r="F214" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="G214" s="49"/>
+      <c r="G214" s="52"/>
     </row>
     <row r="215" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <f t="shared" si="13"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="C215" s="60"/>
+      <c r="C215" s="52"/>
       <c r="D215" s="17" t="s">
         <v>246</v>
       </c>
@@ -5769,14 +6068,14 @@
         <v>252</v>
       </c>
       <c r="F215" s="13"/>
-      <c r="G215" s="49"/>
+      <c r="G215" s="52"/>
     </row>
     <row r="216" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <f t="shared" si="13"/>
         <v>14.499999999999998</v>
       </c>
-      <c r="C216" s="47"/>
+      <c r="C216" s="53"/>
       <c r="D216" s="17" t="s">
         <v>247</v>
       </c>
@@ -5784,35 +6083,37 @@
         <v>252</v>
       </c>
       <c r="F216" s="13"/>
-      <c r="G216" s="50"/>
+      <c r="G216" s="53"/>
     </row>
     <row r="217" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <f t="shared" si="13"/>
         <v>14.599999999999998</v>
       </c>
-      <c r="C217" s="46" t="s">
+      <c r="C217" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D217" s="51"/>
+      <c r="D217" s="57"/>
       <c r="E217" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F217" s="51"/>
-      <c r="G217" s="48"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="218" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <f t="shared" si="13"/>
         <v>14.699999999999998</v>
       </c>
-      <c r="C218" s="47"/>
-      <c r="D218" s="52"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="59"/>
       <c r="E218" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F218" s="52"/>
-      <c r="G218" s="50"/>
+      <c r="F218" s="59"/>
+      <c r="G218" s="53"/>
     </row>
     <row r="219" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
@@ -5827,7 +6128,9 @@
         <v>258</v>
       </c>
       <c r="F219" s="13"/>
-      <c r="G219" s="4"/>
+      <c r="G219" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="220" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
@@ -5842,7 +6145,7 @@
         <v>260</v>
       </c>
       <c r="F220" s="13"/>
-      <c r="G220" s="4"/>
+      <c r="G220" s="53"/>
     </row>
     <row r="221" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B221" s="15">
@@ -5857,7 +6160,9 @@
         <v>261</v>
       </c>
       <c r="F221" s="13"/>
-      <c r="G221" s="4"/>
+      <c r="G221" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="222" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B222" s="15">
@@ -5872,7 +6177,7 @@
         <v>263</v>
       </c>
       <c r="F222" s="13"/>
-      <c r="G222" s="4"/>
+      <c r="G222" s="53"/>
     </row>
     <row r="223" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B223" s="15">
@@ -5887,7 +6192,9 @@
         <v>266</v>
       </c>
       <c r="F223" s="13"/>
-      <c r="G223" s="4"/>
+      <c r="G223" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="224" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B224" s="15">
@@ -5902,7 +6209,7 @@
         <v>267</v>
       </c>
       <c r="F224" s="13"/>
-      <c r="G224" s="4"/>
+      <c r="G224" s="53"/>
     </row>
     <row r="225" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B225" s="15">
@@ -5919,7 +6226,9 @@
         <v>8</v>
       </c>
       <c r="F225" s="13"/>
-      <c r="G225" s="4"/>
+      <c r="G225" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="226" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B226" s="2">
@@ -5946,7 +6255,9 @@
         <v>365</v>
       </c>
       <c r="F227" s="13"/>
-      <c r="G227" s="4"/>
+      <c r="G227" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="228" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
@@ -5961,7 +6272,9 @@
         <v>364</v>
       </c>
       <c r="F228" s="13"/>
-      <c r="G228" s="4"/>
+      <c r="G228" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="229" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
@@ -5976,7 +6289,9 @@
         <v>363</v>
       </c>
       <c r="F229" s="13"/>
-      <c r="G229" s="4"/>
+      <c r="G229" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="230" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
@@ -5991,7 +6306,9 @@
         <v>368</v>
       </c>
       <c r="F230" s="13"/>
-      <c r="G230" s="4"/>
+      <c r="G230" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="231" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B231" s="2">
@@ -6033,7 +6350,9 @@
         <v>366</v>
       </c>
       <c r="F233" s="13"/>
-      <c r="G233" s="4"/>
+      <c r="G233" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="234" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="str">
@@ -6050,7 +6369,9 @@
         <v>363</v>
       </c>
       <c r="F234" s="13"/>
-      <c r="G234" s="4"/>
+      <c r="G234" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="235" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B235" s="25">
@@ -6080,7 +6401,9 @@
         <v>373</v>
       </c>
       <c r="F236" s="13"/>
-      <c r="G236" s="4"/>
+      <c r="G236" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="237" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="str">
@@ -6097,7 +6420,9 @@
         <v>363</v>
       </c>
       <c r="F237" s="13"/>
-      <c r="G237" s="4"/>
+      <c r="G237" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="238" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B238" s="2">
@@ -6124,7 +6449,9 @@
         <v>379</v>
       </c>
       <c r="F239" s="13"/>
-      <c r="G239" s="4"/>
+      <c r="G239" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="240" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B240" s="3">
@@ -6139,7 +6466,9 @@
         <v>377</v>
       </c>
       <c r="F240" s="13"/>
-      <c r="G240" s="4"/>
+      <c r="G240" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="241" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B241" s="2">
@@ -6166,7 +6495,9 @@
         <v>383</v>
       </c>
       <c r="F242" s="13"/>
-      <c r="G242" s="4"/>
+      <c r="G242" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="243" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
@@ -6181,7 +6512,9 @@
         <v>382</v>
       </c>
       <c r="F243" s="13"/>
-      <c r="G243" s="4"/>
+      <c r="G243" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="244" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B244" s="2">
@@ -6208,7 +6541,9 @@
         <v>384</v>
       </c>
       <c r="F245" s="13"/>
-      <c r="G245" s="4"/>
+      <c r="G245" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="246" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
@@ -6223,7 +6558,9 @@
         <v>393</v>
       </c>
       <c r="F246" s="13"/>
-      <c r="G246" s="4"/>
+      <c r="G246" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="247" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
@@ -6238,7 +6575,9 @@
         <v>386</v>
       </c>
       <c r="F247" s="13"/>
-      <c r="G247" s="4"/>
+      <c r="G247" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="248" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B248" s="3">
@@ -6253,7 +6592,9 @@
         <v>387</v>
       </c>
       <c r="F248" s="13"/>
-      <c r="G248" s="4"/>
+      <c r="G248" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="249" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
@@ -6268,7 +6609,9 @@
         <v>389</v>
       </c>
       <c r="F249" s="13"/>
-      <c r="G249" s="4"/>
+      <c r="G249" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="250" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
@@ -6283,7 +6626,9 @@
         <v>391</v>
       </c>
       <c r="F250" s="13"/>
-      <c r="G250" s="4"/>
+      <c r="G250" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="251" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
@@ -6300,7 +6645,9 @@
         <v>8</v>
       </c>
       <c r="F251" s="13"/>
-      <c r="G251" s="4"/>
+      <c r="G251" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="252" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B252" s="2">
@@ -6327,7 +6674,9 @@
         <v>397</v>
       </c>
       <c r="F253" s="13"/>
-      <c r="G253" s="4"/>
+      <c r="G253" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="254" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B254" s="3">
@@ -6342,7 +6691,9 @@
         <v>399</v>
       </c>
       <c r="F254" s="13"/>
-      <c r="G254" s="4"/>
+      <c r="G254" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="255" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B255" s="3">
@@ -6357,7 +6708,9 @@
         <v>401</v>
       </c>
       <c r="F255" s="13"/>
-      <c r="G255" s="4"/>
+      <c r="G255" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="256" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B256" s="3">
@@ -6372,7 +6725,9 @@
         <v>403</v>
       </c>
       <c r="F256" s="13"/>
-      <c r="G256" s="4"/>
+      <c r="G256" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="257" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B257" s="3">
@@ -6389,7 +6744,9 @@
         <v>8</v>
       </c>
       <c r="F257" s="13"/>
-      <c r="G257" s="4"/>
+      <c r="G257" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="258" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B258" s="2">
@@ -6416,7 +6773,9 @@
         <v>406</v>
       </c>
       <c r="F259" s="13"/>
-      <c r="G259" s="4"/>
+      <c r="G259" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="260" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B260" s="3">
@@ -6431,7 +6790,9 @@
         <v>408</v>
       </c>
       <c r="F260" s="13"/>
-      <c r="G260" s="4"/>
+      <c r="G260" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="261" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B261" s="3">
@@ -6446,7 +6807,9 @@
         <v>410</v>
       </c>
       <c r="F261" s="13"/>
-      <c r="G261" s="4"/>
+      <c r="G261" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="262" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B262" s="3">
@@ -6463,7 +6826,9 @@
       <c r="F262" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G262" s="4"/>
+      <c r="G262" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="263" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
@@ -6482,7 +6847,9 @@
       <c r="F263" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G263" s="4"/>
+      <c r="G263" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="264" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B264" s="3">
@@ -6499,7 +6866,9 @@
       <c r="F264" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G264" s="4"/>
+      <c r="G264" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="265" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
@@ -6516,7 +6885,9 @@
       <c r="F265" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G265" s="4"/>
+      <c r="G265" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="266" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B266" s="3">
@@ -6533,7 +6904,9 @@
       <c r="F266" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G266" s="4"/>
+      <c r="G266" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="267" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
@@ -6550,7 +6923,9 @@
       <c r="F267" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G267" s="4"/>
+      <c r="G267" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="268" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B268" s="15">
@@ -6567,7 +6942,9 @@
       <c r="F268" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G268" s="4"/>
+      <c r="G268" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="269" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B269" s="15">
@@ -6584,7 +6961,9 @@
       <c r="F269" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="G269" s="4"/>
+      <c r="G269" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="270" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B270" s="15">
@@ -6601,7 +6980,9 @@
         <v>8</v>
       </c>
       <c r="F270" s="13"/>
-      <c r="G270" s="4"/>
+      <c r="G270" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="271" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B271" s="2">
@@ -6628,7 +7009,9 @@
         <v>433</v>
       </c>
       <c r="F272" s="13"/>
-      <c r="G272" s="4"/>
+      <c r="G272" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="273" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B273" s="3">
@@ -6643,7 +7026,9 @@
         <v>435</v>
       </c>
       <c r="F273" s="13"/>
-      <c r="G273" s="4"/>
+      <c r="G273" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="274" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B274" s="3">
@@ -6658,7 +7043,9 @@
         <v>134</v>
       </c>
       <c r="F274" s="13"/>
-      <c r="G274" s="4"/>
+      <c r="G274" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="275" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B275" s="3">
@@ -6673,7 +7060,9 @@
         <v>430</v>
       </c>
       <c r="F275" s="13"/>
-      <c r="G275" s="4"/>
+      <c r="G275" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="276" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
@@ -6688,7 +7077,9 @@
         <v>430</v>
       </c>
       <c r="F276" s="13"/>
-      <c r="G276" s="4"/>
+      <c r="G276" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="277" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
@@ -6703,7 +7094,9 @@
         <v>431</v>
       </c>
       <c r="F277" s="13"/>
-      <c r="G277" s="4"/>
+      <c r="G277" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="278" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
@@ -6718,7 +7111,9 @@
         <v>438</v>
       </c>
       <c r="F278" s="13"/>
-      <c r="G278" s="4"/>
+      <c r="G278" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="279" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
@@ -6733,7 +7128,9 @@
         <v>440</v>
       </c>
       <c r="F279" s="13"/>
-      <c r="G279" s="4"/>
+      <c r="G279" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="280" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B280" s="3">
@@ -6748,7 +7145,9 @@
         <v>442</v>
       </c>
       <c r="F280" s="13"/>
-      <c r="G280" s="4"/>
+      <c r="G280" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="281" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B281" s="15">
@@ -6765,7 +7164,9 @@
         <v>8</v>
       </c>
       <c r="F281" s="13"/>
-      <c r="G281" s="4"/>
+      <c r="G281" s="4" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="282" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B282" s="31">
@@ -7832,29 +8233,33 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="G142:G145"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="G166:G169"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="G139:G141"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="E149:E152"/>
+  <mergeCells count="64">
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="G221:G222"/>
+    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="G212:G216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="D217:D218"/>
+    <mergeCell ref="G217:G218"/>
+    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G174:G178"/>
+    <mergeCell ref="E170:E173"/>
+    <mergeCell ref="F170:F173"/>
+    <mergeCell ref="G170:G173"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="F174:F178"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="C199:C201"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="C170:C173"/>
     <mergeCell ref="G114:G116"/>
     <mergeCell ref="B128:B131"/>
     <mergeCell ref="B124:B127"/>
@@ -7871,29 +8276,28 @@
     <mergeCell ref="G128:G131"/>
     <mergeCell ref="G121:G123"/>
     <mergeCell ref="G117:G120"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="F217:F218"/>
-    <mergeCell ref="G174:G178"/>
-    <mergeCell ref="E170:E173"/>
-    <mergeCell ref="F170:F173"/>
-    <mergeCell ref="G170:G173"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="F174:F178"/>
-    <mergeCell ref="E124:E127"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="G139:G141"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="G166:G169"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C142:C145"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/BaoCaoDot3+4/Testcase.xlsx
+++ b/documents/BaoCaoDot3+4/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\BaoCaoDot3+4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F773AC-9276-44DB-997C-6C0E50E49073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB21E7-64CE-4288-B109-87E37E9FAF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TestCase" sheetId="17" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCase!$A$1:$H$229</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCase!$A$1:$H$230</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="567">
   <si>
     <t>TÌNH TRẠNG</t>
   </si>
@@ -1806,6 +1806,12 @@
   </si>
   <si>
     <t>Bấm vào nút Register Now khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>Huỷ bỏ thanh toán tại VNPAY</t>
+  </si>
+  <si>
+    <t>Thông báo huỷ thanh toán và tự động huỷ hoá đơn và điều hướng đến trang trước đó</t>
   </si>
 </sst>
 </file>
@@ -1982,7 +1988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2100,6 +2106,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,14 +2139,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2128,24 +2155,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2566,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G348"/>
+  <dimension ref="B1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="H272" sqref="H272"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4478,7 +4487,7 @@
         <f t="shared" si="4"/>
         <v>9.4999999999999982</v>
       </c>
-      <c r="C114" s="47" t="s">
+      <c r="C114" s="54" t="s">
         <v>160</v>
       </c>
       <c r="D114" s="17" t="s">
@@ -4497,7 +4506,7 @@
         <f t="shared" si="4"/>
         <v>9.5999999999999979</v>
       </c>
-      <c r="C115" s="48"/>
+      <c r="C115" s="55"/>
       <c r="D115" s="17" t="s">
         <v>162</v>
       </c>
@@ -4512,7 +4521,7 @@
         <f t="shared" si="4"/>
         <v>9.6999999999999975</v>
       </c>
-      <c r="C116" s="49"/>
+      <c r="C116" s="56"/>
       <c r="D116" s="17" t="s">
         <v>163</v>
       </c>
@@ -4527,7 +4536,7 @@
         <f t="shared" si="4"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="C117" s="50" t="s">
+      <c r="C117" s="57" t="s">
         <v>159</v>
       </c>
       <c r="D117" s="17" t="s">
@@ -4546,7 +4555,7 @@
         <f t="shared" si="4"/>
         <v>9.8999999999999968</v>
       </c>
-      <c r="C118" s="50"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="17" t="s">
         <v>165</v>
       </c>
@@ -4561,7 +4570,7 @@
         <f>B110</f>
         <v>9.1</v>
       </c>
-      <c r="C119" s="50"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="17" t="s">
         <v>166</v>
       </c>
@@ -4576,7 +4585,7 @@
         <f>B119+0.01</f>
         <v>9.11</v>
       </c>
-      <c r="C120" s="50"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="17" t="s">
         <v>168</v>
       </c>
@@ -4636,11 +4645,11 @@
       <c r="G123" s="53"/>
     </row>
     <row r="124" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="60">
+      <c r="B124" s="58">
         <f>B123+0.01</f>
         <v>9.1499999999999986</v>
       </c>
-      <c r="C124" s="47" t="s">
+      <c r="C124" s="54" t="s">
         <v>230</v>
       </c>
       <c r="D124" s="17" t="s">
@@ -4649,47 +4658,47 @@
       <c r="E124" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F124" s="57"/>
+      <c r="F124" s="48"/>
       <c r="G124" s="51" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="61"/>
-      <c r="C125" s="48"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="55"/>
       <c r="D125" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E125" s="52"/>
-      <c r="F125" s="58"/>
+      <c r="F125" s="49"/>
       <c r="G125" s="52"/>
     </row>
     <row r="126" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="61"/>
-      <c r="C126" s="48"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="55"/>
       <c r="D126" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E126" s="52"/>
-      <c r="F126" s="58"/>
+      <c r="F126" s="49"/>
       <c r="G126" s="52"/>
     </row>
     <row r="127" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="62"/>
-      <c r="C127" s="49"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="56"/>
       <c r="D127" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E127" s="53"/>
-      <c r="F127" s="59"/>
+      <c r="F127" s="50"/>
       <c r="G127" s="53"/>
     </row>
     <row r="128" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="60">
+      <c r="B128" s="58">
         <f>B124+0.01</f>
         <v>9.1599999999999984</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C128" s="54" t="s">
         <v>229</v>
       </c>
       <c r="D128" s="17" t="s">
@@ -4698,39 +4707,39 @@
       <c r="E128" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F128" s="57"/>
+      <c r="F128" s="48"/>
       <c r="G128" s="51" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="61"/>
-      <c r="C129" s="48"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="55"/>
       <c r="D129" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E129" s="52"/>
-      <c r="F129" s="58"/>
+      <c r="F129" s="49"/>
       <c r="G129" s="52"/>
     </row>
     <row r="130" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="61"/>
-      <c r="C130" s="48"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="55"/>
       <c r="D130" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E130" s="52"/>
-      <c r="F130" s="58"/>
+      <c r="F130" s="49"/>
       <c r="G130" s="52"/>
     </row>
     <row r="131" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="62"/>
-      <c r="C131" s="49"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="7" t="s">
         <v>228</v>
       </c>
       <c r="E131" s="53"/>
-      <c r="F131" s="59"/>
+      <c r="F131" s="50"/>
       <c r="G131" s="53"/>
     </row>
     <row r="132" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
@@ -5016,11 +5025,11 @@
       <c r="G148" s="53"/>
     </row>
     <row r="149" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="60">
+      <c r="B149" s="58">
         <f t="shared" si="7"/>
         <v>10.149999999999999</v>
       </c>
-      <c r="C149" s="47" t="s">
+      <c r="C149" s="54" t="s">
         <v>230</v>
       </c>
       <c r="D149" s="17" t="s">
@@ -5029,47 +5038,47 @@
       <c r="E149" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F149" s="57"/>
+      <c r="F149" s="48"/>
       <c r="G149" s="51" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="61"/>
-      <c r="C150" s="48"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="55"/>
       <c r="D150" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="52"/>
-      <c r="F150" s="58"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="52"/>
     </row>
     <row r="151" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="61"/>
-      <c r="C151" s="48"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="55"/>
       <c r="D151" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E151" s="52"/>
-      <c r="F151" s="58"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="52"/>
     </row>
     <row r="152" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="62"/>
-      <c r="C152" s="49"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="56"/>
       <c r="D152" s="7" t="s">
         <v>226</v>
       </c>
       <c r="E152" s="53"/>
-      <c r="F152" s="59"/>
+      <c r="F152" s="50"/>
       <c r="G152" s="53"/>
     </row>
     <row r="153" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="60">
+      <c r="B153" s="58">
         <f>B149+0.01</f>
         <v>10.159999999999998</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="54" t="s">
         <v>229</v>
       </c>
       <c r="D153" s="17" t="s">
@@ -5078,39 +5087,39 @@
       <c r="E153" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="F153" s="57"/>
+      <c r="F153" s="48"/>
       <c r="G153" s="51" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="55"/>
-      <c r="C154" s="48"/>
+      <c r="B154" s="62"/>
+      <c r="C154" s="55"/>
       <c r="D154" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E154" s="52"/>
-      <c r="F154" s="58"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="52"/>
     </row>
     <row r="155" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="55"/>
-      <c r="C155" s="48"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="55"/>
       <c r="D155" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E155" s="52"/>
-      <c r="F155" s="58"/>
+      <c r="F155" s="49"/>
       <c r="G155" s="52"/>
     </row>
     <row r="156" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="56"/>
-      <c r="C156" s="49"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="56"/>
       <c r="D156" s="7" t="s">
         <v>228</v>
       </c>
       <c r="E156" s="53"/>
-      <c r="F156" s="59"/>
+      <c r="F156" s="50"/>
       <c r="G156" s="53"/>
     </row>
     <row r="157" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
@@ -5206,7 +5215,7 @@
       </c>
     </row>
     <row r="162" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B162" s="54">
+      <c r="B162" s="61">
         <f>B161+0.1</f>
         <v>11.299999999999999</v>
       </c>
@@ -5219,7 +5228,7 @@
       <c r="E162" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F162" s="47" t="s">
+      <c r="F162" s="54" t="s">
         <v>200</v>
       </c>
       <c r="G162" s="51" t="s">
@@ -5227,23 +5236,23 @@
       </c>
     </row>
     <row r="163" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B163" s="55"/>
+      <c r="B163" s="62"/>
       <c r="C163" s="52"/>
       <c r="D163" s="7" t="s">
         <v>196</v>
       </c>
       <c r="E163" s="52"/>
-      <c r="F163" s="48"/>
+      <c r="F163" s="55"/>
       <c r="G163" s="52"/>
     </row>
     <row r="164" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B164" s="56"/>
+      <c r="B164" s="63"/>
       <c r="C164" s="53"/>
       <c r="D164" s="17" t="s">
         <v>197</v>
       </c>
       <c r="E164" s="53"/>
-      <c r="F164" s="49"/>
+      <c r="F164" s="56"/>
       <c r="G164" s="53"/>
     </row>
     <row r="165" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
@@ -5268,7 +5277,7 @@
       </c>
     </row>
     <row r="166" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
-      <c r="B166" s="54">
+      <c r="B166" s="61">
         <f>B165+0.1</f>
         <v>11.499999999999998</v>
       </c>
@@ -5281,43 +5290,43 @@
       <c r="E166" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F166" s="57"/>
+      <c r="F166" s="48"/>
       <c r="G166" s="51" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="55"/>
+      <c r="B167" s="62"/>
       <c r="C167" s="52"/>
       <c r="D167" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E167" s="52"/>
-      <c r="F167" s="58"/>
+      <c r="F167" s="49"/>
       <c r="G167" s="52"/>
     </row>
     <row r="168" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="55"/>
+      <c r="B168" s="62"/>
       <c r="C168" s="52"/>
       <c r="D168" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E168" s="52"/>
-      <c r="F168" s="58"/>
+      <c r="F168" s="49"/>
       <c r="G168" s="52"/>
     </row>
     <row r="169" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B169" s="56"/>
+      <c r="B169" s="63"/>
       <c r="C169" s="53"/>
       <c r="D169" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E169" s="53"/>
-      <c r="F169" s="59"/>
+      <c r="F169" s="50"/>
       <c r="G169" s="53"/>
     </row>
     <row r="170" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="54">
+      <c r="B170" s="61">
         <f>B166+0.1</f>
         <v>11.599999999999998</v>
       </c>
@@ -5327,102 +5336,102 @@
       <c r="D170" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E170" s="47" t="s">
+      <c r="E170" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F170" s="57"/>
+      <c r="F170" s="48"/>
       <c r="G170" s="51" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="55"/>
+      <c r="B171" s="62"/>
       <c r="C171" s="52"/>
       <c r="D171" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E171" s="48"/>
-      <c r="F171" s="58"/>
+      <c r="E171" s="55"/>
+      <c r="F171" s="49"/>
       <c r="G171" s="52"/>
     </row>
     <row r="172" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="55"/>
+      <c r="B172" s="62"/>
       <c r="C172" s="52"/>
       <c r="D172" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E172" s="48"/>
-      <c r="F172" s="58"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="49"/>
       <c r="G172" s="52"/>
     </row>
     <row r="173" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="56"/>
+      <c r="B173" s="63"/>
       <c r="C173" s="53"/>
       <c r="D173" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E173" s="49"/>
-      <c r="F173" s="59"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="50"/>
       <c r="G173" s="53"/>
     </row>
     <row r="174" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="54">
+      <c r="B174" s="61">
         <f>B170+0.1</f>
         <v>11.699999999999998</v>
       </c>
-      <c r="C174" s="63" t="s">
+      <c r="C174" s="64" t="s">
         <v>235</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E174" s="63" t="s">
+      <c r="E174" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="F174" s="64"/>
-      <c r="G174" s="50" t="s">
+      <c r="F174" s="65"/>
+      <c r="G174" s="57" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="55"/>
-      <c r="C175" s="63"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="64"/>
       <c r="D175" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E175" s="63"/>
-      <c r="F175" s="64"/>
-      <c r="G175" s="50"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="57"/>
     </row>
     <row r="176" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B176" s="55"/>
-      <c r="C176" s="63"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="64"/>
       <c r="D176" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E176" s="63"/>
-      <c r="F176" s="64"/>
-      <c r="G176" s="50"/>
+      <c r="E176" s="64"/>
+      <c r="F176" s="65"/>
+      <c r="G176" s="57"/>
     </row>
     <row r="177" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="55"/>
-      <c r="C177" s="63"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="64"/>
       <c r="D177" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E177" s="63"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="50"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="65"/>
+      <c r="G177" s="57"/>
     </row>
     <row r="178" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="56"/>
-      <c r="C178" s="63"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="64"/>
       <c r="D178" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E178" s="63"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="50"/>
+      <c r="E178" s="64"/>
+      <c r="F178" s="65"/>
+      <c r="G178" s="57"/>
     </row>
     <row r="179" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
@@ -5477,63 +5486,63 @@
         <v>448</v>
       </c>
     </row>
-    <row r="182" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B182" s="15">
         <f>B181+0.01</f>
         <v>11.11</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>240</v>
+      <c r="C182" s="47" t="s">
+        <v>565</v>
       </c>
       <c r="D182" s="17"/>
       <c r="E182" s="7" t="s">
-        <v>241</v>
+        <v>566</v>
       </c>
       <c r="F182" s="13"/>
       <c r="G182" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="183" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B183" s="2">
+    <row r="183" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B183" s="15">
+        <f>B182+0.01</f>
+        <v>11.12</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D183" s="17"/>
+      <c r="E183" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F183" s="13"/>
+      <c r="G183" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B184" s="2">
         <v>12</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
-    </row>
-    <row r="184" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B184" s="3">
-        <f>B183+0.1</f>
-        <v>12.1</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="D184" s="17"/>
-      <c r="E184" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F184" s="13"/>
-      <c r="G184" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
     </row>
     <row r="185" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
-        <f t="shared" ref="B185:B187" si="8">B184+0.1</f>
-        <v>12.2</v>
+        <f>B184+0.1</f>
+        <v>12.1</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D185" s="17"/>
       <c r="E185" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F185" s="13"/>
       <c r="G185" s="4" t="s">
@@ -5542,15 +5551,15 @@
     </row>
     <row r="186" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
-        <f t="shared" si="8"/>
-        <v>12.299999999999999</v>
+        <f t="shared" ref="B186:B188" si="8">B185+0.1</f>
+        <v>12.2</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D186" s="17"/>
       <c r="E186" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F186" s="13"/>
       <c r="G186" s="4" t="s">
@@ -5560,35 +5569,33 @@
     <row r="187" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <f t="shared" si="8"/>
-        <v>12.399999999999999</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>347</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="D187" s="17"/>
       <c r="E187" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F187" s="13"/>
       <c r="G187" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="188" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
-        <f>B187+0.1</f>
-        <v>12.499999999999998</v>
+        <f t="shared" si="8"/>
+        <v>12.399999999999999</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="4" t="s">
@@ -5597,17 +5604,17 @@
     </row>
     <row r="189" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
-        <f t="shared" ref="B189:B191" si="9">B188+0.1</f>
-        <v>12.599999999999998</v>
+        <f>B188+0.1</f>
+        <v>12.499999999999998</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F189" s="13"/>
       <c r="G189" s="4" t="s">
@@ -5616,68 +5623,70 @@
     </row>
     <row r="190" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
+        <f t="shared" ref="B190:B192" si="9">B189+0.1</f>
+        <v>12.599999999999998</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D190" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F190" s="13"/>
+      <c r="G190" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
         <f t="shared" si="9"/>
         <v>12.699999999999998</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C191" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D190" s="17"/>
-      <c r="E190" s="7" t="s">
+      <c r="D191" s="17"/>
+      <c r="E191" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F190" s="13"/>
-      <c r="G190" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="191" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B191" s="3">
+      <c r="F191" s="13"/>
+      <c r="G191" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B192" s="3">
         <f t="shared" si="9"/>
         <v>12.799999999999997</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C192" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D192" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="E192" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B192" s="3">
-        <f t="shared" ref="B192" si="10">B191+0.1</f>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B193" s="3">
+        <f t="shared" ref="B193" si="10">B192+0.1</f>
         <v>12.899999999999997</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C193" s="13" t="s">
         <v>293</v>
-      </c>
-      <c r="D192" s="17"/>
-      <c r="E192" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F192" s="13"/>
-      <c r="G192" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B193" s="15">
-        <f>B184</f>
-        <v>12.1</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="D193" s="17"/>
       <c r="E193" s="7" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F193" s="13"/>
       <c r="G193" s="4" t="s">
@@ -5686,17 +5695,15 @@
     </row>
     <row r="194" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B194" s="15">
-        <f>B193+0.01</f>
-        <v>12.11</v>
+        <f>B185</f>
+        <v>12.1</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>356</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D194" s="17"/>
       <c r="E194" s="7" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="F194" s="13"/>
       <c r="G194" s="4" t="s">
@@ -5704,47 +5711,49 @@
       </c>
     </row>
     <row r="195" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
+      <c r="B195" s="15">
+        <f>B194+0.01</f>
+        <v>12.11</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" s="13"/>
+      <c r="G195" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B196" s="2">
         <v>13</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C196" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
-    </row>
-    <row r="196" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
-      <c r="B196" s="3">
-        <f>B195+0.1</f>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+    </row>
+    <row r="197" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
+      <c r="B197" s="3">
+        <f>B196+0.1</f>
         <v>13.1</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C197" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D197" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="E197" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F196" s="13"/>
-      <c r="G196" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B197" s="3">
-        <f t="shared" ref="B197:B204" si="11">B196+0.1</f>
-        <v>13.2</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D197" s="17"/>
-      <c r="E197" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="F197" s="13"/>
       <c r="G197" s="4" t="s">
@@ -5753,15 +5762,15 @@
     </row>
     <row r="198" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
-        <f t="shared" si="11"/>
-        <v>13.299999999999999</v>
+        <f t="shared" ref="B198:B205" si="11">B197+0.1</f>
+        <v>13.2</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D198" s="17"/>
       <c r="E198" s="7" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F198" s="13"/>
       <c r="G198" s="4" t="s">
@@ -5771,71 +5780,69 @@
     <row r="199" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <f t="shared" si="11"/>
-        <v>13.399999999999999</v>
-      </c>
-      <c r="C199" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>296</v>
-      </c>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D199" s="17"/>
       <c r="E199" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="F199" s="13"/>
       <c r="G199" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="200" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <f t="shared" si="11"/>
-        <v>13.499999999999998</v>
-      </c>
-      <c r="C200" s="48"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="C200" s="54" t="s">
+        <v>242</v>
+      </c>
       <c r="D200" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F200" s="13" t="s">
-        <v>299</v>
-      </c>
+      <c r="F200" s="13"/>
       <c r="G200" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="201" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <f t="shared" si="11"/>
-        <v>13.599999999999998</v>
-      </c>
-      <c r="C201" s="49"/>
+        <v>13.499999999999998</v>
+      </c>
+      <c r="C201" s="55"/>
       <c r="D201" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F201" s="13"/>
+        <v>297</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="G201" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="202" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <f t="shared" si="11"/>
-        <v>13.699999999999998</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>305</v>
-      </c>
+        <v>13.599999999999998</v>
+      </c>
+      <c r="C202" s="56"/>
       <c r="D202" s="17" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F202" s="13"/>
       <c r="G202" s="4" t="s">
@@ -5845,16 +5852,16 @@
     <row r="203" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <f t="shared" si="11"/>
-        <v>13.799999999999997</v>
+        <v>13.699999999999998</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F203" s="13"/>
       <c r="G203" s="4" t="s">
@@ -5864,16 +5871,16 @@
     <row r="204" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <f t="shared" si="11"/>
-        <v>13.899999999999997</v>
+        <v>13.799999999999997</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D204" s="17" t="s">
         <v>303</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F204" s="13"/>
       <c r="G204" s="4" t="s">
@@ -5881,54 +5888,54 @@
       </c>
     </row>
     <row r="205" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="15">
-        <f>B196</f>
-        <v>13.1</v>
+      <c r="B205" s="3">
+        <f t="shared" si="11"/>
+        <v>13.899999999999997</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F205" s="13"/>
       <c r="G205" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="206" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B206" s="15">
-        <f>B205+0.01</f>
+        <f>B197</f>
+        <v>13.1</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D206" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F206" s="13"/>
+      <c r="G206" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B207" s="15">
+        <f>B206+0.01</f>
         <v>13.11</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C207" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13" t="s">
+      <c r="D207" s="13"/>
+      <c r="E207" s="13" t="s">
         <v>279</v>
-      </c>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="15">
-        <f t="shared" ref="B207:B210" si="12">B206+0.01</f>
-        <v>13.12</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D207" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4" t="s">
@@ -5937,17 +5944,17 @@
     </row>
     <row r="208" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B208" s="15">
-        <f t="shared" si="12"/>
-        <v>13.129999999999999</v>
+        <f t="shared" ref="B208:B211" si="12">B207+0.01</f>
+        <v>13.12</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F208" s="4"/>
       <c r="G208" s="4" t="s">
@@ -5957,35 +5964,35 @@
     <row r="209" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B209" s="15">
         <f t="shared" si="12"/>
-        <v>13.139999999999999</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>283</v>
+        <v>13.129999999999999</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="D209" s="13" t="s">
         <v>280</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F209" s="4"/>
       <c r="G209" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="210" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B210" s="15">
         <f t="shared" si="12"/>
-        <v>13.149999999999999</v>
+        <v>13.139999999999999</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="F210" s="4"/>
       <c r="G210" s="4" t="s">
@@ -5993,380 +6000,380 @@
       </c>
     </row>
     <row r="211" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B211" s="2">
+      <c r="B211" s="15">
+        <f t="shared" si="12"/>
+        <v>13.149999999999999</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B212" s="2">
         <v>14</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C212" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-    </row>
-    <row r="212" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B212" s="3">
-        <f>B211+0.1</f>
-        <v>14.1</v>
-      </c>
-      <c r="C212" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F212" s="13"/>
-      <c r="G212" s="51" t="s">
-        <v>448</v>
-      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="16"/>
     </row>
     <row r="213" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
-        <f t="shared" ref="B213:B220" si="13">B212+0.1</f>
+        <f>B212+0.1</f>
+        <v>14.1</v>
+      </c>
+      <c r="C213" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D213" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F213" s="13"/>
+      <c r="G213" s="51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B214" s="3">
+        <f t="shared" ref="B214:B221" si="13">B213+0.1</f>
         <v>14.2</v>
       </c>
-      <c r="C213" s="52"/>
-      <c r="D213" s="24" t="s">
+      <c r="C214" s="52"/>
+      <c r="D214" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E213" s="4" t="s">
+      <c r="E214" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F213" s="13"/>
-      <c r="G213" s="52"/>
-    </row>
-    <row r="214" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="3">
+      <c r="F214" s="13"/>
+      <c r="G214" s="52"/>
+    </row>
+    <row r="215" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B215" s="3">
         <f t="shared" si="13"/>
         <v>14.299999999999999</v>
       </c>
-      <c r="C214" s="52"/>
-      <c r="D214" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F214" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G214" s="52"/>
-    </row>
-    <row r="215" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B215" s="3">
-        <f t="shared" si="13"/>
-        <v>14.399999999999999</v>
-      </c>
       <c r="C215" s="52"/>
       <c r="D215" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F215" s="13"/>
+        <v>251</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="G215" s="52"/>
     </row>
     <row r="216" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <f t="shared" si="13"/>
-        <v>14.499999999999998</v>
-      </c>
-      <c r="C216" s="53"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="C216" s="52"/>
       <c r="D216" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F216" s="13"/>
-      <c r="G216" s="53"/>
-    </row>
-    <row r="217" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="G216" s="52"/>
+    </row>
+    <row r="217" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <f t="shared" si="13"/>
-        <v>14.599999999999998</v>
-      </c>
-      <c r="C217" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="D217" s="57"/>
-      <c r="E217" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F217" s="57"/>
-      <c r="G217" s="51" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="C217" s="53"/>
+      <c r="D217" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F217" s="13"/>
+      <c r="G217" s="53"/>
+    </row>
+    <row r="218" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <f t="shared" si="13"/>
-        <v>14.699999999999998</v>
-      </c>
-      <c r="C218" s="53"/>
-      <c r="D218" s="59"/>
-      <c r="E218" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F218" s="59"/>
-      <c r="G218" s="53"/>
+        <v>14.599999999999998</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="D218" s="48"/>
+      <c r="E218" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F218" s="48"/>
+      <c r="G218" s="51" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="219" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <f t="shared" si="13"/>
-        <v>14.799999999999997</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D219" s="7"/>
+        <v>14.699999999999998</v>
+      </c>
+      <c r="C219" s="53"/>
+      <c r="D219" s="50"/>
       <c r="E219" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F219" s="13"/>
-      <c r="G219" s="51" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="220" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F219" s="50"/>
+      <c r="G219" s="53"/>
+    </row>
+    <row r="220" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <f t="shared" si="13"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F220" s="13"/>
+      <c r="G220" s="51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="3">
+        <f t="shared" si="13"/>
         <v>14.899999999999997</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C221" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="D220" s="17"/>
-      <c r="E220" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F220" s="13"/>
-      <c r="G220" s="53"/>
-    </row>
-    <row r="221" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B221" s="15">
-        <f>B212</f>
-        <v>14.1</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="D221" s="17"/>
       <c r="E221" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F221" s="13"/>
-      <c r="G221" s="51" t="s">
-        <v>448</v>
-      </c>
+      <c r="G221" s="53"/>
     </row>
     <row r="222" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B222" s="15">
-        <f>B221+0.01</f>
-        <v>14.11</v>
+        <f>B213</f>
+        <v>14.1</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D222" s="17"/>
       <c r="E222" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F222" s="13"/>
-      <c r="G222" s="53"/>
-    </row>
-    <row r="223" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="G222" s="51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B223" s="15">
-        <f t="shared" ref="B223:B225" si="14">B222+0.01</f>
-        <v>14.12</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>264</v>
+        <f>B222+0.01</f>
+        <v>14.11</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D223" s="17"/>
       <c r="E223" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F223" s="13"/>
-      <c r="G223" s="51" t="s">
-        <v>448</v>
-      </c>
+      <c r="G223" s="53"/>
     </row>
     <row r="224" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B224" s="15">
+        <f t="shared" ref="B224:B226" si="14">B223+0.01</f>
+        <v>14.12</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D224" s="17"/>
+      <c r="E224" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F224" s="13"/>
+      <c r="G224" s="51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="15">
         <f t="shared" si="14"/>
         <v>14.129999999999999</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C225" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D224" s="17"/>
-      <c r="E224" s="4" t="s">
+      <c r="D225" s="17"/>
+      <c r="E225" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F224" s="13"/>
-      <c r="G224" s="53"/>
-    </row>
-    <row r="225" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B225" s="15">
+      <c r="F225" s="13"/>
+      <c r="G225" s="53"/>
+    </row>
+    <row r="226" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B226" s="15">
         <f t="shared" si="14"/>
         <v>14.139999999999999</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C226" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="17" t="s">
+      <c r="D226" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E225" s="4" t="s">
+      <c r="E226" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F225" s="13"/>
-      <c r="G225" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="226" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B226" s="2">
+      <c r="F226" s="13"/>
+      <c r="G226" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B227" s="2">
         <v>15</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C227" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
-    </row>
-    <row r="227" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="3">
-        <f>B226+0.1</f>
-        <v>15.1</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="D227" s="17"/>
-      <c r="E227" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F227" s="13"/>
-      <c r="G227" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="16"/>
+      <c r="G227" s="16"/>
     </row>
     <row r="228" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
-        <f t="shared" ref="B228:B229" si="15">B227+0.1</f>
-        <v>15.2</v>
+        <f>B227+0.1</f>
+        <v>15.1</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D228" s="17"/>
       <c r="E228" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F228" s="13"/>
       <c r="G228" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="229" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
+        <f t="shared" ref="B229:B230" si="15">B228+0.1</f>
+        <v>15.2</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D229" s="17"/>
+      <c r="E229" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F229" s="13"/>
+      <c r="G229" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B230" s="3">
         <f t="shared" si="15"/>
         <v>15.299999999999999</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="C230" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="D229" s="17"/>
-      <c r="E229" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F229" s="13"/>
-      <c r="G229" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="230" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="3">
-        <f t="shared" ref="B230" si="16">B229+0.1</f>
-        <v>15.399999999999999</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="D230" s="17"/>
       <c r="E230" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F230" s="13"/>
       <c r="G230" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B231" s="2">
+    <row r="231" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B231" s="3">
+        <f t="shared" ref="B231" si="16">B230+0.1</f>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D231" s="17"/>
+      <c r="E231" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F231" s="13"/>
+      <c r="G231" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B232" s="2">
         <v>16</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C232" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="16"/>
-      <c r="G231" s="16"/>
-    </row>
-    <row r="232" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B232" s="25">
-        <f>B231+0.1</f>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="16"/>
+      <c r="G232" s="16"/>
+    </row>
+    <row r="233" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B233" s="25">
+        <f>B232+0.1</f>
         <v>16.100000000000001</v>
       </c>
-      <c r="C232" s="26" t="s">
+      <c r="C233" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="28"/>
-      <c r="G232" s="28"/>
-    </row>
-    <row r="233" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="3" t="str">
-        <f>$B$232&amp;".1"</f>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
+    </row>
+    <row r="234" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="3" t="str">
+        <f>$B$233&amp;".1"</f>
         <v>16.1.1</v>
       </c>
-      <c r="C233" s="13" t="s">
+      <c r="C234" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F233" s="13"/>
-      <c r="G233" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="234" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B234" s="3" t="str">
-        <f>$B$232&amp;".2"</f>
-        <v>16.1.2</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>375</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>351</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F234" s="13"/>
       <c r="G234" s="4" t="s">
@@ -6374,50 +6381,50 @@
       </c>
     </row>
     <row r="235" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B235" s="25">
-        <f>B232+0.1</f>
+      <c r="B235" s="3" t="str">
+        <f>$B$233&amp;".2"</f>
+        <v>16.1.2</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F235" s="13"/>
+      <c r="G235" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B236" s="25">
+        <f>B233+0.1</f>
         <v>16.200000000000003</v>
       </c>
-      <c r="C235" s="26" t="s">
+      <c r="C236" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="28"/>
-      <c r="G235" s="28"/>
-    </row>
-    <row r="236" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="3" t="str">
-        <f>$B$235&amp;".1"</f>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="28"/>
+      <c r="G236" s="28"/>
+    </row>
+    <row r="237" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="3" t="str">
+        <f>$B$236&amp;".1"</f>
         <v>16.2.1</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C237" s="13" t="s">
         <v>371</v>
-      </c>
-      <c r="D236" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F236" s="13"/>
-      <c r="G236" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="237" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B237" s="3" t="str">
-        <f>$B$235&amp;".2"</f>
-        <v>16.2.2</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>374</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>370</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F237" s="13"/>
       <c r="G237" s="4" t="s">
@@ -6425,45 +6432,47 @@
       </c>
     </row>
     <row r="238" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B238" s="2">
+      <c r="B238" s="3" t="str">
+        <f>$B$236&amp;".2"</f>
+        <v>16.2.2</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F238" s="13"/>
+      <c r="G238" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B239" s="2">
         <v>17</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="C239" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-    </row>
-    <row r="239" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B239" s="3">
-        <f>B238+0.1</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D239" s="17"/>
-      <c r="E239" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F239" s="13"/>
-      <c r="G239" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="16"/>
+      <c r="G239" s="16"/>
     </row>
     <row r="240" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B240" s="3">
         <f>B239+0.1</f>
-        <v>17.200000000000003</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D240" s="17"/>
       <c r="E240" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F240" s="13"/>
       <c r="G240" s="4" t="s">
@@ -6471,159 +6480,159 @@
       </c>
     </row>
     <row r="241" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B241" s="2">
+      <c r="B241" s="3">
+        <f>B240+0.1</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D241" s="17"/>
+      <c r="E241" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F241" s="13"/>
+      <c r="G241" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B242" s="2">
         <v>18</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C242" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="16"/>
-      <c r="G241" s="16"/>
-    </row>
-    <row r="242" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B242" s="3">
-        <f>B241+0.1</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D242" s="17"/>
-      <c r="E242" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F242" s="13"/>
-      <c r="G242" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="243" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="16"/>
+    </row>
+    <row r="243" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B243" s="3">
         <f>B242+0.1</f>
-        <v>18.200000000000003</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D243" s="17"/>
       <c r="E243" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F243" s="13"/>
       <c r="G243" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="244" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B244" s="2">
+    <row r="244" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B244" s="3">
+        <f>B243+0.1</f>
+        <v>18.200000000000003</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D244" s="17"/>
+      <c r="E244" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F244" s="13"/>
+      <c r="G244" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B245" s="2">
         <v>19</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C245" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="16"/>
-      <c r="G244" s="16"/>
-    </row>
-    <row r="245" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B245" s="3">
-        <f>B244+0.1</f>
-        <v>19.100000000000001</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D245" s="17"/>
-      <c r="E245" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F245" s="13"/>
-      <c r="G245" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="246" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="16"/>
+      <c r="G245" s="16"/>
+    </row>
+    <row r="246" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B246" s="3">
         <f>B245+0.1</f>
-        <v>19.200000000000003</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>392</v>
+        <v>293</v>
       </c>
       <c r="D246" s="17"/>
       <c r="E246" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F246" s="13"/>
       <c r="G246" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="247" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B247" s="3">
         <f>B246+0.1</f>
-        <v>19.300000000000004</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D247" s="17"/>
       <c r="E247" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F247" s="13"/>
       <c r="G247" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="248" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" ht="52.4" x14ac:dyDescent="0.25">
       <c r="B248" s="3">
-        <f t="shared" ref="B248" si="17">B247+0.1</f>
-        <v>19.400000000000006</v>
+        <f>B247+0.1</f>
+        <v>19.300000000000004</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="D248" s="17"/>
       <c r="E248" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F248" s="13"/>
       <c r="G248" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="249" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B249" s="3">
-        <f t="shared" ref="B249" si="18">B248+0.1</f>
-        <v>19.500000000000007</v>
+        <f t="shared" ref="B249" si="17">B248+0.1</f>
+        <v>19.400000000000006</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>388</v>
+        <v>242</v>
       </c>
       <c r="D249" s="17"/>
       <c r="E249" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F249" s="13"/>
       <c r="G249" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="250" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B250" s="3">
-        <f t="shared" ref="B250" si="19">B249+0.1</f>
-        <v>19.600000000000009</v>
+        <f t="shared" ref="B250" si="18">B249+0.1</f>
+        <v>19.500000000000007</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D250" s="17"/>
       <c r="E250" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F250" s="13"/>
       <c r="G250" s="4" t="s">
@@ -6632,17 +6641,15 @@
     </row>
     <row r="251" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B251" s="3">
-        <f t="shared" ref="B251" si="20">B250+0.1</f>
-        <v>19.70000000000001</v>
+        <f t="shared" ref="B251" si="19">B250+0.1</f>
+        <v>19.600000000000009</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" s="17" t="s">
-        <v>394</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="D251" s="17"/>
       <c r="E251" s="7" t="s">
-        <v>8</v>
+        <v>391</v>
       </c>
       <c r="F251" s="13"/>
       <c r="G251" s="4" t="s">
@@ -6650,45 +6657,47 @@
       </c>
     </row>
     <row r="252" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B252" s="2">
+      <c r="B252" s="3">
+        <f t="shared" ref="B252" si="20">B251+0.1</f>
+        <v>19.70000000000001</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="13"/>
+      <c r="G252" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B253" s="2">
         <v>20</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C253" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
-    </row>
-    <row r="253" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="3">
-        <f>B252+0.1</f>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="16"/>
+      <c r="G253" s="16"/>
+    </row>
+    <row r="254" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="3">
+        <f>B253+0.1</f>
         <v>20.100000000000001</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C254" s="13" t="s">
         <v>396</v>
-      </c>
-      <c r="D253" s="17"/>
-      <c r="E253" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F253" s="13"/>
-      <c r="G253" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="254" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B254" s="3">
-        <f t="shared" ref="B254:B256" si="21">B253+0.1</f>
-        <v>20.200000000000003</v>
-      </c>
-      <c r="C254" s="13" t="s">
-        <v>398</v>
       </c>
       <c r="D254" s="17"/>
       <c r="E254" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F254" s="13"/>
       <c r="G254" s="4" t="s">
@@ -6697,15 +6706,15 @@
     </row>
     <row r="255" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B255" s="3">
-        <f t="shared" si="21"/>
-        <v>20.300000000000004</v>
+        <f t="shared" ref="B255:B257" si="21">B254+0.1</f>
+        <v>20.200000000000003</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D255" s="17"/>
       <c r="E255" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F255" s="13"/>
       <c r="G255" s="4" t="s">
@@ -6715,14 +6724,14 @@
     <row r="256" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B256" s="3">
         <f t="shared" si="21"/>
-        <v>20.400000000000006</v>
+        <v>20.300000000000004</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D256" s="17"/>
       <c r="E256" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F256" s="13"/>
       <c r="G256" s="4" t="s">
@@ -6731,17 +6740,15 @@
     </row>
     <row r="257" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B257" s="3">
-        <f t="shared" ref="B257" si="22">B256+0.1</f>
-        <v>20.500000000000007</v>
+        <f t="shared" si="21"/>
+        <v>20.400000000000006</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D257" s="17" t="s">
-        <v>404</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="D257" s="17"/>
       <c r="E257" s="7" t="s">
-        <v>8</v>
+        <v>403</v>
       </c>
       <c r="F257" s="13"/>
       <c r="G257" s="4" t="s">
@@ -6749,62 +6756,64 @@
       </c>
     </row>
     <row r="258" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B258" s="2">
+      <c r="B258" s="3">
+        <f t="shared" ref="B258" si="22">B257+0.1</f>
+        <v>20.500000000000007</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" s="13"/>
+      <c r="G258" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B259" s="2">
         <v>21</v>
       </c>
-      <c r="C258" s="5" t="s">
+      <c r="C259" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="16"/>
-      <c r="G258" s="16"/>
-    </row>
-    <row r="259" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B259" s="3">
-        <f>B258+0.1</f>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="16"/>
+      <c r="G259" s="16"/>
+    </row>
+    <row r="260" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B260" s="3">
+        <f>B259+0.1</f>
         <v>21.1</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C260" s="13" t="s">
         <v>405</v>
-      </c>
-      <c r="D259" s="17"/>
-      <c r="E259" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F259" s="13"/>
-      <c r="G259" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="260" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="3">
-        <f t="shared" ref="B260:B263" si="23">B259+0.1</f>
-        <v>21.200000000000003</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>407</v>
       </c>
       <c r="D260" s="17"/>
       <c r="E260" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F260" s="13"/>
       <c r="G260" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="261" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B261" s="3">
-        <f t="shared" si="23"/>
-        <v>21.300000000000004</v>
+        <f t="shared" ref="B261:B264" si="23">B260+0.1</f>
+        <v>21.200000000000003</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D261" s="17"/>
       <c r="E261" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F261" s="13"/>
       <c r="G261" s="4" t="s">
@@ -6814,35 +6823,31 @@
     <row r="262" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B262" s="3">
         <f t="shared" si="23"/>
-        <v>21.400000000000006</v>
+        <v>21.300000000000004</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D262" s="17"/>
       <c r="E262" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F262" s="13" t="s">
-        <v>411</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="F262" s="13"/>
       <c r="G262" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="263" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B263" s="3">
         <f t="shared" si="23"/>
-        <v>21.500000000000007</v>
+        <v>21.400000000000006</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="D263" s="17" t="s">
-        <v>416</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="D263" s="17"/>
       <c r="E263" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F263" s="13" t="s">
         <v>411</v>
@@ -6851,17 +6856,19 @@
         <v>448</v>
       </c>
     </row>
-    <row r="264" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B264" s="3">
-        <f t="shared" ref="B264:B265" si="24">B263+0.1</f>
-        <v>21.600000000000009</v>
+        <f t="shared" si="23"/>
+        <v>21.500000000000007</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D264" s="17"/>
+        <v>414</v>
+      </c>
+      <c r="D264" s="17" t="s">
+        <v>416</v>
+      </c>
       <c r="E264" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F264" s="13" t="s">
         <v>411</v>
@@ -6872,34 +6879,34 @@
     </row>
     <row r="265" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B265" s="3">
+        <f t="shared" ref="B265:B266" si="24">B264+0.1</f>
+        <v>21.600000000000009</v>
+      </c>
+      <c r="C265" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D265" s="17"/>
+      <c r="E265" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F265" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G265" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B266" s="3">
         <f t="shared" si="24"/>
         <v>21.70000000000001</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C266" s="13" t="s">
         <v>419</v>
-      </c>
-      <c r="D265" s="17"/>
-      <c r="E265" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F265" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="G265" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="266" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B266" s="3">
-        <f t="shared" ref="B266" si="25">B265+0.1</f>
-        <v>21.800000000000011</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>421</v>
       </c>
       <c r="D266" s="17"/>
       <c r="E266" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F266" s="13" t="s">
         <v>411</v>
@@ -6910,15 +6917,15 @@
     </row>
     <row r="267" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B267" s="3">
-        <f>B266+0.1</f>
-        <v>21.900000000000013</v>
+        <f t="shared" ref="B267" si="25">B266+0.1</f>
+        <v>21.800000000000011</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>159</v>
+        <v>421</v>
       </c>
       <c r="D267" s="17"/>
       <c r="E267" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F267" s="13" t="s">
         <v>411</v>
@@ -6928,16 +6935,16 @@
       </c>
     </row>
     <row r="268" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B268" s="15">
-        <f>B259</f>
-        <v>21.1</v>
+      <c r="B268" s="3">
+        <f>B267+0.1</f>
+        <v>21.900000000000013</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="D268" s="17"/>
       <c r="E268" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F268" s="13" t="s">
         <v>411</v>
@@ -6948,15 +6955,15 @@
     </row>
     <row r="269" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B269" s="15">
-        <f>B268+0.01</f>
-        <v>21.110000000000003</v>
+        <f>B260</f>
+        <v>21.1</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D269" s="17"/>
       <c r="E269" s="7" t="s">
-        <v>167</v>
+        <v>425</v>
       </c>
       <c r="F269" s="13" t="s">
         <v>411</v>
@@ -6968,79 +6975,81 @@
     <row r="270" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B270" s="15">
         <f>B269+0.01</f>
+        <v>21.110000000000003</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D270" s="17"/>
+      <c r="E270" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G270" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B271" s="15">
+        <f>B270+0.01</f>
         <v>21.120000000000005</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C271" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="17" t="s">
+      <c r="D271" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="E271" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F270" s="13"/>
-      <c r="G270" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="271" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B271" s="2">
+      <c r="F271" s="13"/>
+      <c r="G271" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B272" s="2">
         <v>22</v>
       </c>
-      <c r="C271" s="5" t="s">
+      <c r="C272" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="16"/>
-      <c r="G271" s="16"/>
-    </row>
-    <row r="272" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="3">
-        <f>B271+0.1</f>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="16"/>
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="3">
+        <f>B272+0.1</f>
         <v>22.1</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C273" s="13" t="s">
         <v>432</v>
-      </c>
-      <c r="D272" s="17"/>
-      <c r="E272" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F272" s="13"/>
-      <c r="G272" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="273" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B273" s="3">
-        <f t="shared" ref="B273:B277" si="26">B272+0.1</f>
-        <v>22.200000000000003</v>
-      </c>
-      <c r="C273" s="13" t="s">
-        <v>434</v>
       </c>
       <c r="D273" s="17"/>
       <c r="E273" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F273" s="13"/>
       <c r="G273" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="274" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B274" s="3">
-        <f t="shared" si="26"/>
-        <v>22.300000000000004</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="D274" s="7"/>
-      <c r="E274" s="4" t="s">
-        <v>134</v>
+        <f t="shared" ref="B274:B278" si="26">B273+0.1</f>
+        <v>22.200000000000003</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D274" s="17"/>
+      <c r="E274" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="F274" s="13"/>
       <c r="G274" s="4" t="s">
@@ -7050,14 +7059,14 @@
     <row r="275" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B275" s="3">
         <f t="shared" si="26"/>
-        <v>22.400000000000006</v>
+        <v>22.300000000000004</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="D275" s="7"/>
-      <c r="E275" s="7" t="s">
-        <v>430</v>
+      <c r="E275" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="F275" s="13"/>
       <c r="G275" s="4" t="s">
@@ -7067,10 +7076,10 @@
     <row r="276" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B276" s="3">
         <f t="shared" si="26"/>
-        <v>22.500000000000007</v>
+        <v>22.400000000000006</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="D276" s="7"/>
       <c r="E276" s="7" t="s">
@@ -7081,17 +7090,17 @@
         <v>448</v>
       </c>
     </row>
-    <row r="277" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B277" s="3">
         <f t="shared" si="26"/>
-        <v>22.600000000000009</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D277" s="17"/>
+        <v>22.500000000000007</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D277" s="7"/>
       <c r="E277" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F277" s="13"/>
       <c r="G277" s="4" t="s">
@@ -7100,49 +7109,49 @@
     </row>
     <row r="278" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B278" s="3">
-        <f t="shared" ref="B278:B279" si="27">B277+0.1</f>
-        <v>22.70000000000001</v>
+        <f t="shared" si="26"/>
+        <v>22.600000000000009</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D278" s="17"/>
       <c r="E278" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F278" s="13"/>
       <c r="G278" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="279" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B279" s="3">
+        <f t="shared" ref="B279:B280" si="27">B278+0.1</f>
+        <v>22.70000000000001</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D279" s="17"/>
+      <c r="E279" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F279" s="13"/>
+      <c r="G279" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
+      <c r="B280" s="3">
         <f t="shared" si="27"/>
         <v>22.800000000000011</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C280" s="13" t="s">
         <v>439</v>
-      </c>
-      <c r="D279" s="17"/>
-      <c r="E279" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F279" s="13"/>
-      <c r="G279" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="280" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B280" s="3">
-        <f t="shared" ref="B280" si="28">B279+0.1</f>
-        <v>22.900000000000013</v>
-      </c>
-      <c r="C280" s="13" t="s">
-        <v>441</v>
       </c>
       <c r="D280" s="17"/>
       <c r="E280" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F280" s="13"/>
       <c r="G280" s="4" t="s">
@@ -7150,18 +7159,16 @@
       </c>
     </row>
     <row r="281" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B281" s="15">
-        <f>B272</f>
-        <v>22.1</v>
+      <c r="B281" s="3">
+        <f t="shared" ref="B281" si="28">B280+0.1</f>
+        <v>22.900000000000013</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D281" s="17" t="s">
-        <v>443</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="D281" s="17"/>
       <c r="E281" s="7" t="s">
-        <v>8</v>
+        <v>442</v>
       </c>
       <c r="F281" s="13"/>
       <c r="G281" s="4" t="s">
@@ -7169,47 +7176,48 @@
       </c>
     </row>
     <row r="282" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B282" s="31">
+      <c r="B282" s="15">
+        <f>B273</f>
+        <v>22.1</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282" s="13"/>
+      <c r="G282" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B283" s="31">
         <v>22</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="C283" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
-      <c r="F282" s="33"/>
-      <c r="G282" s="33"/>
-    </row>
-    <row r="283" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="34">
+      <c r="D283" s="33"/>
+      <c r="E283" s="33"/>
+      <c r="F283" s="33"/>
+      <c r="G283" s="33"/>
+    </row>
+    <row r="284" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="34">
         <v>22.1</v>
       </c>
-      <c r="C283" s="21" t="s">
+      <c r="C284" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="D283" s="18" t="s">
+      <c r="D284" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="E283" s="18" t="s">
+      <c r="E284" s="18" t="s">
         <v>447</v>
-      </c>
-      <c r="F283" s="18"/>
-      <c r="G283" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="284" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B284" s="34">
-        <v>22.2</v>
-      </c>
-      <c r="C284" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="E284" s="18" t="s">
-        <v>8</v>
       </c>
       <c r="F284" s="18"/>
       <c r="G284" s="18" t="s">
@@ -7217,91 +7225,91 @@
       </c>
     </row>
     <row r="285" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B285" s="31">
+      <c r="B285" s="34">
+        <v>22.2</v>
+      </c>
+      <c r="C285" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E285" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" s="18"/>
+      <c r="G285" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B286" s="31">
         <v>23</v>
       </c>
-      <c r="C285" s="32" t="s">
+      <c r="C286" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D285" s="33"/>
-      <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33"/>
-    </row>
-    <row r="286" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B286" s="34">
+      <c r="D286" s="33"/>
+      <c r="E286" s="33"/>
+      <c r="F286" s="33"/>
+      <c r="G286" s="33"/>
+    </row>
+    <row r="287" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B287" s="34">
         <v>23.1</v>
       </c>
-      <c r="C286" s="18" t="s">
+      <c r="C287" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="D286" s="18" t="s">
+      <c r="D287" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="E286" s="18" t="s">
+      <c r="E287" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="F286" s="18"/>
-      <c r="G286" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="287" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35">
+      <c r="F287" s="18"/>
+      <c r="G287" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B288" s="35">
         <v>23.2</v>
       </c>
-      <c r="C287" s="36" t="s">
+      <c r="C288" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="D287" s="37"/>
-      <c r="E287" s="36"/>
-      <c r="F287" s="36"/>
-      <c r="G287" s="36"/>
-    </row>
-    <row r="288" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B288" s="34" t="s">
-        <v>525</v>
-      </c>
-      <c r="C288" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="D288" s="21"/>
-      <c r="E288" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="F288" s="38"/>
-      <c r="G288" s="38"/>
+      <c r="D288" s="37"/>
+      <c r="E288" s="36"/>
+      <c r="F288" s="36"/>
+      <c r="G288" s="36"/>
     </row>
     <row r="289" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B289" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C289" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D289" s="21" t="s">
-        <v>458</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D289" s="21"/>
       <c r="E289" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="F289" s="18"/>
-      <c r="G289" s="18" t="s">
-        <v>448</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="F289" s="38"/>
+      <c r="G289" s="38"/>
     </row>
     <row r="290" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B290" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C290" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D290" s="21" t="s">
         <v>458</v>
       </c>
       <c r="E290" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F290" s="18"/>
       <c r="G290" s="18" t="s">
@@ -7309,47 +7317,47 @@
       </c>
     </row>
     <row r="291" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B291" s="35">
+      <c r="B291" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D291" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="F291" s="18"/>
+      <c r="G291" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B292" s="35">
         <v>23.3</v>
       </c>
-      <c r="C291" s="36" t="s">
+      <c r="C292" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="D291" s="37"/>
-      <c r="E291" s="36"/>
-      <c r="F291" s="39"/>
-      <c r="G291" s="39"/>
-    </row>
-    <row r="292" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="34" t="s">
+      <c r="D292" s="37"/>
+      <c r="E292" s="36"/>
+      <c r="F292" s="39"/>
+      <c r="G292" s="39"/>
+    </row>
+    <row r="293" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="C292" s="18" t="s">
+      <c r="C293" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D292" s="18" t="s">
+      <c r="D293" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="E292" s="21" t="s">
+      <c r="E293" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="F292" s="38"/>
-      <c r="G292" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="293" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B293" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D293" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="E293" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="F293" s="38"/>
       <c r="G293" s="38" t="s">
@@ -7358,16 +7366,16 @@
     </row>
     <row r="294" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B294" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C294" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D294" s="18" t="s">
         <v>458</v>
       </c>
       <c r="E294" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F294" s="38"/>
       <c r="G294" s="38" t="s">
@@ -7375,107 +7383,109 @@
       </c>
     </row>
     <row r="295" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B295" s="34">
+      <c r="B295" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="E295" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F295" s="38"/>
+      <c r="G295" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B296" s="34">
         <v>23.4</v>
       </c>
-      <c r="C295" s="18" t="s">
+      <c r="C296" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D295" s="18" t="s">
+      <c r="D296" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E295" s="18" t="s">
+      <c r="E296" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="296" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B296" s="31">
+      <c r="F296" s="18"/>
+      <c r="G296" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B297" s="31">
         <v>24</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="C297" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D296" s="33"/>
-      <c r="E296" s="33"/>
-      <c r="F296" s="33"/>
-      <c r="G296" s="33"/>
-    </row>
-    <row r="297" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B297" s="34">
+      <c r="D297" s="33"/>
+      <c r="E297" s="33"/>
+      <c r="F297" s="33"/>
+      <c r="G297" s="33"/>
+    </row>
+    <row r="298" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B298" s="34">
         <v>24.1</v>
       </c>
-      <c r="C297" s="18" t="s">
+      <c r="C298" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="D297" s="18" t="s">
+      <c r="D298" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="E297" s="18" t="s">
+      <c r="E298" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="F297" s="18"/>
-      <c r="G297" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="298" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B298" s="40">
+      <c r="F298" s="18"/>
+      <c r="G298" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B299" s="40">
         <v>24.2</v>
       </c>
-      <c r="C298" s="41" t="s">
+      <c r="C299" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="D298" s="42"/>
-      <c r="E298" s="41"/>
-      <c r="F298" s="41"/>
-      <c r="G298" s="41"/>
-    </row>
-    <row r="299" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="34" t="s">
+      <c r="D299" s="42"/>
+      <c r="E299" s="41"/>
+      <c r="F299" s="41"/>
+      <c r="G299" s="41"/>
+    </row>
+    <row r="300" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="C300" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D299" s="21" t="s">
+      <c r="D300" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="E299" s="18" t="s">
+      <c r="E300" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="F299" s="38"/>
-      <c r="G299" s="38"/>
-    </row>
-    <row r="300" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B300" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D300" s="21"/>
-      <c r="E300" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="F300" s="18"/>
-      <c r="G300" s="18" t="s">
-        <v>448</v>
-      </c>
+      <c r="F300" s="38"/>
+      <c r="G300" s="38"/>
     </row>
     <row r="301" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B301" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C301" s="18" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D301" s="21"/>
       <c r="E301" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F301" s="18"/>
       <c r="G301" s="18" t="s">
@@ -7484,14 +7494,14 @@
     </row>
     <row r="302" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B302" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C302" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D302" s="21"/>
       <c r="E302" s="18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F302" s="18"/>
       <c r="G302" s="18" t="s">
@@ -7500,32 +7510,30 @@
     </row>
     <row r="303" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B303" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C303" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D303" s="21"/>
       <c r="E303" s="18" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F303" s="18"/>
       <c r="G303" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="304" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B304" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C304" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D304" s="21" t="s">
-        <v>475</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D304" s="21"/>
       <c r="E304" s="18" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="F304" s="18"/>
       <c r="G304" s="18" t="s">
@@ -7534,80 +7542,80 @@
     </row>
     <row r="305" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B305" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C305" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D305" s="21" t="s">
         <v>475</v>
       </c>
       <c r="E305" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F305" s="18"/>
       <c r="G305" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="306" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B306" s="40">
+    <row r="306" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="C306" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E306" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="F306" s="18"/>
+      <c r="G306" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B307" s="40">
         <v>24.3</v>
       </c>
-      <c r="C306" s="41" t="s">
+      <c r="C307" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="D306" s="41"/>
-      <c r="E306" s="41"/>
-      <c r="F306" s="43"/>
-      <c r="G306" s="43"/>
-    </row>
-    <row r="307" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B307" s="34" t="s">
-        <v>538</v>
-      </c>
-      <c r="C307" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="D307" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="E307" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="F307" s="38"/>
-      <c r="G307" s="38" t="s">
-        <v>448</v>
-      </c>
+      <c r="D307" s="41"/>
+      <c r="E307" s="41"/>
+      <c r="F307" s="43"/>
+      <c r="G307" s="43"/>
     </row>
     <row r="308" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B308" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C308" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="D308" s="18"/>
+        <v>483</v>
+      </c>
+      <c r="D308" s="18" t="s">
+        <v>484</v>
+      </c>
       <c r="E308" s="21" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="F308" s="38"/>
       <c r="G308" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="309" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B309" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C309" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D309" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="E309" s="18" t="s">
-        <v>467</v>
+        <v>486</v>
+      </c>
+      <c r="D309" s="18"/>
+      <c r="E309" s="21" t="s">
+        <v>451</v>
       </c>
       <c r="F309" s="38"/>
       <c r="G309" s="38" t="s">
@@ -7616,60 +7624,62 @@
     </row>
     <row r="310" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B310" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C310" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D310" s="21" t="s">
         <v>475</v>
       </c>
       <c r="E310" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F310" s="38"/>
       <c r="G310" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="311" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B311" s="40">
+    <row r="311" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="C311" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D311" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="E311" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F311" s="38"/>
+      <c r="G311" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B312" s="40">
         <v>24.4</v>
       </c>
-      <c r="C311" s="41" t="s">
+      <c r="C312" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="D311" s="41"/>
-      <c r="E311" s="41"/>
-      <c r="F311" s="43"/>
-      <c r="G311" s="43"/>
-    </row>
-    <row r="312" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B312" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="C312" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="D312" s="18"/>
-      <c r="E312" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="F312" s="38"/>
-      <c r="G312" s="38" t="s">
-        <v>448</v>
-      </c>
+      <c r="D312" s="41"/>
+      <c r="E312" s="41"/>
+      <c r="F312" s="43"/>
+      <c r="G312" s="43"/>
     </row>
     <row r="313" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B313" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C313" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D313" s="18"/>
       <c r="E313" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F313" s="38"/>
       <c r="G313" s="38" t="s">
@@ -7678,14 +7688,14 @@
     </row>
     <row r="314" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B314" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C314" s="18" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D314" s="18"/>
-      <c r="E314" s="21" t="s">
-        <v>492</v>
+      <c r="E314" s="18" t="s">
+        <v>490</v>
       </c>
       <c r="F314" s="38"/>
       <c r="G314" s="38" t="s">
@@ -7693,43 +7703,43 @@
       </c>
     </row>
     <row r="315" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B315" s="44">
+      <c r="B315" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="C315" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D315" s="18"/>
+      <c r="E315" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="F315" s="38"/>
+      <c r="G315" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B316" s="44">
         <v>24.5</v>
       </c>
-      <c r="C315" s="21" t="s">
+      <c r="C316" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="D315" s="21"/>
-      <c r="E315" s="21"/>
-      <c r="F315" s="21"/>
-      <c r="G315" s="21"/>
-    </row>
-    <row r="316" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B316" s="34" t="s">
-        <v>545</v>
-      </c>
-      <c r="C316" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D316" s="18"/>
-      <c r="E316" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F316" s="18"/>
-      <c r="G316" s="18" t="s">
-        <v>448</v>
-      </c>
+      <c r="D316" s="21"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="21"/>
+      <c r="G316" s="21"/>
     </row>
     <row r="317" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B317" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C317" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D317" s="18"/>
       <c r="E317" s="18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F317" s="18"/>
       <c r="G317" s="18" t="s">
@@ -7737,17 +7747,15 @@
       </c>
     </row>
     <row r="318" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B318" s="34">
-        <v>24.6</v>
+      <c r="B318" s="34" t="s">
+        <v>546</v>
       </c>
       <c r="C318" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D318" s="18" t="s">
-        <v>449</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="D318" s="18"/>
       <c r="E318" s="18" t="s">
-        <v>8</v>
+        <v>497</v>
       </c>
       <c r="F318" s="18"/>
       <c r="G318" s="18" t="s">
@@ -7755,89 +7763,91 @@
       </c>
     </row>
     <row r="319" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B319" s="31">
+      <c r="B319" s="34">
+        <v>24.6</v>
+      </c>
+      <c r="C319" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E319" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" s="18"/>
+      <c r="G319" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B320" s="31">
         <v>25</v>
       </c>
-      <c r="C319" s="32" t="s">
+      <c r="C320" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="D319" s="33"/>
-      <c r="E319" s="33"/>
-      <c r="F319" s="33"/>
-      <c r="G319" s="33"/>
-    </row>
-    <row r="320" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B320" s="34">
+      <c r="D320" s="33"/>
+      <c r="E320" s="33"/>
+      <c r="F320" s="33"/>
+      <c r="G320" s="33"/>
+    </row>
+    <row r="321" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B321" s="34">
         <v>25.1</v>
       </c>
-      <c r="C320" s="18" t="s">
+      <c r="C321" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D320" s="18" t="s">
+      <c r="D321" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="E320" s="18" t="s">
+      <c r="E321" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="321" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B321" s="45">
+      <c r="F321" s="18"/>
+      <c r="G321" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B322" s="45">
         <v>25.1</v>
       </c>
-      <c r="C321" s="41" t="s">
+      <c r="C322" s="41" t="s">
         <v>502</v>
       </c>
-      <c r="D321" s="42"/>
-      <c r="E321" s="41"/>
-      <c r="F321" s="41"/>
-      <c r="G321" s="41"/>
-    </row>
-    <row r="322" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B322" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="C322" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="D322" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="E322" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="F322" s="38"/>
-      <c r="G322" s="38"/>
+      <c r="D322" s="42"/>
+      <c r="E322" s="41"/>
+      <c r="F322" s="41"/>
+      <c r="G322" s="41"/>
     </row>
     <row r="323" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B323" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C323" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="D323" s="18"/>
+        <v>455</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>503</v>
+      </c>
       <c r="E323" s="18" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="F323" s="38"/>
-      <c r="G323" s="38" t="s">
-        <v>448</v>
-      </c>
+      <c r="G323" s="38"/>
     </row>
     <row r="324" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B324" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C324" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D324" s="18"/>
       <c r="E324" s="18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F324" s="38"/>
       <c r="G324" s="38" t="s">
@@ -7846,82 +7856,80 @@
     </row>
     <row r="325" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B325" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C325" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="D325" s="21" t="s">
-        <v>503</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="D325" s="18"/>
       <c r="E325" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="F325" s="18"/>
-      <c r="G325" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="F325" s="38"/>
+      <c r="G325" s="38" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="326" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B326" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C326" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D326" s="21" t="s">
         <v>503</v>
       </c>
       <c r="E326" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F326" s="18"/>
       <c r="G326" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="327" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B327" s="40">
+    <row r="327" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B327" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="E327" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="F327" s="18"/>
+      <c r="G327" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B328" s="40">
         <v>25.3</v>
       </c>
-      <c r="C327" s="41" t="s">
+      <c r="C328" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="D327" s="42"/>
-      <c r="E327" s="41"/>
-      <c r="F327" s="43"/>
-      <c r="G327" s="43"/>
-    </row>
-    <row r="328" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B328" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="C328" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="D328" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="E328" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="F328" s="38"/>
-      <c r="G328" s="38" t="s">
-        <v>448</v>
-      </c>
+      <c r="D328" s="42"/>
+      <c r="E328" s="41"/>
+      <c r="F328" s="43"/>
+      <c r="G328" s="43"/>
     </row>
     <row r="329" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B329" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C329" s="18" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E329" s="18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F329" s="38"/>
       <c r="G329" s="38" t="s">
@@ -7930,16 +7938,16 @@
     </row>
     <row r="330" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B330" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D330" s="18" t="s">
         <v>503</v>
       </c>
       <c r="E330" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F330" s="38"/>
       <c r="G330" s="38" t="s">
@@ -7947,157 +7955,157 @@
       </c>
     </row>
     <row r="331" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B331" s="34">
+      <c r="B331" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="C331" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D331" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E331" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F331" s="38"/>
+      <c r="G331" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B332" s="34">
         <v>25.4</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="C332" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="D332" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E331" s="18" t="s">
+      <c r="E332" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F331" s="18"/>
-      <c r="G331" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="332" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B332" s="31">
+      <c r="F332" s="18"/>
+      <c r="G332" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B333" s="31">
         <v>26</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="C333" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="D332" s="33"/>
-      <c r="E332" s="33"/>
-      <c r="F332" s="33"/>
-      <c r="G332" s="33"/>
-    </row>
-    <row r="333" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B333" s="34">
+      <c r="D333" s="33"/>
+      <c r="E333" s="33"/>
+      <c r="F333" s="33"/>
+      <c r="G333" s="33"/>
+    </row>
+    <row r="334" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B334" s="34">
         <v>26.1</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="C334" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D333" s="18" t="s">
+      <c r="D334" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="E333" s="18" t="s">
+      <c r="E334" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="F333" s="18"/>
-      <c r="G333" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="334" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B334" s="40">
+      <c r="F334" s="18"/>
+      <c r="G334" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B335" s="40">
         <v>26.2</v>
       </c>
-      <c r="C334" s="41" t="s">
+      <c r="C335" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="D334" s="42"/>
-      <c r="E334" s="41"/>
-      <c r="F334" s="41"/>
-      <c r="G334" s="41"/>
-    </row>
-    <row r="335" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B335" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="C335" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="D335" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="E335" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="F335" s="38"/>
-      <c r="G335" s="38"/>
+      <c r="D335" s="42"/>
+      <c r="E335" s="41"/>
+      <c r="F335" s="41"/>
+      <c r="G335" s="41"/>
     </row>
     <row r="336" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B336" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C336" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D336" s="21" t="s">
         <v>513</v>
       </c>
       <c r="E336" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="F336" s="18"/>
-      <c r="G336" s="18" t="s">
-        <v>448</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="F336" s="38"/>
+      <c r="G336" s="38"/>
     </row>
     <row r="337" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B337" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C337" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D337" s="21" t="s">
         <v>513</v>
       </c>
       <c r="E337" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F337" s="18"/>
       <c r="G337" s="18" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="338" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B338" s="40">
+    <row r="338" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B338" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E338" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="F338" s="18"/>
+      <c r="G338" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B339" s="40">
         <v>26.3</v>
       </c>
-      <c r="C338" s="41" t="s">
+      <c r="C339" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="D338" s="42"/>
-      <c r="E338" s="41"/>
-      <c r="F338" s="43"/>
-      <c r="G338" s="43"/>
-    </row>
-    <row r="339" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B339" s="34" t="s">
+      <c r="D339" s="42"/>
+      <c r="E339" s="41"/>
+      <c r="F339" s="43"/>
+      <c r="G339" s="43"/>
+    </row>
+    <row r="340" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="34" t="s">
         <v>558</v>
       </c>
-      <c r="C339" s="18" t="s">
+      <c r="C340" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D339" s="18"/>
-      <c r="E339" s="21" t="s">
+      <c r="D340" s="18"/>
+      <c r="E340" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="F339" s="38"/>
-      <c r="G339" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B340" s="34" t="s">
-        <v>559</v>
-      </c>
-      <c r="C340" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D340" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="E340" s="18" t="s">
-        <v>467</v>
       </c>
       <c r="F340" s="38"/>
       <c r="G340" s="38" t="s">
@@ -8106,60 +8114,62 @@
     </row>
     <row r="341" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B341" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C341" s="18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D341" s="21" t="s">
         <v>513</v>
       </c>
       <c r="E341" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F341" s="38"/>
       <c r="G341" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="342" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
-      <c r="B342" s="40">
+    <row r="342" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B342" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="C342" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D342" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="E342" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F342" s="38"/>
+      <c r="G342" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" s="29" customFormat="1" ht="12.45" x14ac:dyDescent="0.2">
+      <c r="B343" s="40">
         <v>26.4</v>
       </c>
-      <c r="C342" s="41" t="s">
+      <c r="C343" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="D342" s="42"/>
-      <c r="E342" s="41"/>
-      <c r="F342" s="43"/>
-      <c r="G342" s="43"/>
-    </row>
-    <row r="343" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B343" s="34" t="s">
-        <v>561</v>
-      </c>
-      <c r="C343" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D343" s="21"/>
-      <c r="E343" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="F343" s="38"/>
-      <c r="G343" s="38" t="s">
-        <v>448</v>
-      </c>
+      <c r="D343" s="42"/>
+      <c r="E343" s="41"/>
+      <c r="F343" s="43"/>
+      <c r="G343" s="43"/>
     </row>
     <row r="344" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B344" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C344" s="18" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D344" s="21"/>
       <c r="E344" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F344" s="38"/>
       <c r="G344" s="38" t="s">
@@ -8167,82 +8177,98 @@
       </c>
     </row>
     <row r="345" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B345" s="34">
+      <c r="B345" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="C345" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D345" s="21"/>
+      <c r="E345" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F345" s="38"/>
+      <c r="G345" s="38" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B346" s="34">
         <v>26.5</v>
       </c>
-      <c r="C345" s="18" t="s">
+      <c r="C346" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D345" s="18" t="s">
+      <c r="D346" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="E345" s="18" t="s">
+      <c r="E346" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F345" s="18"/>
-      <c r="G345" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="346" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B346" s="31">
+      <c r="F346" s="18"/>
+      <c r="G346" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B347" s="31">
         <v>27</v>
       </c>
-      <c r="C346" s="32" t="s">
+      <c r="C347" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="D346" s="33"/>
-      <c r="E346" s="33"/>
-      <c r="F346" s="33"/>
-      <c r="G346" s="33"/>
-    </row>
-    <row r="347" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B347" s="34">
-        <v>27.1</v>
-      </c>
-      <c r="C347" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="D347" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="E347" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="F347" s="18"/>
-      <c r="G347" s="18" t="s">
-        <v>448</v>
-      </c>
+      <c r="D347" s="33"/>
+      <c r="E347" s="33"/>
+      <c r="F347" s="33"/>
+      <c r="G347" s="33"/>
     </row>
     <row r="348" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B348" s="34">
         <v>27.1</v>
       </c>
-      <c r="C348" s="18" t="s">
-        <v>7</v>
+      <c r="C348" s="21" t="s">
+        <v>522</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>449</v>
+        <v>523</v>
       </c>
       <c r="E348" s="18" t="s">
-        <v>8</v>
+        <v>524</v>
       </c>
       <c r="F348" s="18"/>
       <c r="G348" s="18" t="s">
         <v>448</v>
       </c>
     </row>
+    <row r="349" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
+      <c r="B349" s="34">
+        <v>27.1</v>
+      </c>
+      <c r="C349" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E349" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349" s="18"/>
+      <c r="G349" s="18" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="G221:G222"/>
-    <mergeCell ref="G223:G224"/>
+    <mergeCell ref="G220:G221"/>
+    <mergeCell ref="G222:G223"/>
+    <mergeCell ref="G224:G225"/>
     <mergeCell ref="C100:C101"/>
-    <mergeCell ref="G212:G216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="D217:D218"/>
-    <mergeCell ref="G217:G218"/>
-    <mergeCell ref="F217:F218"/>
+    <mergeCell ref="G213:G217"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="G218:G219"/>
+    <mergeCell ref="F218:F219"/>
     <mergeCell ref="G174:G178"/>
     <mergeCell ref="E170:E173"/>
     <mergeCell ref="F170:F173"/>
@@ -8250,32 +8276,8 @@
     <mergeCell ref="E174:E178"/>
     <mergeCell ref="F174:F178"/>
     <mergeCell ref="E124:E127"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="C212:C216"/>
-    <mergeCell ref="C199:C201"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="G121:G123"/>
-    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="C213:C217"/>
+    <mergeCell ref="C200:C202"/>
     <mergeCell ref="G139:G141"/>
     <mergeCell ref="G146:G148"/>
     <mergeCell ref="F149:F152"/>
@@ -8287,6 +8289,25 @@
     <mergeCell ref="G162:G164"/>
     <mergeCell ref="G142:G145"/>
     <mergeCell ref="E166:E169"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C162:C164"/>
     <mergeCell ref="F166:F169"/>
     <mergeCell ref="G166:G169"/>
     <mergeCell ref="E153:E156"/>
@@ -8298,6 +8319,11 @@
     <mergeCell ref="C149:C152"/>
     <mergeCell ref="C146:C148"/>
     <mergeCell ref="C142:C145"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G121:G123"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/BaoCaoDot3+4/Testcase.xlsx
+++ b/documents/BaoCaoDot3+4/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JavaScript\streamingmovie\documents\BaoCaoDot3+4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DB21E7-64CE-4288-B109-87E37E9FAF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC2DE6-98C8-4CD5-A1A7-1231C9F7F312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2110,21 +2110,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2136,17 +2136,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2157,11 +2154,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174:E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4240,7 +4240,7 @@
         <f>B99 + 0.1</f>
         <v>8.1</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="48" t="s">
         <v>324</v>
       </c>
       <c r="D100" s="17" t="s">
@@ -4259,7 +4259,7 @@
         <f t="shared" ref="B101:B108" si="3">B100 + 0.1</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="C101" s="53"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="17" t="s">
         <v>332</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>208</v>
       </c>
       <c r="F114" s="13"/>
-      <c r="G114" s="51" t="s">
+      <c r="G114" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
         <v>208</v>
       </c>
       <c r="F115" s="13"/>
-      <c r="G115" s="52"/>
+      <c r="G115" s="50"/>
     </row>
     <row r="116" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
@@ -4529,14 +4529,14 @@
         <v>209</v>
       </c>
       <c r="F116" s="13"/>
-      <c r="G116" s="53"/>
+      <c r="G116" s="49"/>
     </row>
     <row r="117" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <f t="shared" si="4"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="C117" s="53" t="s">
         <v>159</v>
       </c>
       <c r="D117" s="17" t="s">
@@ -4546,7 +4546,7 @@
         <v>202</v>
       </c>
       <c r="F117" s="13"/>
-      <c r="G117" s="51" t="s">
+      <c r="G117" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
         <f t="shared" si="4"/>
         <v>9.8999999999999968</v>
       </c>
-      <c r="C118" s="57"/>
+      <c r="C118" s="53"/>
       <c r="D118" s="17" t="s">
         <v>165</v>
       </c>
@@ -4563,14 +4563,14 @@
         <v>203</v>
       </c>
       <c r="F118" s="13"/>
-      <c r="G118" s="52"/>
+      <c r="G118" s="50"/>
     </row>
     <row r="119" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B119" s="15">
         <f>B110</f>
         <v>9.1</v>
       </c>
-      <c r="C119" s="57"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="17" t="s">
         <v>166</v>
       </c>
@@ -4578,14 +4578,14 @@
         <v>204</v>
       </c>
       <c r="F119" s="13"/>
-      <c r="G119" s="52"/>
+      <c r="G119" s="50"/>
     </row>
     <row r="120" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B120" s="15">
         <f>B119+0.01</f>
         <v>9.11</v>
       </c>
-      <c r="C120" s="57"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="17" t="s">
         <v>168</v>
       </c>
@@ -4593,14 +4593,14 @@
         <v>205</v>
       </c>
       <c r="F120" s="13"/>
-      <c r="G120" s="53"/>
+      <c r="G120" s="49"/>
     </row>
     <row r="121" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B121" s="15">
         <f t="shared" ref="B121:B123" si="5">B120+0.01</f>
         <v>9.1199999999999992</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="48" t="s">
         <v>158</v>
       </c>
       <c r="D121" s="17" t="s">
@@ -4610,7 +4610,7 @@
         <v>206</v>
       </c>
       <c r="F121" s="13"/>
-      <c r="G121" s="51" t="s">
+      <c r="G121" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <f t="shared" si="5"/>
         <v>9.129999999999999</v>
       </c>
-      <c r="C122" s="52"/>
+      <c r="C122" s="50"/>
       <c r="D122" s="17" t="s">
         <v>170</v>
       </c>
@@ -4627,14 +4627,14 @@
         <v>206</v>
       </c>
       <c r="F122" s="13"/>
-      <c r="G122" s="52"/>
+      <c r="G122" s="50"/>
     </row>
     <row r="123" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B123" s="15">
         <f t="shared" si="5"/>
         <v>9.1399999999999988</v>
       </c>
-      <c r="C123" s="53"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="17" t="s">
         <v>171</v>
       </c>
@@ -4642,10 +4642,10 @@
         <v>207</v>
       </c>
       <c r="F123" s="13"/>
-      <c r="G123" s="53"/>
+      <c r="G123" s="49"/>
     </row>
     <row r="124" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="58">
+      <c r="B124" s="63">
         <f>B123+0.01</f>
         <v>9.1499999999999986</v>
       </c>
@@ -4655,46 +4655,46 @@
       <c r="D124" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E124" s="51" t="s">
+      <c r="E124" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F124" s="48"/>
-      <c r="G124" s="51" t="s">
+      <c r="F124" s="51"/>
+      <c r="G124" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="59"/>
+      <c r="B125" s="64"/>
       <c r="C125" s="55"/>
       <c r="D125" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E125" s="52"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="52"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="50"/>
     </row>
     <row r="126" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="59"/>
+      <c r="B126" s="64"/>
       <c r="C126" s="55"/>
       <c r="D126" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E126" s="52"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="52"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="60"/>
+      <c r="B127" s="65"/>
       <c r="C127" s="56"/>
       <c r="D127" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E127" s="53"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="53"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="49"/>
     </row>
     <row r="128" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="58">
+      <c r="B128" s="63">
         <f>B124+0.01</f>
         <v>9.1599999999999984</v>
       </c>
@@ -4704,43 +4704,43 @@
       <c r="D128" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E128" s="51" t="s">
+      <c r="E128" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F128" s="48"/>
-      <c r="G128" s="51" t="s">
+      <c r="F128" s="51"/>
+      <c r="G128" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="59"/>
+      <c r="B129" s="64"/>
       <c r="C129" s="55"/>
       <c r="D129" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E129" s="52"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="52"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="50"/>
     </row>
     <row r="130" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="59"/>
+      <c r="B130" s="64"/>
       <c r="C130" s="55"/>
       <c r="D130" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E130" s="52"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="52"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="50"/>
     </row>
     <row r="131" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="60"/>
+      <c r="B131" s="65"/>
       <c r="C131" s="56"/>
       <c r="D131" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E131" s="53"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="53"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="49"/>
     </row>
     <row r="132" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B132" s="15">
@@ -4867,7 +4867,7 @@
         <f t="shared" si="6"/>
         <v>10.499999999999998</v>
       </c>
-      <c r="C139" s="51" t="s">
+      <c r="C139" s="48" t="s">
         <v>160</v>
       </c>
       <c r="D139" s="17" t="s">
@@ -4877,7 +4877,7 @@
         <v>208</v>
       </c>
       <c r="F139" s="13"/>
-      <c r="G139" s="51" t="s">
+      <c r="G139" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
         <f t="shared" si="6"/>
         <v>10.599999999999998</v>
       </c>
-      <c r="C140" s="52"/>
+      <c r="C140" s="50"/>
       <c r="D140" s="17" t="s">
         <v>183</v>
       </c>
@@ -4894,14 +4894,14 @@
         <v>208</v>
       </c>
       <c r="F140" s="13"/>
-      <c r="G140" s="52"/>
+      <c r="G140" s="50"/>
     </row>
     <row r="141" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <f t="shared" si="6"/>
         <v>10.699999999999998</v>
       </c>
-      <c r="C141" s="53"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="17" t="s">
         <v>184</v>
       </c>
@@ -4909,14 +4909,14 @@
         <v>208</v>
       </c>
       <c r="F141" s="13"/>
-      <c r="G141" s="53"/>
+      <c r="G141" s="49"/>
     </row>
     <row r="142" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <f t="shared" si="6"/>
         <v>10.799999999999997</v>
       </c>
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="48" t="s">
         <v>159</v>
       </c>
       <c r="D142" s="17" t="s">
@@ -4926,7 +4926,7 @@
         <v>212</v>
       </c>
       <c r="F142" s="13"/>
-      <c r="G142" s="51" t="s">
+      <c r="G142" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
         <f t="shared" si="6"/>
         <v>10.899999999999997</v>
       </c>
-      <c r="C143" s="52"/>
+      <c r="C143" s="50"/>
       <c r="D143" s="17" t="s">
         <v>185</v>
       </c>
@@ -4943,14 +4943,14 @@
         <v>213</v>
       </c>
       <c r="F143" s="13"/>
-      <c r="G143" s="52"/>
+      <c r="G143" s="50"/>
     </row>
     <row r="144" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B144" s="15">
         <f>B135</f>
         <v>10.1</v>
       </c>
-      <c r="C144" s="52"/>
+      <c r="C144" s="50"/>
       <c r="D144" s="17" t="s">
         <v>166</v>
       </c>
@@ -4958,14 +4958,14 @@
         <v>204</v>
       </c>
       <c r="F144" s="13"/>
-      <c r="G144" s="52"/>
+      <c r="G144" s="50"/>
     </row>
     <row r="145" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B145" s="15">
         <f>B144+0.01</f>
         <v>10.11</v>
       </c>
-      <c r="C145" s="53"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="17" t="s">
         <v>168</v>
       </c>
@@ -4973,14 +4973,14 @@
         <v>205</v>
       </c>
       <c r="F145" s="13"/>
-      <c r="G145" s="53"/>
+      <c r="G145" s="49"/>
     </row>
     <row r="146" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B146" s="15">
         <f t="shared" ref="B146:B149" si="7">B145+0.01</f>
         <v>10.119999999999999</v>
       </c>
-      <c r="C146" s="51" t="s">
+      <c r="C146" s="48" t="s">
         <v>158</v>
       </c>
       <c r="D146" s="17" t="s">
@@ -4990,7 +4990,7 @@
         <v>206</v>
       </c>
       <c r="F146" s="13"/>
-      <c r="G146" s="51" t="s">
+      <c r="G146" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
         <f t="shared" si="7"/>
         <v>10.129999999999999</v>
       </c>
-      <c r="C147" s="52"/>
+      <c r="C147" s="50"/>
       <c r="D147" s="17" t="s">
         <v>170</v>
       </c>
@@ -5007,14 +5007,14 @@
         <v>206</v>
       </c>
       <c r="F147" s="13"/>
-      <c r="G147" s="52"/>
+      <c r="G147" s="50"/>
     </row>
     <row r="148" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B148" s="15">
         <f t="shared" si="7"/>
         <v>10.139999999999999</v>
       </c>
-      <c r="C148" s="53"/>
+      <c r="C148" s="49"/>
       <c r="D148" s="17" t="s">
         <v>171</v>
       </c>
@@ -5022,10 +5022,10 @@
         <v>214</v>
       </c>
       <c r="F148" s="13"/>
-      <c r="G148" s="53"/>
+      <c r="G148" s="49"/>
     </row>
     <row r="149" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="58">
+      <c r="B149" s="63">
         <f t="shared" si="7"/>
         <v>10.149999999999999</v>
       </c>
@@ -5035,46 +5035,46 @@
       <c r="D149" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E149" s="51" t="s">
+      <c r="E149" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F149" s="48"/>
-      <c r="G149" s="51" t="s">
+      <c r="F149" s="51"/>
+      <c r="G149" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="59"/>
+      <c r="B150" s="64"/>
       <c r="C150" s="55"/>
       <c r="D150" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E150" s="52"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="52"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="50"/>
     </row>
     <row r="151" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="59"/>
+      <c r="B151" s="64"/>
       <c r="C151" s="55"/>
       <c r="D151" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E151" s="52"/>
-      <c r="F151" s="49"/>
-      <c r="G151" s="52"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="50"/>
     </row>
     <row r="152" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="60"/>
+      <c r="B152" s="65"/>
       <c r="C152" s="56"/>
       <c r="D152" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E152" s="53"/>
-      <c r="F152" s="50"/>
-      <c r="G152" s="53"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="49"/>
     </row>
     <row r="153" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="58">
+      <c r="B153" s="63">
         <f>B149+0.01</f>
         <v>10.159999999999998</v>
       </c>
@@ -5084,43 +5084,43 @@
       <c r="D153" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E153" s="51" t="s">
+      <c r="E153" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="F153" s="48"/>
-      <c r="G153" s="51" t="s">
+      <c r="F153" s="51"/>
+      <c r="G153" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="62"/>
+      <c r="B154" s="61"/>
       <c r="C154" s="55"/>
       <c r="D154" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E154" s="52"/>
-      <c r="F154" s="49"/>
-      <c r="G154" s="52"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="50"/>
     </row>
     <row r="155" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="62"/>
+      <c r="B155" s="61"/>
       <c r="C155" s="55"/>
       <c r="D155" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E155" s="52"/>
-      <c r="F155" s="49"/>
-      <c r="G155" s="52"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="50"/>
     </row>
     <row r="156" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="63"/>
+      <c r="B156" s="62"/>
       <c r="C156" s="56"/>
       <c r="D156" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E156" s="53"/>
-      <c r="F156" s="50"/>
-      <c r="G156" s="53"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="49"/>
     </row>
     <row r="157" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B157" s="15">
@@ -5215,45 +5215,45 @@
       </c>
     </row>
     <row r="162" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B162" s="61">
+      <c r="B162" s="60">
         <f>B161+0.1</f>
         <v>11.299999999999999</v>
       </c>
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="48" t="s">
         <v>192</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E162" s="51" t="s">
+      <c r="E162" s="48" t="s">
         <v>194</v>
       </c>
       <c r="F162" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="G162" s="51" t="s">
+      <c r="G162" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="163" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B163" s="62"/>
-      <c r="C163" s="52"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="50"/>
       <c r="D163" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E163" s="52"/>
+      <c r="E163" s="50"/>
       <c r="F163" s="55"/>
-      <c r="G163" s="52"/>
+      <c r="G163" s="50"/>
     </row>
     <row r="164" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B164" s="63"/>
-      <c r="C164" s="53"/>
+      <c r="B164" s="62"/>
+      <c r="C164" s="49"/>
       <c r="D164" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E164" s="53"/>
+      <c r="E164" s="49"/>
       <c r="F164" s="56"/>
-      <c r="G164" s="53"/>
+      <c r="G164" s="49"/>
     </row>
     <row r="165" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
@@ -5277,60 +5277,60 @@
       </c>
     </row>
     <row r="166" spans="2:7" ht="39.299999999999997" x14ac:dyDescent="0.25">
-      <c r="B166" s="61">
+      <c r="B166" s="60">
         <f>B165+0.1</f>
         <v>11.499999999999998</v>
       </c>
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="48" t="s">
         <v>219</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E166" s="51" t="s">
+      <c r="E166" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F166" s="48"/>
-      <c r="G166" s="51" t="s">
+      <c r="F166" s="51"/>
+      <c r="G166" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="62"/>
-      <c r="C167" s="52"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E167" s="52"/>
-      <c r="F167" s="49"/>
-      <c r="G167" s="52"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="50"/>
     </row>
     <row r="168" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="62"/>
-      <c r="C168" s="52"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="50"/>
       <c r="D168" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E168" s="52"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="52"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="50"/>
     </row>
     <row r="169" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
-      <c r="B169" s="63"/>
-      <c r="C169" s="53"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="49"/>
       <c r="D169" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E169" s="53"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="53"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="49"/>
     </row>
     <row r="170" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="61">
+      <c r="B170" s="60">
         <f>B166+0.1</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="C170" s="51" t="s">
+      <c r="C170" s="48" t="s">
         <v>231</v>
       </c>
       <c r="D170" s="17" t="s">
@@ -5339,99 +5339,99 @@
       <c r="E170" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="F170" s="48"/>
-      <c r="G170" s="51" t="s">
+      <c r="F170" s="51"/>
+      <c r="G170" s="48" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="62"/>
-      <c r="C171" s="52"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="17" t="s">
         <v>220</v>
       </c>
       <c r="E171" s="55"/>
-      <c r="F171" s="49"/>
-      <c r="G171" s="52"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="50"/>
     </row>
     <row r="172" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="62"/>
-      <c r="C172" s="52"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="50"/>
       <c r="D172" s="7" t="s">
         <v>232</v>
       </c>
       <c r="E172" s="55"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="52"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="50"/>
     </row>
     <row r="173" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="63"/>
-      <c r="C173" s="53"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="49"/>
       <c r="D173" s="7" t="s">
         <v>233</v>
       </c>
       <c r="E173" s="56"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="53"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="49"/>
     </row>
     <row r="174" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="61">
+      <c r="B174" s="60">
         <f>B170+0.1</f>
         <v>11.699999999999998</v>
       </c>
-      <c r="C174" s="64" t="s">
+      <c r="C174" s="58" t="s">
         <v>235</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E174" s="64" t="s">
+      <c r="E174" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="F174" s="65"/>
-      <c r="G174" s="57" t="s">
+      <c r="F174" s="59"/>
+      <c r="G174" s="53" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="62"/>
-      <c r="C175" s="64"/>
+      <c r="B175" s="61"/>
+      <c r="C175" s="58"/>
       <c r="D175" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E175" s="64"/>
-      <c r="F175" s="65"/>
-      <c r="G175" s="57"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="53"/>
     </row>
     <row r="176" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B176" s="62"/>
-      <c r="C176" s="64"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="58"/>
       <c r="D176" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="E176" s="64"/>
-      <c r="F176" s="65"/>
-      <c r="G176" s="57"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="59"/>
+      <c r="G176" s="53"/>
     </row>
     <row r="177" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="62"/>
-      <c r="C177" s="64"/>
+      <c r="B177" s="61"/>
+      <c r="C177" s="58"/>
       <c r="D177" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="E177" s="64"/>
-      <c r="F177" s="65"/>
-      <c r="G177" s="57"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="53"/>
     </row>
     <row r="178" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="63"/>
-      <c r="C178" s="64"/>
+      <c r="B178" s="62"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E178" s="64"/>
-      <c r="F178" s="65"/>
-      <c r="G178" s="57"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="59"/>
+      <c r="G178" s="53"/>
     </row>
     <row r="179" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
@@ -5455,7 +5455,7 @@
         <f>B179+0.1</f>
         <v>11.899999999999997</v>
       </c>
-      <c r="C180" s="51" t="s">
+      <c r="C180" s="48" t="s">
         <v>178</v>
       </c>
       <c r="D180" s="17" t="s">
@@ -5474,7 +5474,7 @@
         <f>B160</f>
         <v>11.1</v>
       </c>
-      <c r="C181" s="53"/>
+      <c r="C181" s="49"/>
       <c r="D181" s="17" t="s">
         <v>181</v>
       </c>
@@ -6035,7 +6035,7 @@
         <f>B212+0.1</f>
         <v>14.1</v>
       </c>
-      <c r="C213" s="51" t="s">
+      <c r="C213" s="48" t="s">
         <v>242</v>
       </c>
       <c r="D213" s="17" t="s">
@@ -6045,7 +6045,7 @@
         <v>250</v>
       </c>
       <c r="F213" s="13"/>
-      <c r="G213" s="51" t="s">
+      <c r="G213" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
         <f t="shared" ref="B214:B221" si="13">B213+0.1</f>
         <v>14.2</v>
       </c>
-      <c r="C214" s="52"/>
+      <c r="C214" s="50"/>
       <c r="D214" s="24" t="s">
         <v>245</v>
       </c>
@@ -6062,14 +6062,14 @@
         <v>251</v>
       </c>
       <c r="F214" s="13"/>
-      <c r="G214" s="52"/>
+      <c r="G214" s="50"/>
     </row>
     <row r="215" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <f t="shared" si="13"/>
         <v>14.299999999999999</v>
       </c>
-      <c r="C215" s="52"/>
+      <c r="C215" s="50"/>
       <c r="D215" s="17" t="s">
         <v>244</v>
       </c>
@@ -6079,14 +6079,14 @@
       <c r="F215" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="G215" s="52"/>
+      <c r="G215" s="50"/>
     </row>
     <row r="216" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <f t="shared" si="13"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="C216" s="52"/>
+      <c r="C216" s="50"/>
       <c r="D216" s="17" t="s">
         <v>246</v>
       </c>
@@ -6094,14 +6094,14 @@
         <v>252</v>
       </c>
       <c r="F216" s="13"/>
-      <c r="G216" s="52"/>
+      <c r="G216" s="50"/>
     </row>
     <row r="217" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <f t="shared" si="13"/>
         <v>14.499999999999998</v>
       </c>
-      <c r="C217" s="53"/>
+      <c r="C217" s="49"/>
       <c r="D217" s="17" t="s">
         <v>247</v>
       </c>
@@ -6109,22 +6109,22 @@
         <v>252</v>
       </c>
       <c r="F217" s="13"/>
-      <c r="G217" s="53"/>
+      <c r="G217" s="49"/>
     </row>
     <row r="218" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <f t="shared" si="13"/>
         <v>14.599999999999998</v>
       </c>
-      <c r="C218" s="51" t="s">
+      <c r="C218" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D218" s="48"/>
+      <c r="D218" s="51"/>
       <c r="E218" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F218" s="48"/>
-      <c r="G218" s="51" t="s">
+      <c r="F218" s="51"/>
+      <c r="G218" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6133,13 +6133,13 @@
         <f t="shared" si="13"/>
         <v>14.699999999999998</v>
       </c>
-      <c r="C219" s="53"/>
-      <c r="D219" s="50"/>
+      <c r="C219" s="49"/>
+      <c r="D219" s="52"/>
       <c r="E219" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F219" s="50"/>
-      <c r="G219" s="53"/>
+      <c r="F219" s="52"/>
+      <c r="G219" s="49"/>
     </row>
     <row r="220" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
@@ -6154,7 +6154,7 @@
         <v>258</v>
       </c>
       <c r="F220" s="13"/>
-      <c r="G220" s="51" t="s">
+      <c r="G220" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
         <v>260</v>
       </c>
       <c r="F221" s="13"/>
-      <c r="G221" s="53"/>
+      <c r="G221" s="49"/>
     </row>
     <row r="222" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B222" s="15">
@@ -6186,7 +6186,7 @@
         <v>261</v>
       </c>
       <c r="F222" s="13"/>
-      <c r="G222" s="51" t="s">
+      <c r="G222" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
         <v>263</v>
       </c>
       <c r="F223" s="13"/>
-      <c r="G223" s="53"/>
+      <c r="G223" s="49"/>
     </row>
     <row r="224" spans="2:7" ht="26.2" x14ac:dyDescent="0.25">
       <c r="B224" s="15">
@@ -6218,7 +6218,7 @@
         <v>266</v>
       </c>
       <c r="F224" s="13"/>
-      <c r="G224" s="51" t="s">
+      <c r="G224" s="48" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
         <v>267</v>
       </c>
       <c r="F225" s="13"/>
-      <c r="G225" s="53"/>
+      <c r="G225" s="49"/>
     </row>
     <row r="226" spans="2:7" ht="13.1" x14ac:dyDescent="0.25">
       <c r="B226" s="15">
@@ -8260,6 +8260,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="F166:F169"/>
+    <mergeCell ref="G166:G169"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="G117:G120"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="C174:C178"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="C213:C217"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="G139:G141"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="F149:F152"/>
+    <mergeCell ref="G149:G152"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="E149:E152"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="G142:G145"/>
+    <mergeCell ref="E166:E169"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C162:C164"/>
     <mergeCell ref="G220:G221"/>
     <mergeCell ref="G222:G223"/>
     <mergeCell ref="G224:G225"/>
@@ -8276,54 +8324,6 @@
     <mergeCell ref="E174:E178"/>
     <mergeCell ref="F174:F178"/>
     <mergeCell ref="E124:E127"/>
-    <mergeCell ref="C213:C217"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="G139:G141"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="F149:F152"/>
-    <mergeCell ref="G149:G152"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="E149:E152"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="G142:G145"/>
-    <mergeCell ref="E166:E169"/>
-    <mergeCell ref="G117:G120"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="C174:C178"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="F166:F169"/>
-    <mergeCell ref="G166:G169"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="G121:G123"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
